--- a/doc/design/GW_Design.xlsx
+++ b/doc/design/GW_Design.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="15480" windowHeight="8130" tabRatio="705"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15480" windowHeight="8130" tabRatio="705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Record of change" sheetId="1" r:id="rId1"/>
-    <sheet name="Architecture design" sheetId="22" r:id="rId2"/>
-    <sheet name="Screen design" sheetId="21" r:id="rId3"/>
+    <sheet name="Screen design" sheetId="21" r:id="rId2"/>
+    <sheet name="Architecture design" sheetId="22" r:id="rId3"/>
     <sheet name="Domain design" sheetId="23" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -121,6 +121,46 @@
   <si>
     <t>Design</t>
   </si>
+  <si>
+    <t>Screen design</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Trên cơ sở tài liệu trong thư mục "Requirement", tài liệu này phát thảo màn hình cho các nhóm người dùng của hệ thống bao gồm:</t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t>Người quản trị hệ thống của nhà cung cấp dịch vụ (Supplier)</t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t>Người quản lý khách hàng của nhà cung cấp dịch vụ</t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t>Nhân viên chăm sóc khách hàng của nhà cung cấp dịch vụ</t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t>Người quản trị dịch vụ của bên sử dụng dịch vụ (Consumer)</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Nhân viên sử dụng dịch vụ của bên sử dụng dịch vụ</t>
+  </si>
 </sst>
 </file>
 
@@ -131,7 +171,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -393,6 +433,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="26">
@@ -1056,7 +1102,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1345,6 +1391,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1790,7 +1837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1995,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3:AJ3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
@@ -2092,7 +2139,9 @@
       <c r="B3" s="92"/>
       <c r="C3" s="92"/>
       <c r="D3" s="92"/>
-      <c r="E3" s="95"/>
+      <c r="E3" s="95" t="s">
+        <v>21</v>
+      </c>
       <c r="F3" s="96"/>
       <c r="G3" s="96"/>
       <c r="H3" s="97"/>
@@ -2102,7 +2151,9 @@
       <c r="J3" s="92"/>
       <c r="K3" s="92"/>
       <c r="L3" s="101"/>
-      <c r="M3" s="103"/>
+      <c r="M3" s="103" t="s">
+        <v>20</v>
+      </c>
       <c r="N3" s="96"/>
       <c r="O3" s="96"/>
       <c r="P3" s="96"/>
@@ -2255,7 +2306,9 @@
     </row>
     <row r="7" spans="1:47" ht="15.75">
       <c r="A7" s="40"/>
-      <c r="B7" s="42"/>
+      <c r="B7" s="42" t="s">
+        <v>22</v>
+      </c>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
       <c r="E7" s="42"/>
@@ -2294,8 +2347,12 @@
     <row r="8" spans="1:47" ht="15.75">
       <c r="A8" s="40"/>
       <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="C8" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" s="41"/>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
@@ -2332,8 +2389,12 @@
     <row r="9" spans="1:47" ht="15.75">
       <c r="A9" s="40"/>
       <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="112" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>26</v>
+      </c>
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
@@ -2370,8 +2431,12 @@
     <row r="10" spans="1:47" ht="15.75">
       <c r="A10" s="46"/>
       <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="C10" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>28</v>
+      </c>
       <c r="E10" s="47"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -2408,8 +2473,12 @@
     <row r="11" spans="1:47" ht="15.75">
       <c r="A11" s="49"/>
       <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="C11" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="47"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
@@ -2446,8 +2515,12 @@
     <row r="12" spans="1:47" ht="15.75">
       <c r="A12" s="49"/>
       <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="C12" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" s="47"/>
       <c r="F12" s="42"/>
       <c r="G12" s="41"/>

--- a/doc/design/GW_Design.xlsx
+++ b/doc/design/GW_Design.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="15480" windowHeight="8130" tabRatio="705"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15480" windowHeight="8130" tabRatio="705" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Record of change" sheetId="1" r:id="rId1"/>
     <sheet name="Screen design" sheetId="21" r:id="rId2"/>
     <sheet name="Architecture design" sheetId="22" r:id="rId3"/>
-    <sheet name="Domain design" sheetId="23" r:id="rId4"/>
+    <sheet name="Domain design" sheetId="23" state="hidden" r:id="rId4"/>
+    <sheet name="Processing" sheetId="24" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_2.1_Danh_sách_đơn_hàng">'Screen design'!$A$39</definedName>
@@ -25,14 +26,16 @@
     <definedName name="DanhSachDonHang">'Screen design'!$A$39</definedName>
     <definedName name="NhapThongTinDonHang">'Screen design'!$A$76</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Architecture design'!$A$1:$AJ$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Domain design'!$A$1:$AJ$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Processing!$A$1:$AJ$83</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Screen design'!$A$1:$AJ$283</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="324">
   <si>
     <t>Date</t>
   </si>
@@ -892,18 +895,6 @@
     <t>Server side</t>
   </si>
   <si>
-    <t>User service: cung cấp các dịch vụ đăng nhập, cấp phát tài khoản người dùng</t>
-  </si>
-  <si>
-    <t>Delivery Plan service cung cấp dịch vụ lập kế hoạch giao hàng tối ưu.</t>
-  </si>
-  <si>
-    <t>Find Path service: cung cấp dịch vụ lập lộ trình giao hàng tối ưu.</t>
-  </si>
-  <si>
-    <t>Reporting service: cung cấp dịch vụ theo dõi tiến độ giao hàng, báo cáo số liệu</t>
-  </si>
-  <si>
     <t>Kiến trúc tổng thể</t>
   </si>
   <si>
@@ -911,9 +902,6 @@
   </si>
   <si>
     <t>Đối với một chức năng báo cáo, xem lộ trình giao hàng thì có hỗ trợ trêm trên Smart phone, Tablet.</t>
-  </si>
-  <si>
-    <t>Phần Backend sẽ được tổ chức dưới dạng Microserivces như sau:</t>
   </si>
   <si>
     <t>2.1 Danh sách đơn hàng</t>
@@ -971,6 +959,797 @@
   <si>
     <t>Có thể dùng App trên Android và iOS để kết nối vào hệ thống, chọn xe và xem lộ trình giao hàng của xe.</t>
   </si>
+  <si>
+    <t>public abstract class Entity&lt;T&gt; {</t>
+  </si>
+  <si>
+    <t>T id;</t>
+  </si>
+  <si>
+    <t>String name;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>... (getter/setter and other relevant code)</t>
+  </si>
+  <si>
+    <t>Entities trong hệ thống đều có id và name. Vì vậy được thiết kế từ abstract class Entity như sau:</t>
+  </si>
+  <si>
+    <t>Ngoài ra để kiểm soát các Entities có được thay đổi hay không thì chúng ta dùng 1 lớp abstract kế thừa lớp Entity:</t>
+  </si>
+  <si>
+    <t>public abstract class BaseEntity&lt;T&gt; extends Entity&lt;T&gt; {</t>
+  </si>
+  <si>
+    <t>private final boolean isModified;</t>
+  </si>
+  <si>
+    <t>public BaseEntity(T id, String name) {</t>
+  </si>
+  <si>
+    <t>super.id = id;</t>
+  </si>
+  <si>
+    <t>super.name = name;</t>
+  </si>
+  <si>
+    <t>isModified = false;</t>
+  </si>
+  <si>
+    <t>Các Entities thật (logical entities) trong hệ thống sẽ kế thừa lớp BaseEntity này. Cụ thể gồm các entities sau:</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Mô tả phương tiện vận chuyển hàng (Xe)</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Sản phẩm. Trong dự án này là sản phẩm đã đóng gói bao bì vận chuyển</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Đơn hàng cần vận chuyển</t>
+  </si>
+  <si>
+    <t>Ghi chú: Tuỳ vào thiết kế module thì các Entites này sẽ được đặt trong module tương ứng</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>1.1 Định nghĩa Entities cho hệ thống</t>
+  </si>
+  <si>
+    <t>Chúng ta sử dụng 2 interfaces Repository và ReadonlyRepository.</t>
+  </si>
+  <si>
+    <t>ReadonlyRepository interface sẽ được dùng cho các abstract phục vụ cho việc đọc (chỉ đọc) dữ liệu.</t>
+  </si>
+  <si>
+    <t>public interface ReadOnlyRepository&lt;TE, T&gt; {</t>
+  </si>
+  <si>
+    <t>boolean contains(T id);</t>
+  </si>
+  <si>
+    <t>Entity get(T id);</t>
+  </si>
+  <si>
+    <t>Collection&lt;TE&gt; getAll();</t>
+  </si>
+  <si>
+    <t>public interface Repository&lt;TE, T&gt; extends ReadOnlyRepository&lt;TE, T&gt; {</t>
+  </si>
+  <si>
+    <t>void add(TE entity);</t>
+  </si>
+  <si>
+    <t>void remove(T id);</t>
+  </si>
+  <si>
+    <t>void update(TE entity);</t>
+  </si>
+  <si>
+    <t>boolean containsName(String name);</t>
+  </si>
+  <si>
+    <t>Collection&lt;Vehicle&gt; findByName(String name);</t>
+  </si>
+  <si>
+    <t>Mỗi entity sẽ có một Repository interface tương ứng để quản lý việc lưu trữ, truy xuất dữ liệu.</t>
+  </si>
+  <si>
+    <t>1.2 Thiết kế các Repository</t>
+  </si>
+  <si>
+    <t>1. Thiết kết chung</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public interface </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VehicleRepository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;Vehicle, String&gt; extends Repository&lt;Vehicle, String&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <t>public class InSQLVehicleRepository implements VehicleRepository&lt;Vehicle, String&gt; {</t>
+  </si>
+  <si>
+    <t>@Repository("VehicleRepository")</t>
+  </si>
+  <si>
+    <t>Ví dụ:</t>
+  </si>
+  <si>
+    <t>Chỗ … là tên entity</t>
+  </si>
+  <si>
+    <t>Chúng ta sẽ dùng SQL (MySQL) để lưu trữ dữ liệu nên sẽ có lớp cài đặt InSQL...Repository tương ứng cho interface.</t>
+  </si>
+  <si>
+    <t>Bản nháp thiết kế cho mô hình Microservices</t>
+  </si>
+  <si>
+    <t>Phần Backend sẽ được tổ chức dưới dạng Modules như sau:</t>
+  </si>
+  <si>
+    <t>User module cung cấp các dịch vụ đăng nhập, cấp phát tài khoản người dùng</t>
+  </si>
+  <si>
+    <t>Delivery Plan module: cung cấp dịch vụ lập kế hoạch giao hàng tối ưu.</t>
+  </si>
+  <si>
+    <t>Find Path module: cung cấp dịch vụ lập lộ trình giao hàng tối ưu.</t>
+  </si>
+  <si>
+    <t>Reporting module: cung cấp dịch vụ theo dõi tiến độ giao hàng, báo cáo số liệu</t>
+  </si>
+  <si>
+    <t>1. Thiết kế thuật toán</t>
+  </si>
+  <si>
+    <t>1.1  Thông tin đầu vào</t>
+  </si>
+  <si>
+    <t>List&lt;Vehicle&gt;: danh sách xe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trong Vehicle có các thông số: </t>
+  </si>
+  <si>
+    <t>Dung tích (dài x rộng x cao)</t>
+  </si>
+  <si>
+    <t>List&lt;Order&gt; listOrders: danh sách đơn hàng.</t>
+  </si>
+  <si>
+    <t>Trong mỗi đơn hàng có thông tin:</t>
+  </si>
+  <si>
+    <t>List&lt;Product&gt; listProducts.</t>
+  </si>
+  <si>
+    <t>deliveryDate: ngày dự kiến đi giao hàng</t>
+  </si>
+  <si>
+    <t>Trong mỗi Product có thông tin:</t>
+  </si>
+  <si>
+    <t>Kích thước (d x r x c)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Trọng lượng.</t>
+  </si>
+  <si>
+    <t>Trong tải: khối lượng tối đa có thể chở được.</t>
+  </si>
+  <si>
+    <t>1.2 Kết quả đầu ra</t>
+  </si>
+  <si>
+    <t>Có nihều chiến lược để lựa chọn mục tiêu cho kế hoạch phân phối hàng hiệu quả.</t>
+  </si>
+  <si>
+    <t>Mục tiêu chung là để tối ưu một hoặc nhiều các thông số sau:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chi phí: Cụ thể là chi phí </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xăng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. Có thể hiểu là Quãng đường di chuyển của các xe giao hàng.</t>
+    </r>
+  </si>
+  <si>
+    <t>Thời gian: để đảm bảo giao hàng nhanh, đúng hạn để làm hài lòng khách hàng.</t>
+  </si>
+  <si>
+    <t>Trong phiên bản demo đầu tiên, chiến lược được lựa chọn như sau:</t>
+  </si>
+  <si>
+    <t>Chương trình xử lý thông số đầu vào gồm có:</t>
+  </si>
+  <si>
+    <t>Giới hạn thời gian các xe phải đi qua các điểm giao hàng. Giả định là khi xe tới địa điểm giao hàng thì có người nhận.</t>
+  </si>
+  <si>
+    <t>Chương trình cho phép người dùng đưa vào các khung thời gian cần phải giao hàng. Từ đó đưa phương án giao hàng phù hợp hoặc không có phương</t>
+  </si>
+  <si>
+    <t>án nào.</t>
+  </si>
+  <si>
+    <t>Như vậy với việc phân tích đầu ra ở trên thì phát sinh thêm 2 tham số đầu vào để quyết định thuật toán. Đó là:</t>
+  </si>
+  <si>
+    <t>Danh sách các khoảng thời gian (hoặc là danh sách các số lượng ngày) để phần mềm đưa ra nhiều phương án giao hàng.</t>
+  </si>
+  <si>
+    <t>Danh sách các đội xe khác nhau để phần mềm đề xuất phương án giao hàng.</t>
+  </si>
+  <si>
+    <t>1.3 Phương pháp xử lý chung</t>
+  </si>
+  <si>
+    <t>Quét danh sách (mảng các số ngày có thể chấp nhận giao hàng; kèm thêm thông tin là ngày bắt đầu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quét từng phần tử của danh sách các đội xe (mỗi phần tử là một danh sách các xe có thể đi giao hàng) </t>
+  </si>
+  <si>
+    <t>Mỗi tổ hợp của hai vòng lặp trên sẽ quyết định chiến lược giao hàng với các thông tin đầu vào cụ thể như sau:</t>
+  </si>
+  <si>
+    <t>Danh sách đơn hàng có thể phân rã ra thành các thông tin sau:</t>
+  </si>
+  <si>
+    <t>được biểu diễn là một điểm trên bản đồ.</t>
+  </si>
+  <si>
+    <r>
+      <t>A = {(x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>), (x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>), . . ., (x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) }</t>
+    </r>
+  </si>
+  <si>
+    <t>Làm rõ thông số đầu vào:</t>
+  </si>
+  <si>
+    <t>address: địa điểm giao hàng</t>
+  </si>
+  <si>
+    <t>Mảng P chứa các phần tử có dạng( d, r, c, w) tương ứng với (dài, rộng, cao, trọng lượng) của tổng các sản phẩm trong đơn hàng.</t>
+  </si>
+  <si>
+    <t>toán để tính toán cho hợp lý. Hoặc đơn giản có thể tính bằng tay.</t>
+  </si>
+  <si>
+    <r>
+      <t>P = { (d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, c</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, w</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>),...(d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, c</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, w</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)}</t>
+    </r>
+  </si>
+  <si>
+    <t>Số ngày có thể giao hàng: N (Kèm theo một hằng số là một xe bất kỳ có quãng đường tối đa  trong một ngày. Vd: 800KM)</t>
+  </si>
+  <si>
+    <t>Mảng  A chứa các toạ độ  (x,y). Để bài toán khả thi trong thực tế thì quãng đường đi được xem như là đường chim bay. Như vậy một địa điểm</t>
+  </si>
+  <si>
+    <t>Mảng X chứa danh sách xe. Mỗi phần tử có dạng (v, c) tương ứng là (volume - dung tích tối đa, capacity - tải trọng hàng có thể chở).</t>
+  </si>
+  <si>
+    <r>
+      <t>A = {(v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, c</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>), (v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, c</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>), . . ., (x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) }</t>
+    </r>
+  </si>
+  <si>
+    <t>Với 4 tham số này, chúng ta sẽ đi tìm kế hoạch giao hàng theo chiến lược sau:</t>
+  </si>
+  <si>
+    <t>Mảng</t>
+  </si>
+  <si>
+    <t>Hình 1: Phân cụm các địa điểm giao hàng</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Bước 1: Phân cụm các địa chỉ cần giao hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bước 2: </t>
+  </si>
+  <si>
+    <t>Tìm các xe trong mảng A (ít nhất có thể) đủ Capacity và Volume để</t>
+  </si>
+  <si>
+    <t>chứa hàng theo cụm.</t>
+  </si>
+  <si>
+    <t>Làn lượt tìm các xe còn lại trong mảng A để chất hàng cho các cụm tiếp theo</t>
+  </si>
+  <si>
+    <t>Xem xét các xe có Capacity và Volume còn trống nhiều ở một cụm này</t>
+  </si>
+  <si>
+    <t>có thể chất hàng (hoặc gộp xem) cho các cụm khác hay không. Đồng</t>
+  </si>
+  <si>
+    <t>thời xem xét yếu tố quãng đường từ cụm này sang cụm kia.</t>
+  </si>
+  <si>
+    <t>Bước 3:</t>
+  </si>
+  <si>
+    <t>Tìm đường đi tối ưu trong mỗi cụm.</t>
+  </si>
+  <si>
+    <t>Chú ý điểm xuất phát (từ kho của công ty) và điểm kết thúc.</t>
+  </si>
+  <si>
+    <t>Xem xét trường hợp xe phải đi từ cụm A sang cụm B thì nên kết thúc ở điểm nào của A và bắt đầu điểm nào của B với quãng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> đường ngắn nhất.</t>
+  </si>
+  <si>
+    <t>Chọn số lượng xe it nhất để đi giao hàng. Ít nhất ở đây được hiểu là thuật toán cho phép người dùng nhập vào số xe giới hạn.</t>
+  </si>
+  <si>
+    <t>Giả định là tất cả các sản phẩm của một đơn hàng sẽ được đóng gói vào một thùng gọn nhất có thể. Gọn như thế nào thì có thể dùng một thuật</t>
+  </si>
+  <si>
+    <t>Một số yếu tố tối ưu khác sẽ được cân nhắc giải quyết tiếp trong các phiên bản tiếp theo như:</t>
+  </si>
+  <si>
+    <t>Khi đi từ điểm A sang điểm B thì tài xế sẽ ghi nhận lại số KM trên đồng hồ. Sau đó phần mềm sẽ tổng hợp và có cải tiến thuật toán phù hợp với thực tế.</t>
+  </si>
+  <si>
+    <t>Bải toán chất hàng lên xe cho tối ưu: Các thùng hàng là các khối lập phương có cạnh dài, rộng, cao khác nhau. Với một thùng xe cho trướcc thì cần sắp xếp</t>
+  </si>
+  <si>
+    <t>như thế nào cho tối ưu (tương tự game Tetris)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kết quả xử lý các bước phải dược lưu xuống đĩa (file hoặc database). Thuật toán có thể chạy trong nhiều khoảng thời gian </t>
+  </si>
+  <si>
+    <t>khác nhau tuỳ vào năng lực của máy tính và tính busy (ưu tiên chạy vào ban đêm)</t>
+  </si>
 </sst>
 </file>
 
@@ -981,7 +1760,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="56">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1340,8 +2119,15 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1549,6 +2335,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2407,7 +3205,7 @@
     <xf numFmtId="165" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="327">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2747,6 +3545,143 @@
     <xf numFmtId="0" fontId="48" fillId="27" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="40" fillId="27" borderId="41" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="34" fillId="25" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="25" fillId="0" borderId="38" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="25" fillId="0" borderId="39" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2801,33 +3736,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2854,21 +3762,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="25" fillId="0" borderId="38" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="25" fillId="0" borderId="39" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2984,79 +3877,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -4514,7 +5341,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>User service</a:t>
+            <a:t>User module</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4568,8 +5395,18 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Delivery Plan service</a:t>
+            <a:t>Delivery Plan </a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>module</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4622,8 +5459,18 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Reporting service</a:t>
+            <a:t>Reporting </a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>module</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4680,7 +5527,16 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Path service</a:t>
+            <a:t> Path </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>module</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -5154,7 +6010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -5366,184 +6222,184 @@
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="238" t="s">
+      <c r="B1" s="284"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="287" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="239"/>
-      <c r="P1" s="239"/>
-      <c r="Q1" s="239"/>
-      <c r="R1" s="239"/>
-      <c r="S1" s="239"/>
-      <c r="T1" s="239"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="240"/>
-      <c r="W1" s="244" t="s">
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="288"/>
+      <c r="J1" s="288"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
+      <c r="M1" s="288"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="288"/>
+      <c r="P1" s="288"/>
+      <c r="Q1" s="288"/>
+      <c r="R1" s="288"/>
+      <c r="S1" s="288"/>
+      <c r="T1" s="288"/>
+      <c r="U1" s="288"/>
+      <c r="V1" s="289"/>
+      <c r="W1" s="293" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="245"/>
-      <c r="Y1" s="245"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="245"/>
-      <c r="AB1" s="245"/>
-      <c r="AC1" s="245"/>
-      <c r="AD1" s="245"/>
-      <c r="AE1" s="245"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="245"/>
-      <c r="AH1" s="245"/>
-      <c r="AI1" s="245"/>
-      <c r="AJ1" s="246"/>
+      <c r="X1" s="294"/>
+      <c r="Y1" s="294"/>
+      <c r="Z1" s="294"/>
+      <c r="AA1" s="294"/>
+      <c r="AB1" s="294"/>
+      <c r="AC1" s="294"/>
+      <c r="AD1" s="294"/>
+      <c r="AE1" s="294"/>
+      <c r="AF1" s="294"/>
+      <c r="AG1" s="294"/>
+      <c r="AH1" s="294"/>
+      <c r="AI1" s="294"/>
+      <c r="AJ1" s="295"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1">
-      <c r="A2" s="236"/>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="242"/>
-      <c r="M2" s="242"/>
-      <c r="N2" s="242"/>
-      <c r="O2" s="242"/>
-      <c r="P2" s="242"/>
-      <c r="Q2" s="242"/>
-      <c r="R2" s="242"/>
-      <c r="S2" s="242"/>
-      <c r="T2" s="242"/>
-      <c r="U2" s="242"/>
-      <c r="V2" s="243"/>
-      <c r="W2" s="247" t="s">
+      <c r="A2" s="285"/>
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
+      <c r="K2" s="291"/>
+      <c r="L2" s="291"/>
+      <c r="M2" s="291"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="291"/>
+      <c r="P2" s="291"/>
+      <c r="Q2" s="291"/>
+      <c r="R2" s="291"/>
+      <c r="S2" s="291"/>
+      <c r="T2" s="291"/>
+      <c r="U2" s="291"/>
+      <c r="V2" s="292"/>
+      <c r="W2" s="296" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="248"/>
-      <c r="Y2" s="248"/>
-      <c r="Z2" s="248"/>
-      <c r="AA2" s="248"/>
-      <c r="AB2" s="248"/>
-      <c r="AC2" s="248"/>
-      <c r="AD2" s="248"/>
-      <c r="AE2" s="248"/>
-      <c r="AF2" s="248"/>
-      <c r="AG2" s="248"/>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="248"/>
-      <c r="AJ2" s="249"/>
+      <c r="X2" s="297"/>
+      <c r="Y2" s="297"/>
+      <c r="Z2" s="297"/>
+      <c r="AA2" s="297"/>
+      <c r="AB2" s="297"/>
+      <c r="AC2" s="297"/>
+      <c r="AD2" s="297"/>
+      <c r="AE2" s="297"/>
+      <c r="AF2" s="297"/>
+      <c r="AG2" s="297"/>
+      <c r="AH2" s="297"/>
+      <c r="AI2" s="297"/>
+      <c r="AJ2" s="298"/>
     </row>
     <row r="3" spans="1:47" ht="15" customHeight="1">
-      <c r="A3" s="250" t="s">
+      <c r="A3" s="299" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="254" t="s">
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="303" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="251" t="s">
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="305"/>
+      <c r="I3" s="300" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="260"/>
-      <c r="M3" s="262" t="s">
+      <c r="J3" s="300"/>
+      <c r="K3" s="300"/>
+      <c r="L3" s="309"/>
+      <c r="M3" s="311" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="255"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="255"/>
-      <c r="Q3" s="255"/>
-      <c r="R3" s="255"/>
-      <c r="S3" s="255"/>
-      <c r="T3" s="255"/>
-      <c r="U3" s="255"/>
-      <c r="V3" s="263"/>
+      <c r="N3" s="304"/>
+      <c r="O3" s="304"/>
+      <c r="P3" s="304"/>
+      <c r="Q3" s="304"/>
+      <c r="R3" s="304"/>
+      <c r="S3" s="304"/>
+      <c r="T3" s="304"/>
+      <c r="U3" s="304"/>
+      <c r="V3" s="312"/>
       <c r="W3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="266">
+      <c r="Z3" s="315">
         <v>43234</v>
       </c>
-      <c r="AA3" s="266"/>
-      <c r="AB3" s="266"/>
-      <c r="AC3" s="267"/>
+      <c r="AA3" s="315"/>
+      <c r="AB3" s="315"/>
+      <c r="AC3" s="316"/>
       <c r="AD3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
-      <c r="AG3" s="268" t="s">
+      <c r="AG3" s="317" t="s">
         <v>81</v>
       </c>
-      <c r="AH3" s="269"/>
-      <c r="AI3" s="269"/>
-      <c r="AJ3" s="270"/>
+      <c r="AH3" s="318"/>
+      <c r="AI3" s="318"/>
+      <c r="AJ3" s="319"/>
     </row>
     <row r="4" spans="1:47" ht="15" customHeight="1">
-      <c r="A4" s="252"/>
-      <c r="B4" s="253"/>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="257"/>
-      <c r="F4" s="258"/>
-      <c r="G4" s="258"/>
-      <c r="H4" s="259"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="253"/>
-      <c r="K4" s="253"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="264"/>
-      <c r="N4" s="258"/>
-      <c r="O4" s="258"/>
-      <c r="P4" s="258"/>
-      <c r="Q4" s="258"/>
-      <c r="R4" s="258"/>
-      <c r="S4" s="258"/>
-      <c r="T4" s="258"/>
-      <c r="U4" s="258"/>
-      <c r="V4" s="265"/>
+      <c r="A4" s="301"/>
+      <c r="B4" s="302"/>
+      <c r="C4" s="302"/>
+      <c r="D4" s="302"/>
+      <c r="E4" s="306"/>
+      <c r="F4" s="307"/>
+      <c r="G4" s="307"/>
+      <c r="H4" s="308"/>
+      <c r="I4" s="302"/>
+      <c r="J4" s="302"/>
+      <c r="K4" s="302"/>
+      <c r="L4" s="310"/>
+      <c r="M4" s="313"/>
+      <c r="N4" s="307"/>
+      <c r="O4" s="307"/>
+      <c r="P4" s="307"/>
+      <c r="Q4" s="307"/>
+      <c r="R4" s="307"/>
+      <c r="S4" s="307"/>
+      <c r="T4" s="307"/>
+      <c r="U4" s="307"/>
+      <c r="V4" s="314"/>
       <c r="W4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="229"/>
-      <c r="AA4" s="229"/>
-      <c r="AB4" s="229"/>
-      <c r="AC4" s="230"/>
+      <c r="Z4" s="251"/>
+      <c r="AA4" s="251"/>
+      <c r="AB4" s="251"/>
+      <c r="AC4" s="252"/>
       <c r="AD4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AE4" s="9"/>
       <c r="AF4" s="10"/>
-      <c r="AG4" s="231"/>
-      <c r="AH4" s="232"/>
-      <c r="AI4" s="232"/>
-      <c r="AJ4" s="233"/>
+      <c r="AG4" s="253"/>
+      <c r="AH4" s="254"/>
+      <c r="AI4" s="254"/>
+      <c r="AJ4" s="255"/>
     </row>
     <row r="5" spans="1:47" ht="15.75">
       <c r="A5" s="37">
@@ -7148,7 +8004,7 @@
     </row>
     <row r="39" spans="1:47" ht="15.75">
       <c r="A39" s="137" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B39" s="138"/>
       <c r="C39" s="138"/>
@@ -7629,13 +8485,13 @@
       </c>
     </row>
     <row r="61" spans="3:39">
-      <c r="E61" s="304" t="s">
-        <v>197</v>
+      <c r="E61" s="207" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:36" ht="15.75">
       <c r="A76" s="137" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B76" s="138"/>
       <c r="C76" s="138"/>
@@ -10211,28 +11067,28 @@
     </row>
     <row r="158" spans="1:36" ht="15.75" thickTop="1">
       <c r="B158" s="172"/>
-      <c r="C158" s="193" t="s">
+      <c r="C158" s="256" t="s">
         <v>145</v>
       </c>
-      <c r="D158" s="194"/>
-      <c r="E158" s="194"/>
-      <c r="F158" s="195"/>
+      <c r="D158" s="257"/>
+      <c r="E158" s="257"/>
+      <c r="F158" s="258"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
-      <c r="I158" s="202" t="s">
+      <c r="I158" s="265" t="s">
         <v>146</v>
       </c>
-      <c r="J158" s="203"/>
-      <c r="K158" s="203"/>
-      <c r="L158" s="204"/>
+      <c r="J158" s="266"/>
+      <c r="K158" s="266"/>
+      <c r="L158" s="267"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
-      <c r="O158" s="202" t="s">
+      <c r="O158" s="265" t="s">
         <v>147</v>
       </c>
-      <c r="P158" s="203"/>
-      <c r="Q158" s="203"/>
-      <c r="R158" s="204"/>
+      <c r="P158" s="266"/>
+      <c r="Q158" s="266"/>
+      <c r="R158" s="267"/>
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
@@ -10253,22 +11109,22 @@
     </row>
     <row r="159" spans="1:36">
       <c r="B159" s="172"/>
-      <c r="C159" s="196"/>
-      <c r="D159" s="197"/>
-      <c r="E159" s="197"/>
-      <c r="F159" s="198"/>
+      <c r="C159" s="259"/>
+      <c r="D159" s="260"/>
+      <c r="E159" s="260"/>
+      <c r="F159" s="261"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
-      <c r="I159" s="205"/>
-      <c r="J159" s="206"/>
-      <c r="K159" s="206"/>
-      <c r="L159" s="207"/>
+      <c r="I159" s="268"/>
+      <c r="J159" s="269"/>
+      <c r="K159" s="269"/>
+      <c r="L159" s="270"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
-      <c r="O159" s="205"/>
-      <c r="P159" s="206"/>
-      <c r="Q159" s="206"/>
-      <c r="R159" s="207"/>
+      <c r="O159" s="268"/>
+      <c r="P159" s="269"/>
+      <c r="Q159" s="269"/>
+      <c r="R159" s="270"/>
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
@@ -10289,22 +11145,22 @@
     </row>
     <row r="160" spans="1:36" ht="15.75" thickBot="1">
       <c r="B160" s="172"/>
-      <c r="C160" s="199"/>
-      <c r="D160" s="200"/>
-      <c r="E160" s="200"/>
-      <c r="F160" s="201"/>
+      <c r="C160" s="262"/>
+      <c r="D160" s="263"/>
+      <c r="E160" s="263"/>
+      <c r="F160" s="264"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
-      <c r="I160" s="208"/>
-      <c r="J160" s="209"/>
-      <c r="K160" s="209"/>
-      <c r="L160" s="210"/>
+      <c r="I160" s="271"/>
+      <c r="J160" s="272"/>
+      <c r="K160" s="272"/>
+      <c r="L160" s="273"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
-      <c r="O160" s="208"/>
-      <c r="P160" s="209"/>
-      <c r="Q160" s="209"/>
-      <c r="R160" s="210"/>
+      <c r="O160" s="271"/>
+      <c r="P160" s="272"/>
+      <c r="Q160" s="272"/>
+      <c r="R160" s="273"/>
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
@@ -10520,10 +11376,10 @@
         <v>74</v>
       </c>
       <c r="G169" s="133"/>
-      <c r="AF169" s="305"/>
-      <c r="AG169" s="305"/>
-      <c r="AH169" s="305"/>
-      <c r="AI169" s="305"/>
+      <c r="AF169" s="208"/>
+      <c r="AG169" s="208"/>
+      <c r="AH169" s="208"/>
+      <c r="AI169" s="208"/>
     </row>
     <row r="172" spans="2:35">
       <c r="H172" s="163" t="s">
@@ -10573,28 +11429,28 @@
     </row>
     <row r="192" spans="1:35" ht="15.75" thickTop="1">
       <c r="B192" s="172"/>
-      <c r="C192" s="211" t="s">
+      <c r="C192" s="224" t="s">
         <v>145</v>
       </c>
-      <c r="D192" s="212"/>
-      <c r="E192" s="212"/>
-      <c r="F192" s="213"/>
+      <c r="D192" s="225"/>
+      <c r="E192" s="225"/>
+      <c r="F192" s="226"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
-      <c r="I192" s="220" t="s">
+      <c r="I192" s="274" t="s">
         <v>146</v>
       </c>
-      <c r="J192" s="221"/>
-      <c r="K192" s="221"/>
-      <c r="L192" s="222"/>
+      <c r="J192" s="275"/>
+      <c r="K192" s="275"/>
+      <c r="L192" s="276"/>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
-      <c r="O192" s="202" t="s">
+      <c r="O192" s="265" t="s">
         <v>147</v>
       </c>
-      <c r="P192" s="203"/>
-      <c r="Q192" s="203"/>
-      <c r="R192" s="204"/>
+      <c r="P192" s="266"/>
+      <c r="Q192" s="266"/>
+      <c r="R192" s="267"/>
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
@@ -10615,22 +11471,22 @@
     </row>
     <row r="193" spans="2:35">
       <c r="B193" s="172"/>
-      <c r="C193" s="214"/>
-      <c r="D193" s="215"/>
-      <c r="E193" s="215"/>
-      <c r="F193" s="216"/>
+      <c r="C193" s="227"/>
+      <c r="D193" s="228"/>
+      <c r="E193" s="228"/>
+      <c r="F193" s="229"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
-      <c r="I193" s="223"/>
-      <c r="J193" s="224"/>
-      <c r="K193" s="224"/>
-      <c r="L193" s="225"/>
+      <c r="I193" s="277"/>
+      <c r="J193" s="278"/>
+      <c r="K193" s="278"/>
+      <c r="L193" s="279"/>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
-      <c r="O193" s="205"/>
-      <c r="P193" s="206"/>
-      <c r="Q193" s="206"/>
-      <c r="R193" s="207"/>
+      <c r="O193" s="268"/>
+      <c r="P193" s="269"/>
+      <c r="Q193" s="269"/>
+      <c r="R193" s="270"/>
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
@@ -10651,22 +11507,22 @@
     </row>
     <row r="194" spans="2:35" ht="15.75" thickBot="1">
       <c r="B194" s="172"/>
-      <c r="C194" s="217"/>
-      <c r="D194" s="218"/>
-      <c r="E194" s="218"/>
-      <c r="F194" s="219"/>
+      <c r="C194" s="230"/>
+      <c r="D194" s="231"/>
+      <c r="E194" s="231"/>
+      <c r="F194" s="232"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
-      <c r="I194" s="226"/>
-      <c r="J194" s="227"/>
-      <c r="K194" s="227"/>
-      <c r="L194" s="228"/>
+      <c r="I194" s="280"/>
+      <c r="J194" s="281"/>
+      <c r="K194" s="281"/>
+      <c r="L194" s="282"/>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
-      <c r="O194" s="208"/>
-      <c r="P194" s="209"/>
-      <c r="Q194" s="209"/>
-      <c r="R194" s="210"/>
+      <c r="O194" s="271"/>
+      <c r="P194" s="272"/>
+      <c r="Q194" s="272"/>
+      <c r="R194" s="273"/>
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
@@ -10723,7 +11579,7 @@
     </row>
     <row r="197" spans="2:35">
       <c r="B197" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="199" spans="2:35" ht="18">
@@ -10758,7 +11614,7 @@
       <c r="V199" s="189"/>
       <c r="W199" s="190"/>
       <c r="X199" s="191" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Y199" s="192"/>
       <c r="Z199" s="180"/>
@@ -10914,28 +11770,28 @@
     </row>
     <row r="231" spans="1:35">
       <c r="B231" s="172"/>
-      <c r="C231" s="211" t="s">
+      <c r="C231" s="224" t="s">
         <v>145</v>
       </c>
-      <c r="D231" s="212"/>
-      <c r="E231" s="212"/>
-      <c r="F231" s="213"/>
+      <c r="D231" s="225"/>
+      <c r="E231" s="225"/>
+      <c r="F231" s="226"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
-      <c r="I231" s="272" t="s">
+      <c r="I231" s="233" t="s">
         <v>146</v>
       </c>
-      <c r="J231" s="273"/>
-      <c r="K231" s="273"/>
-      <c r="L231" s="274"/>
+      <c r="J231" s="234"/>
+      <c r="K231" s="234"/>
+      <c r="L231" s="235"/>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
-      <c r="O231" s="281" t="s">
+      <c r="O231" s="242" t="s">
         <v>147</v>
       </c>
-      <c r="P231" s="282"/>
-      <c r="Q231" s="282"/>
-      <c r="R231" s="283"/>
+      <c r="P231" s="243"/>
+      <c r="Q231" s="243"/>
+      <c r="R231" s="244"/>
       <c r="S231" s="1"/>
       <c r="T231" s="1"/>
       <c r="U231" s="1"/>
@@ -10956,22 +11812,22 @@
     </row>
     <row r="232" spans="1:35">
       <c r="B232" s="172"/>
-      <c r="C232" s="214"/>
-      <c r="D232" s="215"/>
-      <c r="E232" s="215"/>
-      <c r="F232" s="216"/>
+      <c r="C232" s="227"/>
+      <c r="D232" s="228"/>
+      <c r="E232" s="228"/>
+      <c r="F232" s="229"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
-      <c r="I232" s="275"/>
-      <c r="J232" s="276"/>
-      <c r="K232" s="276"/>
-      <c r="L232" s="277"/>
+      <c r="I232" s="236"/>
+      <c r="J232" s="237"/>
+      <c r="K232" s="237"/>
+      <c r="L232" s="238"/>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
-      <c r="O232" s="284"/>
-      <c r="P232" s="285"/>
-      <c r="Q232" s="285"/>
-      <c r="R232" s="286"/>
+      <c r="O232" s="245"/>
+      <c r="P232" s="246"/>
+      <c r="Q232" s="246"/>
+      <c r="R232" s="247"/>
       <c r="S232" s="1"/>
       <c r="T232" s="1"/>
       <c r="U232" s="1"/>
@@ -10992,22 +11848,22 @@
     </row>
     <row r="233" spans="1:35" ht="15.75" thickBot="1">
       <c r="B233" s="172"/>
-      <c r="C233" s="217"/>
-      <c r="D233" s="218"/>
-      <c r="E233" s="218"/>
-      <c r="F233" s="219"/>
+      <c r="C233" s="230"/>
+      <c r="D233" s="231"/>
+      <c r="E233" s="231"/>
+      <c r="F233" s="232"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
-      <c r="I233" s="278"/>
-      <c r="J233" s="279"/>
-      <c r="K233" s="279"/>
-      <c r="L233" s="280"/>
+      <c r="I233" s="239"/>
+      <c r="J233" s="240"/>
+      <c r="K233" s="240"/>
+      <c r="L233" s="241"/>
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
-      <c r="O233" s="287"/>
-      <c r="P233" s="288"/>
-      <c r="Q233" s="288"/>
-      <c r="R233" s="289"/>
+      <c r="O233" s="248"/>
+      <c r="P233" s="249"/>
+      <c r="Q233" s="249"/>
+      <c r="R233" s="250"/>
       <c r="S233" s="1"/>
       <c r="T233" s="1"/>
       <c r="U233" s="1"/>
@@ -11063,16 +11919,16 @@
       <c r="AI234" s="176"/>
     </row>
     <row r="235" spans="1:35">
-      <c r="U235" s="304" t="s">
-        <v>200</v>
+      <c r="U235" s="207" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="236" spans="1:35">
       <c r="B236" t="s">
         <v>161</v>
       </c>
-      <c r="U236" s="304" t="s">
-        <v>201</v>
+      <c r="U236" s="207" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="238" spans="1:35">
@@ -11085,32 +11941,32 @@
       <c r="H238" s="100"/>
       <c r="I238" s="100"/>
       <c r="J238" s="100"/>
-      <c r="K238" s="292"/>
-      <c r="L238" s="292"/>
-      <c r="M238" s="292"/>
-      <c r="N238" s="292"/>
-      <c r="O238" s="292"/>
-      <c r="P238" s="292"/>
-      <c r="Q238" s="292"/>
-      <c r="R238" s="293"/>
-      <c r="S238" s="293"/>
-      <c r="T238" s="293"/>
-      <c r="U238" s="293"/>
-      <c r="V238" s="293"/>
-      <c r="W238" s="293"/>
-      <c r="X238" s="294"/>
-      <c r="Y238" s="294"/>
-      <c r="Z238" s="294"/>
-      <c r="AA238" s="294"/>
-      <c r="AB238" s="294"/>
-      <c r="AC238" s="294"/>
-      <c r="AD238" s="294"/>
-      <c r="AE238" s="294"/>
-      <c r="AF238" s="294"/>
-      <c r="AG238" s="295"/>
+      <c r="K238" s="195"/>
+      <c r="L238" s="195"/>
+      <c r="M238" s="195"/>
+      <c r="N238" s="195"/>
+      <c r="O238" s="195"/>
+      <c r="P238" s="195"/>
+      <c r="Q238" s="195"/>
+      <c r="R238" s="196"/>
+      <c r="S238" s="196"/>
+      <c r="T238" s="196"/>
+      <c r="U238" s="196"/>
+      <c r="V238" s="196"/>
+      <c r="W238" s="196"/>
+      <c r="X238" s="197"/>
+      <c r="Y238" s="197"/>
+      <c r="Z238" s="197"/>
+      <c r="AA238" s="197"/>
+      <c r="AB238" s="197"/>
+      <c r="AC238" s="197"/>
+      <c r="AD238" s="197"/>
+      <c r="AE238" s="197"/>
+      <c r="AF238" s="197"/>
+      <c r="AG238" s="198"/>
     </row>
     <row r="240" spans="1:35">
-      <c r="B240" s="296" t="s">
+      <c r="B240" s="199" t="s">
         <v>165</v>
       </c>
     </row>
@@ -11125,42 +11981,42 @@
       </c>
     </row>
     <row r="244" spans="2:35">
-      <c r="B244" s="291" t="s">
+      <c r="B244" s="194" t="s">
         <v>170</v>
       </c>
-      <c r="C244" s="297"/>
-      <c r="D244" s="291"/>
-      <c r="E244" s="291"/>
-      <c r="F244" s="291"/>
-      <c r="G244" s="291"/>
-      <c r="H244" s="291"/>
-      <c r="I244" s="291"/>
-      <c r="J244" s="291"/>
-      <c r="K244" s="291"/>
-      <c r="L244" s="291"/>
-      <c r="M244" s="291"/>
-      <c r="N244" s="291"/>
-      <c r="O244" s="291"/>
-      <c r="P244" s="291"/>
-      <c r="Q244" s="291"/>
-      <c r="R244" s="291"/>
-      <c r="S244" s="291"/>
-      <c r="T244" s="291"/>
-      <c r="U244" s="291"/>
-      <c r="V244" s="291"/>
-      <c r="W244" s="291"/>
-      <c r="X244" s="291"/>
-      <c r="Y244" s="291"/>
-      <c r="Z244" s="291"/>
-      <c r="AA244" s="291"/>
-      <c r="AB244" s="291"/>
-      <c r="AC244" s="291"/>
-      <c r="AD244" s="291"/>
-      <c r="AE244" s="291"/>
-      <c r="AF244" s="291"/>
-      <c r="AG244" s="291"/>
-      <c r="AH244" s="291"/>
-      <c r="AI244" s="291"/>
+      <c r="C244" s="200"/>
+      <c r="D244" s="194"/>
+      <c r="E244" s="194"/>
+      <c r="F244" s="194"/>
+      <c r="G244" s="194"/>
+      <c r="H244" s="194"/>
+      <c r="I244" s="194"/>
+      <c r="J244" s="194"/>
+      <c r="K244" s="194"/>
+      <c r="L244" s="194"/>
+      <c r="M244" s="194"/>
+      <c r="N244" s="194"/>
+      <c r="O244" s="194"/>
+      <c r="P244" s="194"/>
+      <c r="Q244" s="194"/>
+      <c r="R244" s="194"/>
+      <c r="S244" s="194"/>
+      <c r="T244" s="194"/>
+      <c r="U244" s="194"/>
+      <c r="V244" s="194"/>
+      <c r="W244" s="194"/>
+      <c r="X244" s="194"/>
+      <c r="Y244" s="194"/>
+      <c r="Z244" s="194"/>
+      <c r="AA244" s="194"/>
+      <c r="AB244" s="194"/>
+      <c r="AC244" s="194"/>
+      <c r="AD244" s="194"/>
+      <c r="AE244" s="194"/>
+      <c r="AF244" s="194"/>
+      <c r="AG244" s="194"/>
+      <c r="AH244" s="194"/>
+      <c r="AI244" s="194"/>
     </row>
     <row r="246" spans="2:35">
       <c r="B246" t="s">
@@ -11246,10 +12102,10 @@
       <c r="Y248" s="92"/>
       <c r="Z248" s="92"/>
       <c r="AA248" s="93"/>
-      <c r="AB248" s="298" t="s">
+      <c r="AB248" s="201" t="s">
         <v>176</v>
       </c>
-      <c r="AC248" s="299"/>
+      <c r="AC248" s="202"/>
     </row>
     <row r="249" spans="2:35">
       <c r="B249" s="123">
@@ -11282,10 +12138,10 @@
       <c r="Y249" s="92"/>
       <c r="Z249" s="92"/>
       <c r="AA249" s="93"/>
-      <c r="AB249" s="298" t="s">
+      <c r="AB249" s="201" t="s">
         <v>176</v>
       </c>
-      <c r="AC249" s="299"/>
+      <c r="AC249" s="202"/>
     </row>
     <row r="250" spans="2:35">
       <c r="B250" s="123">
@@ -11318,10 +12174,10 @@
       <c r="Y250" s="92"/>
       <c r="Z250" s="92"/>
       <c r="AA250" s="93"/>
-      <c r="AB250" s="298" t="s">
+      <c r="AB250" s="201" t="s">
         <v>176</v>
       </c>
-      <c r="AC250" s="299"/>
+      <c r="AC250" s="202"/>
     </row>
     <row r="251" spans="2:35">
       <c r="B251" s="123">
@@ -11354,10 +12210,10 @@
       <c r="Y251" s="92"/>
       <c r="Z251" s="92"/>
       <c r="AA251" s="93"/>
-      <c r="AB251" s="298" t="s">
+      <c r="AB251" s="201" t="s">
         <v>176</v>
       </c>
-      <c r="AC251" s="299"/>
+      <c r="AC251" s="202"/>
     </row>
     <row r="252" spans="2:35">
       <c r="B252" s="123">
@@ -11390,48 +12246,48 @@
       <c r="Y252" s="92"/>
       <c r="Z252" s="92"/>
       <c r="AA252" s="93"/>
-      <c r="AB252" s="298" t="s">
+      <c r="AB252" s="201" t="s">
         <v>176</v>
       </c>
-      <c r="AC252" s="299"/>
+      <c r="AC252" s="202"/>
     </row>
     <row r="254" spans="2:35">
-      <c r="B254" s="291" t="s">
+      <c r="B254" s="194" t="s">
         <v>177</v>
       </c>
-      <c r="C254" s="297"/>
-      <c r="D254" s="291"/>
-      <c r="E254" s="291"/>
-      <c r="F254" s="291"/>
-      <c r="G254" s="291"/>
-      <c r="H254" s="291"/>
-      <c r="I254" s="291"/>
-      <c r="J254" s="291"/>
-      <c r="K254" s="291"/>
-      <c r="L254" s="291"/>
-      <c r="M254" s="291"/>
-      <c r="N254" s="291"/>
-      <c r="O254" s="291"/>
-      <c r="P254" s="291"/>
-      <c r="Q254" s="291"/>
-      <c r="R254" s="291"/>
-      <c r="S254" s="291"/>
-      <c r="T254" s="291"/>
-      <c r="U254" s="291"/>
-      <c r="V254" s="291"/>
-      <c r="W254" s="291"/>
-      <c r="X254" s="291"/>
-      <c r="Y254" s="291"/>
-      <c r="Z254" s="291"/>
-      <c r="AA254" s="291"/>
-      <c r="AB254" s="291"/>
-      <c r="AC254" s="291"/>
-      <c r="AD254" s="291"/>
-      <c r="AE254" s="291"/>
-      <c r="AF254" s="291"/>
-      <c r="AG254" s="291"/>
-      <c r="AH254" s="291"/>
-      <c r="AI254" s="291"/>
+      <c r="C254" s="200"/>
+      <c r="D254" s="194"/>
+      <c r="E254" s="194"/>
+      <c r="F254" s="194"/>
+      <c r="G254" s="194"/>
+      <c r="H254" s="194"/>
+      <c r="I254" s="194"/>
+      <c r="J254" s="194"/>
+      <c r="K254" s="194"/>
+      <c r="L254" s="194"/>
+      <c r="M254" s="194"/>
+      <c r="N254" s="194"/>
+      <c r="O254" s="194"/>
+      <c r="P254" s="194"/>
+      <c r="Q254" s="194"/>
+      <c r="R254" s="194"/>
+      <c r="S254" s="194"/>
+      <c r="T254" s="194"/>
+      <c r="U254" s="194"/>
+      <c r="V254" s="194"/>
+      <c r="W254" s="194"/>
+      <c r="X254" s="194"/>
+      <c r="Y254" s="194"/>
+      <c r="Z254" s="194"/>
+      <c r="AA254" s="194"/>
+      <c r="AB254" s="194"/>
+      <c r="AC254" s="194"/>
+      <c r="AD254" s="194"/>
+      <c r="AE254" s="194"/>
+      <c r="AF254" s="194"/>
+      <c r="AG254" s="194"/>
+      <c r="AH254" s="194"/>
+      <c r="AI254" s="194"/>
     </row>
     <row r="256" spans="2:35">
       <c r="B256" t="s">
@@ -11511,10 +12367,10 @@
       <c r="Y258" s="92"/>
       <c r="Z258" s="92"/>
       <c r="AA258" s="93"/>
-      <c r="AB258" s="298" t="s">
+      <c r="AB258" s="201" t="s">
         <v>176</v>
       </c>
-      <c r="AC258" s="299"/>
+      <c r="AC258" s="202"/>
     </row>
     <row r="259" spans="2:29">
       <c r="B259" s="123">
@@ -11547,10 +12403,10 @@
       <c r="Y259" s="92"/>
       <c r="Z259" s="92"/>
       <c r="AA259" s="93"/>
-      <c r="AB259" s="298" t="s">
+      <c r="AB259" s="201" t="s">
         <v>176</v>
       </c>
-      <c r="AC259" s="299"/>
+      <c r="AC259" s="202"/>
     </row>
     <row r="260" spans="2:29">
       <c r="B260" s="123">
@@ -11583,10 +12439,10 @@
       <c r="Y260" s="92"/>
       <c r="Z260" s="92"/>
       <c r="AA260" s="93"/>
-      <c r="AB260" s="298" t="s">
+      <c r="AB260" s="201" t="s">
         <v>176</v>
       </c>
-      <c r="AC260" s="299"/>
+      <c r="AC260" s="202"/>
     </row>
     <row r="261" spans="2:29">
       <c r="B261" s="123">
@@ -11619,22 +12475,22 @@
       <c r="Y261" s="92"/>
       <c r="Z261" s="92"/>
       <c r="AA261" s="93"/>
-      <c r="AB261" s="298" t="s">
+      <c r="AB261" s="201" t="s">
         <v>176</v>
       </c>
-      <c r="AC261" s="299"/>
+      <c r="AC261" s="202"/>
     </row>
     <row r="262" spans="2:29">
-      <c r="T262" s="300"/>
-      <c r="U262" s="300"/>
-      <c r="V262" s="300"/>
-      <c r="W262" s="300"/>
-      <c r="X262" s="300"/>
-      <c r="Y262" s="300"/>
-      <c r="Z262" s="300"/>
-      <c r="AA262" s="300"/>
-      <c r="AB262" s="301"/>
-      <c r="AC262" s="301"/>
+      <c r="T262" s="203"/>
+      <c r="U262" s="203"/>
+      <c r="V262" s="203"/>
+      <c r="W262" s="203"/>
+      <c r="X262" s="203"/>
+      <c r="Y262" s="203"/>
+      <c r="Z262" s="203"/>
+      <c r="AA262" s="203"/>
+      <c r="AB262" s="204"/>
+      <c r="AC262" s="204"/>
     </row>
     <row r="263" spans="2:29" ht="15.75" thickBot="1">
       <c r="B263" s="131" t="s">
@@ -11642,7 +12498,7 @@
       </c>
       <c r="C263" s="133"/>
       <c r="E263" s="131" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F263" s="133"/>
       <c r="H263" s="131" t="s">
@@ -11658,37 +12514,32 @@
     </row>
     <row r="265" spans="2:29">
       <c r="B265" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="266" spans="2:29">
       <c r="B266" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="267" spans="2:29">
       <c r="B267" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="268" spans="2:29">
       <c r="B268" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="270" spans="2:29">
       <c r="B270" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="21">
-    <mergeCell ref="C231:F233"/>
-    <mergeCell ref="I231:L233"/>
-    <mergeCell ref="O231:R233"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="AG4:AJ4"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:V2"/>
     <mergeCell ref="W1:AJ1"/>
@@ -11699,6 +12550,11 @@
     <mergeCell ref="M3:V4"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="C231:F233"/>
+    <mergeCell ref="I231:L233"/>
+    <mergeCell ref="O231:R233"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AG4:AJ4"/>
     <mergeCell ref="C158:F160"/>
     <mergeCell ref="I158:L160"/>
     <mergeCell ref="O158:R160"/>
@@ -11728,194 +12584,194 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU63"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A34" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="238" t="s">
+      <c r="B1" s="284"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="287" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="239"/>
-      <c r="P1" s="239"/>
-      <c r="Q1" s="239"/>
-      <c r="R1" s="239"/>
-      <c r="S1" s="239"/>
-      <c r="T1" s="239"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="240"/>
-      <c r="W1" s="244" t="s">
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="288"/>
+      <c r="J1" s="288"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
+      <c r="M1" s="288"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="288"/>
+      <c r="P1" s="288"/>
+      <c r="Q1" s="288"/>
+      <c r="R1" s="288"/>
+      <c r="S1" s="288"/>
+      <c r="T1" s="288"/>
+      <c r="U1" s="288"/>
+      <c r="V1" s="289"/>
+      <c r="W1" s="293" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="245"/>
-      <c r="Y1" s="245"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="245"/>
-      <c r="AB1" s="245"/>
-      <c r="AC1" s="245"/>
-      <c r="AD1" s="245"/>
-      <c r="AE1" s="245"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="245"/>
-      <c r="AH1" s="245"/>
-      <c r="AI1" s="245"/>
-      <c r="AJ1" s="246"/>
+      <c r="X1" s="294"/>
+      <c r="Y1" s="294"/>
+      <c r="Z1" s="294"/>
+      <c r="AA1" s="294"/>
+      <c r="AB1" s="294"/>
+      <c r="AC1" s="294"/>
+      <c r="AD1" s="294"/>
+      <c r="AE1" s="294"/>
+      <c r="AF1" s="294"/>
+      <c r="AG1" s="294"/>
+      <c r="AH1" s="294"/>
+      <c r="AI1" s="294"/>
+      <c r="AJ1" s="295"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1">
-      <c r="A2" s="236"/>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="242"/>
-      <c r="M2" s="242"/>
-      <c r="N2" s="242"/>
-      <c r="O2" s="242"/>
-      <c r="P2" s="242"/>
-      <c r="Q2" s="242"/>
-      <c r="R2" s="242"/>
-      <c r="S2" s="242"/>
-      <c r="T2" s="242"/>
-      <c r="U2" s="242"/>
-      <c r="V2" s="243"/>
-      <c r="W2" s="247" t="s">
+      <c r="A2" s="285"/>
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
+      <c r="K2" s="291"/>
+      <c r="L2" s="291"/>
+      <c r="M2" s="291"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="291"/>
+      <c r="P2" s="291"/>
+      <c r="Q2" s="291"/>
+      <c r="R2" s="291"/>
+      <c r="S2" s="291"/>
+      <c r="T2" s="291"/>
+      <c r="U2" s="291"/>
+      <c r="V2" s="292"/>
+      <c r="W2" s="296" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="248"/>
-      <c r="Y2" s="248"/>
-      <c r="Z2" s="248"/>
-      <c r="AA2" s="248"/>
-      <c r="AB2" s="248"/>
-      <c r="AC2" s="248"/>
-      <c r="AD2" s="248"/>
-      <c r="AE2" s="248"/>
-      <c r="AF2" s="248"/>
-      <c r="AG2" s="248"/>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="248"/>
-      <c r="AJ2" s="249"/>
+      <c r="X2" s="297"/>
+      <c r="Y2" s="297"/>
+      <c r="Z2" s="297"/>
+      <c r="AA2" s="297"/>
+      <c r="AB2" s="297"/>
+      <c r="AC2" s="297"/>
+      <c r="AD2" s="297"/>
+      <c r="AE2" s="297"/>
+      <c r="AF2" s="297"/>
+      <c r="AG2" s="297"/>
+      <c r="AH2" s="297"/>
+      <c r="AI2" s="297"/>
+      <c r="AJ2" s="298"/>
     </row>
     <row r="3" spans="1:47" ht="15" customHeight="1">
-      <c r="A3" s="250" t="s">
+      <c r="A3" s="299" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="254" t="s">
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="303" t="s">
         <v>184</v>
       </c>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="251" t="s">
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="305"/>
+      <c r="I3" s="300" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="260"/>
-      <c r="M3" s="262" t="s">
+      <c r="J3" s="300"/>
+      <c r="K3" s="300"/>
+      <c r="L3" s="309"/>
+      <c r="M3" s="311" t="s">
         <v>183</v>
       </c>
-      <c r="N3" s="255"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="255"/>
-      <c r="Q3" s="255"/>
-      <c r="R3" s="255"/>
-      <c r="S3" s="255"/>
-      <c r="T3" s="255"/>
-      <c r="U3" s="255"/>
-      <c r="V3" s="263"/>
+      <c r="N3" s="304"/>
+      <c r="O3" s="304"/>
+      <c r="P3" s="304"/>
+      <c r="Q3" s="304"/>
+      <c r="R3" s="304"/>
+      <c r="S3" s="304"/>
+      <c r="T3" s="304"/>
+      <c r="U3" s="304"/>
+      <c r="V3" s="312"/>
       <c r="W3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="266"/>
-      <c r="AB3" s="266"/>
-      <c r="AC3" s="267"/>
+      <c r="Z3" s="315"/>
+      <c r="AA3" s="315"/>
+      <c r="AB3" s="315"/>
+      <c r="AC3" s="316"/>
       <c r="AD3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
-      <c r="AG3" s="271"/>
-      <c r="AH3" s="269"/>
-      <c r="AI3" s="269"/>
-      <c r="AJ3" s="270"/>
+      <c r="AG3" s="320"/>
+      <c r="AH3" s="318"/>
+      <c r="AI3" s="318"/>
+      <c r="AJ3" s="319"/>
     </row>
     <row r="4" spans="1:47" ht="15" customHeight="1">
-      <c r="A4" s="252"/>
-      <c r="B4" s="253"/>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="257"/>
-      <c r="F4" s="258"/>
-      <c r="G4" s="258"/>
-      <c r="H4" s="259"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="253"/>
-      <c r="K4" s="253"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="264"/>
-      <c r="N4" s="258"/>
-      <c r="O4" s="258"/>
-      <c r="P4" s="258"/>
-      <c r="Q4" s="258"/>
-      <c r="R4" s="258"/>
-      <c r="S4" s="258"/>
-      <c r="T4" s="258"/>
-      <c r="U4" s="258"/>
-      <c r="V4" s="265"/>
+      <c r="A4" s="301"/>
+      <c r="B4" s="302"/>
+      <c r="C4" s="302"/>
+      <c r="D4" s="302"/>
+      <c r="E4" s="306"/>
+      <c r="F4" s="307"/>
+      <c r="G4" s="307"/>
+      <c r="H4" s="308"/>
+      <c r="I4" s="302"/>
+      <c r="J4" s="302"/>
+      <c r="K4" s="302"/>
+      <c r="L4" s="310"/>
+      <c r="M4" s="313"/>
+      <c r="N4" s="307"/>
+      <c r="O4" s="307"/>
+      <c r="P4" s="307"/>
+      <c r="Q4" s="307"/>
+      <c r="R4" s="307"/>
+      <c r="S4" s="307"/>
+      <c r="T4" s="307"/>
+      <c r="U4" s="307"/>
+      <c r="V4" s="314"/>
       <c r="W4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="229"/>
-      <c r="AA4" s="229"/>
-      <c r="AB4" s="229"/>
-      <c r="AC4" s="230"/>
+      <c r="Z4" s="251"/>
+      <c r="AA4" s="251"/>
+      <c r="AB4" s="251"/>
+      <c r="AC4" s="252"/>
       <c r="AD4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AE4" s="9"/>
       <c r="AF4" s="10"/>
-      <c r="AG4" s="231"/>
-      <c r="AH4" s="232"/>
-      <c r="AI4" s="232"/>
-      <c r="AJ4" s="233"/>
+      <c r="AG4" s="253"/>
+      <c r="AH4" s="254"/>
+      <c r="AI4" s="254"/>
+      <c r="AJ4" s="255"/>
     </row>
     <row r="5" spans="1:47" ht="15.75">
       <c r="A5" s="37">
         <v>1</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -13236,75 +14092,75 @@
     </row>
     <row r="38" spans="1:36">
       <c r="B38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:36">
       <c r="B39" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:36">
       <c r="B41" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:36">
-      <c r="B42" s="302"/>
-      <c r="C42" s="290"/>
-      <c r="D42" s="290"/>
-      <c r="E42" s="290"/>
-      <c r="F42" s="290"/>
-      <c r="G42" s="290"/>
-      <c r="H42" s="290"/>
-      <c r="I42" s="290"/>
-      <c r="J42" s="290"/>
-      <c r="K42" s="303" t="s">
+      <c r="B42" s="205"/>
+      <c r="C42" s="193"/>
+      <c r="D42" s="193"/>
+      <c r="E42" s="193"/>
+      <c r="F42" s="193"/>
+      <c r="G42" s="193"/>
+      <c r="H42" s="193"/>
+      <c r="I42" s="193"/>
+      <c r="J42" s="193"/>
+      <c r="K42" s="206" t="s">
         <v>185</v>
       </c>
-      <c r="L42" s="291"/>
-      <c r="M42" s="291" t="s">
+      <c r="L42" s="194"/>
+      <c r="M42" s="194" t="s">
         <v>186</v>
       </c>
-      <c r="N42" s="291"/>
-      <c r="O42" s="291"/>
-      <c r="P42" s="291"/>
-      <c r="Q42" s="291"/>
-      <c r="R42" s="291"/>
-      <c r="S42" s="291"/>
-      <c r="T42" s="291"/>
-      <c r="U42" s="291"/>
-      <c r="V42" s="291"/>
-      <c r="W42" s="291"/>
-      <c r="X42" s="291"/>
-      <c r="Y42" s="291"/>
-      <c r="Z42" s="291"/>
-      <c r="AA42" s="291"/>
-      <c r="AB42" s="291"/>
-      <c r="AC42" s="291"/>
-      <c r="AD42" s="291"/>
-      <c r="AE42" s="291"/>
-      <c r="AF42" s="291"/>
-      <c r="AG42" s="291"/>
+      <c r="N42" s="194"/>
+      <c r="O42" s="194"/>
+      <c r="P42" s="194"/>
+      <c r="Q42" s="194"/>
+      <c r="R42" s="194"/>
+      <c r="S42" s="194"/>
+      <c r="T42" s="194"/>
+      <c r="U42" s="194"/>
+      <c r="V42" s="194"/>
+      <c r="W42" s="194"/>
+      <c r="X42" s="194"/>
+      <c r="Y42" s="194"/>
+      <c r="Z42" s="194"/>
+      <c r="AA42" s="194"/>
+      <c r="AB42" s="194"/>
+      <c r="AC42" s="194"/>
+      <c r="AD42" s="194"/>
+      <c r="AE42" s="194"/>
+      <c r="AF42" s="194"/>
+      <c r="AG42" s="194"/>
     </row>
     <row r="60" spans="13:13">
       <c r="M60" t="s">
-        <v>187</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="13:13">
       <c r="M61" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="13:13">
       <c r="M62" t="s">
-        <v>189</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="13:13">
       <c r="M63" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -13335,193 +14191,193 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU35"/>
+  <dimension ref="A1:AU66"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="M3" sqref="M3:V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="238" t="s">
+      <c r="B1" s="284"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="287" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="239"/>
-      <c r="P1" s="239"/>
-      <c r="Q1" s="239"/>
-      <c r="R1" s="239"/>
-      <c r="S1" s="239"/>
-      <c r="T1" s="239"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="240"/>
-      <c r="W1" s="244" t="s">
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="288"/>
+      <c r="J1" s="288"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
+      <c r="M1" s="288"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="288"/>
+      <c r="P1" s="288"/>
+      <c r="Q1" s="288"/>
+      <c r="R1" s="288"/>
+      <c r="S1" s="288"/>
+      <c r="T1" s="288"/>
+      <c r="U1" s="288"/>
+      <c r="V1" s="289"/>
+      <c r="W1" s="293" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="245"/>
-      <c r="Y1" s="245"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="245"/>
-      <c r="AB1" s="245"/>
-      <c r="AC1" s="245"/>
-      <c r="AD1" s="245"/>
-      <c r="AE1" s="245"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="245"/>
-      <c r="AH1" s="245"/>
-      <c r="AI1" s="245"/>
-      <c r="AJ1" s="246"/>
+      <c r="X1" s="294"/>
+      <c r="Y1" s="294"/>
+      <c r="Z1" s="294"/>
+      <c r="AA1" s="294"/>
+      <c r="AB1" s="294"/>
+      <c r="AC1" s="294"/>
+      <c r="AD1" s="294"/>
+      <c r="AE1" s="294"/>
+      <c r="AF1" s="294"/>
+      <c r="AG1" s="294"/>
+      <c r="AH1" s="294"/>
+      <c r="AI1" s="294"/>
+      <c r="AJ1" s="295"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1">
-      <c r="A2" s="236"/>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="242"/>
-      <c r="M2" s="242"/>
-      <c r="N2" s="242"/>
-      <c r="O2" s="242"/>
-      <c r="P2" s="242"/>
-      <c r="Q2" s="242"/>
-      <c r="R2" s="242"/>
-      <c r="S2" s="242"/>
-      <c r="T2" s="242"/>
-      <c r="U2" s="242"/>
-      <c r="V2" s="243"/>
-      <c r="W2" s="247" t="s">
+      <c r="A2" s="285"/>
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
+      <c r="K2" s="291"/>
+      <c r="L2" s="291"/>
+      <c r="M2" s="291"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="291"/>
+      <c r="P2" s="291"/>
+      <c r="Q2" s="291"/>
+      <c r="R2" s="291"/>
+      <c r="S2" s="291"/>
+      <c r="T2" s="291"/>
+      <c r="U2" s="291"/>
+      <c r="V2" s="292"/>
+      <c r="W2" s="296" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="248"/>
-      <c r="Y2" s="248"/>
-      <c r="Z2" s="248"/>
-      <c r="AA2" s="248"/>
-      <c r="AB2" s="248"/>
-      <c r="AC2" s="248"/>
-      <c r="AD2" s="248"/>
-      <c r="AE2" s="248"/>
-      <c r="AF2" s="248"/>
-      <c r="AG2" s="248"/>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="248"/>
-      <c r="AJ2" s="249"/>
+      <c r="X2" s="297"/>
+      <c r="Y2" s="297"/>
+      <c r="Z2" s="297"/>
+      <c r="AA2" s="297"/>
+      <c r="AB2" s="297"/>
+      <c r="AC2" s="297"/>
+      <c r="AD2" s="297"/>
+      <c r="AE2" s="297"/>
+      <c r="AF2" s="297"/>
+      <c r="AG2" s="297"/>
+      <c r="AH2" s="297"/>
+      <c r="AI2" s="297"/>
+      <c r="AJ2" s="298"/>
     </row>
     <row r="3" spans="1:47" ht="15" customHeight="1">
-      <c r="A3" s="250" t="s">
+      <c r="A3" s="299" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="251" t="s">
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="303"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="305"/>
+      <c r="I3" s="300" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="260"/>
-      <c r="M3" s="262"/>
-      <c r="N3" s="255"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="255"/>
-      <c r="Q3" s="255"/>
-      <c r="R3" s="255"/>
-      <c r="S3" s="255"/>
-      <c r="T3" s="255"/>
-      <c r="U3" s="255"/>
-      <c r="V3" s="263"/>
+      <c r="J3" s="300"/>
+      <c r="K3" s="300"/>
+      <c r="L3" s="309"/>
+      <c r="M3" s="311" t="s">
+        <v>249</v>
+      </c>
+      <c r="N3" s="304"/>
+      <c r="O3" s="304"/>
+      <c r="P3" s="304"/>
+      <c r="Q3" s="304"/>
+      <c r="R3" s="304"/>
+      <c r="S3" s="304"/>
+      <c r="T3" s="304"/>
+      <c r="U3" s="304"/>
+      <c r="V3" s="312"/>
       <c r="W3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="266"/>
-      <c r="AB3" s="266"/>
-      <c r="AC3" s="267"/>
+      <c r="Z3" s="315"/>
+      <c r="AA3" s="315"/>
+      <c r="AB3" s="315"/>
+      <c r="AC3" s="316"/>
       <c r="AD3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
-      <c r="AG3" s="271"/>
-      <c r="AH3" s="269"/>
-      <c r="AI3" s="269"/>
-      <c r="AJ3" s="270"/>
+      <c r="AG3" s="320"/>
+      <c r="AH3" s="318"/>
+      <c r="AI3" s="318"/>
+      <c r="AJ3" s="319"/>
     </row>
     <row r="4" spans="1:47" ht="15" customHeight="1">
-      <c r="A4" s="252"/>
-      <c r="B4" s="253"/>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="257"/>
-      <c r="F4" s="258"/>
-      <c r="G4" s="258"/>
-      <c r="H4" s="259"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="253"/>
-      <c r="K4" s="253"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="264"/>
-      <c r="N4" s="258"/>
-      <c r="O4" s="258"/>
-      <c r="P4" s="258"/>
-      <c r="Q4" s="258"/>
-      <c r="R4" s="258"/>
-      <c r="S4" s="258"/>
-      <c r="T4" s="258"/>
-      <c r="U4" s="258"/>
-      <c r="V4" s="265"/>
+      <c r="A4" s="301"/>
+      <c r="B4" s="302"/>
+      <c r="C4" s="302"/>
+      <c r="D4" s="302"/>
+      <c r="E4" s="306"/>
+      <c r="F4" s="307"/>
+      <c r="G4" s="307"/>
+      <c r="H4" s="308"/>
+      <c r="I4" s="302"/>
+      <c r="J4" s="302"/>
+      <c r="K4" s="302"/>
+      <c r="L4" s="310"/>
+      <c r="M4" s="313"/>
+      <c r="N4" s="307"/>
+      <c r="O4" s="307"/>
+      <c r="P4" s="307"/>
+      <c r="Q4" s="307"/>
+      <c r="R4" s="307"/>
+      <c r="S4" s="307"/>
+      <c r="T4" s="307"/>
+      <c r="U4" s="307"/>
+      <c r="V4" s="314"/>
       <c r="W4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="229"/>
-      <c r="AA4" s="229"/>
-      <c r="AB4" s="229"/>
-      <c r="AC4" s="230"/>
+      <c r="Z4" s="251"/>
+      <c r="AA4" s="251"/>
+      <c r="AB4" s="251"/>
+      <c r="AC4" s="252"/>
       <c r="AD4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AE4" s="9"/>
       <c r="AF4" s="10"/>
-      <c r="AG4" s="231"/>
-      <c r="AH4" s="232"/>
-      <c r="AI4" s="232"/>
-      <c r="AJ4" s="233"/>
+      <c r="AG4" s="253"/>
+      <c r="AH4" s="254"/>
+      <c r="AI4" s="254"/>
+      <c r="AJ4" s="255"/>
     </row>
     <row r="5" spans="1:47" ht="15.75">
-      <c r="A5" s="37">
-        <v>1</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>16</v>
-      </c>
+      <c r="A5" s="218" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -13555,96 +14411,98 @@
       <c r="AG5" s="38"/>
       <c r="AH5" s="38"/>
       <c r="AI5" s="38"/>
-      <c r="AJ5" s="39"/>
+      <c r="AJ5" s="38"/>
     </row>
     <row r="6" spans="1:47" ht="15.75">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="41"/>
-      <c r="AF6" s="41"/>
-      <c r="AG6" s="41"/>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="41"/>
-      <c r="AJ6" s="48"/>
+      <c r="A6" s="220" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="217"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="217"/>
+      <c r="G6" s="217"/>
+      <c r="H6" s="217"/>
+      <c r="I6" s="217"/>
+      <c r="J6" s="217"/>
+      <c r="K6" s="217"/>
+      <c r="L6" s="217"/>
+      <c r="M6" s="217"/>
+      <c r="N6" s="217"/>
+      <c r="O6" s="217"/>
+      <c r="P6" s="217"/>
+      <c r="Q6" s="217"/>
+      <c r="R6" s="217"/>
+      <c r="S6" s="217"/>
+      <c r="T6" s="217"/>
+      <c r="U6" s="217"/>
+      <c r="V6" s="217"/>
+      <c r="W6" s="217"/>
+      <c r="X6" s="217"/>
+      <c r="Y6" s="217"/>
+      <c r="Z6" s="217"/>
+      <c r="AA6" s="217"/>
+      <c r="AB6" s="217"/>
+      <c r="AC6" s="217"/>
+      <c r="AD6" s="217"/>
+      <c r="AE6" s="217"/>
+      <c r="AF6" s="217"/>
+      <c r="AG6" s="217"/>
+      <c r="AH6" s="217"/>
+      <c r="AI6" s="217"/>
+      <c r="AJ6" s="217"/>
     </row>
     <row r="7" spans="1:47" ht="15.75">
-      <c r="A7" s="40"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
       <c r="AH7" s="41"/>
       <c r="AI7" s="41"/>
-      <c r="AJ7" s="48"/>
+      <c r="AJ7" s="41"/>
     </row>
     <row r="8" spans="1:47" ht="15.75">
-      <c r="A8" s="40"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
       <c r="L8" s="42"/>
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
@@ -13665,24 +14523,26 @@
       <c r="AC8" s="42"/>
       <c r="AD8" s="42"/>
       <c r="AE8" s="42"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="55"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="41"/>
       <c r="AI8" s="41"/>
-      <c r="AJ8" s="48"/>
+      <c r="AJ8" s="41"/>
     </row>
     <row r="9" spans="1:47" ht="15.75">
-      <c r="A9" s="40"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="42" t="s">
+        <v>208</v>
+      </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="41"/>
       <c r="L9" s="42"/>
       <c r="M9" s="42"/>
       <c r="N9" s="42"/>
@@ -13696,25 +14556,27 @@
       <c r="V9" s="42"/>
       <c r="W9" s="42"/>
       <c r="X9" s="42"/>
-      <c r="Y9" s="45"/>
+      <c r="Y9" s="42"/>
       <c r="Z9" s="42"/>
       <c r="AA9" s="42"/>
       <c r="AB9" s="42"/>
       <c r="AC9" s="42"/>
       <c r="AD9" s="42"/>
       <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="41"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="55"/>
       <c r="AI9" s="41"/>
-      <c r="AJ9" s="48"/>
+      <c r="AJ9" s="41"/>
     </row>
     <row r="10" spans="1:47" ht="15.75">
-      <c r="A10" s="46"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="C10" s="42" t="s">
+        <v>203</v>
+      </c>
       <c r="D10" s="42"/>
-      <c r="E10" s="47"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
@@ -13734,7 +14596,7 @@
       <c r="V10" s="42"/>
       <c r="W10" s="42"/>
       <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
+      <c r="Y10" s="45"/>
       <c r="Z10" s="42"/>
       <c r="AA10" s="42"/>
       <c r="AB10" s="42"/>
@@ -13745,13 +14607,15 @@
       <c r="AG10" s="42"/>
       <c r="AH10" s="41"/>
       <c r="AI10" s="41"/>
-      <c r="AJ10" s="48"/>
+      <c r="AJ10" s="41"/>
     </row>
     <row r="11" spans="1:47" ht="15.75">
-      <c r="A11" s="49"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="D11" s="42" t="s">
+        <v>204</v>
+      </c>
       <c r="E11" s="47"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
@@ -13761,7 +14625,7 @@
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
       <c r="M11" s="42"/>
-      <c r="N11" s="50"/>
+      <c r="N11" s="42"/>
       <c r="O11" s="42"/>
       <c r="P11" s="42"/>
       <c r="Q11" s="42"/>
@@ -13783,106 +14647,101 @@
       <c r="AG11" s="42"/>
       <c r="AH11" s="41"/>
       <c r="AI11" s="41"/>
-      <c r="AJ11" s="48"/>
+      <c r="AJ11" s="41"/>
     </row>
     <row r="12" spans="1:47" ht="15.75">
-      <c r="A12" s="49"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="D12" s="42" t="s">
+        <v>205</v>
+      </c>
       <c r="E12" s="47"/>
       <c r="F12" s="42"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
       <c r="AH12" s="41"/>
       <c r="AI12" s="41"/>
-      <c r="AJ12" s="48"/>
+      <c r="AJ12" s="41"/>
     </row>
     <row r="13" spans="1:47" ht="15.75">
-      <c r="A13" s="49"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="57"/>
+      <c r="D13" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="47"/>
       <c r="F13" s="42"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
-      <c r="J13" s="51"/>
+      <c r="J13" s="41"/>
       <c r="K13" s="41"/>
       <c r="L13" s="41"/>
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="41"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
       <c r="AE13" s="41"/>
       <c r="AF13" s="41"/>
       <c r="AG13" s="41"/>
       <c r="AH13" s="41"/>
       <c r="AI13" s="41"/>
-      <c r="AJ13" s="58"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="2"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
+      <c r="AJ13" s="41"/>
     </row>
     <row r="14" spans="1:47" ht="15.75">
-      <c r="A14" s="49"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="C14" s="42" t="s">
+        <v>206</v>
+      </c>
       <c r="D14" s="42"/>
-      <c r="E14" s="47"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="42"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
+      <c r="J14" s="51"/>
       <c r="K14" s="41"/>
       <c r="L14" s="41"/>
       <c r="M14" s="41"/>
@@ -13901,16 +14760,16 @@
       <c r="Z14" s="41"/>
       <c r="AA14" s="41"/>
       <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
+      <c r="AC14" s="57"/>
       <c r="AD14" s="41"/>
       <c r="AE14" s="41"/>
       <c r="AF14" s="41"/>
       <c r="AG14" s="41"/>
       <c r="AH14" s="41"/>
       <c r="AI14" s="41"/>
-      <c r="AJ14" s="58"/>
+      <c r="AJ14" s="219"/>
       <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
+      <c r="AL14" s="2"/>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
@@ -13921,64 +14780,77 @@
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
     </row>
-    <row r="15" spans="1:47" ht="15" customHeight="1">
-      <c r="A15" s="49"/>
+    <row r="15" spans="1:47" ht="15.75">
+      <c r="A15" s="42"/>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
       <c r="E15" s="47"/>
       <c r="F15" s="42"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="60"/>
-      <c r="AD15" s="60"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="60"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="61"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="41"/>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="41"/>
       <c r="AI15" s="41"/>
-      <c r="AJ15" s="58"/>
-    </row>
-    <row r="16" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A16" s="49"/>
-      <c r="B16" s="42"/>
+      <c r="AJ15" s="219"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+    </row>
+    <row r="16" spans="1:47" ht="15" customHeight="1">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42" t="s">
+        <v>209</v>
+      </c>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="42"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
       <c r="T16" s="60"/>
       <c r="U16" s="60"/>
       <c r="V16" s="60"/>
@@ -13986,21 +14858,23 @@
       <c r="X16" s="60"/>
       <c r="Y16" s="60"/>
       <c r="Z16" s="60"/>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
-      <c r="AG16" s="61"/>
-      <c r="AH16" s="65"/>
+      <c r="AA16" s="60"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="60"/>
+      <c r="AG16" s="60"/>
+      <c r="AH16" s="61"/>
       <c r="AI16" s="41"/>
-      <c r="AJ16" s="58"/>
+      <c r="AJ16" s="219"/>
     </row>
     <row r="17" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A17" s="49"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+      <c r="C17" s="42" t="s">
+        <v>210</v>
+      </c>
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -14033,13 +14907,15 @@
       <c r="AG17" s="61"/>
       <c r="AH17" s="65"/>
       <c r="AI17" s="41"/>
-      <c r="AJ17" s="58"/>
+      <c r="AJ17" s="219"/>
     </row>
     <row r="18" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A18" s="49"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="42" t="s">
+        <v>211</v>
+      </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
       <c r="G18" s="62"/>
@@ -14071,13 +14947,15 @@
       <c r="AG18" s="61"/>
       <c r="AH18" s="65"/>
       <c r="AI18" s="41"/>
-      <c r="AJ18" s="58"/>
+      <c r="AJ18" s="219"/>
     </row>
     <row r="19" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A19" s="49"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
+      <c r="D19" s="42" t="s">
+        <v>212</v>
+      </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
       <c r="G19" s="62"/>
@@ -14109,14 +14987,16 @@
       <c r="AG19" s="61"/>
       <c r="AH19" s="65"/>
       <c r="AI19" s="41"/>
-      <c r="AJ19" s="58"/>
+      <c r="AJ19" s="219"/>
     </row>
     <row r="20" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A20" s="49"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="E20" s="42" t="s">
+        <v>213</v>
+      </c>
       <c r="F20" s="42"/>
       <c r="G20" s="62"/>
       <c r="H20" s="63"/>
@@ -14147,17 +15027,19 @@
       <c r="AG20" s="61"/>
       <c r="AH20" s="65"/>
       <c r="AI20" s="41"/>
-      <c r="AJ20" s="58"/>
+      <c r="AJ20" s="219"/>
     </row>
     <row r="21" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A21" s="49"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" s="42"/>
       <c r="G21" s="62"/>
-      <c r="H21" s="64"/>
+      <c r="H21" s="63"/>
       <c r="I21" s="64"/>
       <c r="J21" s="64"/>
       <c r="K21" s="64"/>
@@ -14169,13 +15051,13 @@
       <c r="Q21" s="64"/>
       <c r="R21" s="64"/>
       <c r="S21" s="64"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
       <c r="AA21" s="61"/>
       <c r="AB21" s="61"/>
       <c r="AC21" s="61"/>
@@ -14183,30 +15065,32 @@
       <c r="AE21" s="61"/>
       <c r="AF21" s="61"/>
       <c r="AG21" s="61"/>
-      <c r="AH21" s="66"/>
+      <c r="AH21" s="65"/>
       <c r="AI21" s="41"/>
-      <c r="AJ21" s="58"/>
+      <c r="AJ21" s="219"/>
     </row>
     <row r="22" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A22" s="49"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
+      <c r="E22" s="41" t="s">
+        <v>215</v>
+      </c>
       <c r="F22" s="41"/>
       <c r="G22" s="62"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
       <c r="T22" s="61"/>
       <c r="U22" s="61"/>
       <c r="V22" s="61"/>
@@ -14223,51 +15107,55 @@
       <c r="AG22" s="61"/>
       <c r="AH22" s="66"/>
       <c r="AI22" s="41"/>
-      <c r="AJ22" s="58"/>
+      <c r="AJ22" s="219"/>
     </row>
     <row r="23" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A23" s="49"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
+      <c r="D23" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="41"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="60"/>
-      <c r="X23" s="60"/>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="60"/>
-      <c r="AA23" s="60"/>
-      <c r="AB23" s="60"/>
-      <c r="AC23" s="60"/>
-      <c r="AD23" s="60"/>
-      <c r="AE23" s="60"/>
-      <c r="AF23" s="60"/>
-      <c r="AG23" s="60"/>
-      <c r="AH23" s="60"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="61"/>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="61"/>
+      <c r="AH23" s="66"/>
       <c r="AI23" s="41"/>
-      <c r="AJ23" s="58"/>
-    </row>
-    <row r="24" spans="1:36" ht="15.75">
-      <c r="A24" s="49"/>
-      <c r="B24" s="52"/>
+      <c r="AJ23" s="219"/>
+    </row>
+    <row r="24" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A24" s="42"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
+      <c r="D24" s="42" t="s">
+        <v>207</v>
+      </c>
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
       <c r="G24" s="60"/>
@@ -14299,11 +15187,13 @@
       <c r="AG24" s="60"/>
       <c r="AH24" s="60"/>
       <c r="AI24" s="41"/>
-      <c r="AJ24" s="48"/>
+      <c r="AJ24" s="219"/>
     </row>
     <row r="25" spans="1:36" ht="15.75">
-      <c r="A25" s="49"/>
-      <c r="B25" s="52"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="41" t="s">
+        <v>206</v>
+      </c>
       <c r="C25" s="41"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
@@ -14337,10 +15227,10 @@
       <c r="AG25" s="60"/>
       <c r="AH25" s="60"/>
       <c r="AI25" s="41"/>
-      <c r="AJ25" s="48"/>
+      <c r="AJ25" s="41"/>
     </row>
     <row r="26" spans="1:36" ht="15.75">
-      <c r="A26" s="49"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="52"/>
       <c r="C26" s="41"/>
       <c r="D26" s="41"/>
@@ -14375,11 +15265,13 @@
       <c r="AG26" s="60"/>
       <c r="AH26" s="60"/>
       <c r="AI26" s="41"/>
-      <c r="AJ26" s="48"/>
+      <c r="AJ26" s="41"/>
     </row>
     <row r="27" spans="1:36" ht="15.75">
-      <c r="A27" s="49"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="41" t="s">
+        <v>216</v>
+      </c>
       <c r="C27" s="41"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
@@ -14413,10 +15305,10 @@
       <c r="AG27" s="60"/>
       <c r="AH27" s="60"/>
       <c r="AI27" s="41"/>
-      <c r="AJ27" s="48"/>
+      <c r="AJ27" s="41"/>
     </row>
     <row r="28" spans="1:36" ht="15.75">
-      <c r="A28" s="49"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="52"/>
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
@@ -14451,89 +15343,1825 @@
       <c r="AG28" s="60"/>
       <c r="AH28" s="60"/>
       <c r="AI28" s="41"/>
-      <c r="AJ28" s="48"/>
-    </row>
-    <row r="29" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A29" s="49"/>
-      <c r="B29" s="52"/>
+      <c r="AJ28" s="41"/>
+    </row>
+    <row r="29" spans="1:36" ht="15.75">
+      <c r="A29" s="42"/>
+      <c r="B29" s="213" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="214" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" s="215"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="215"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="216" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="104"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="104"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="104"/>
+      <c r="X29" s="104"/>
+      <c r="Y29" s="104"/>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="104"/>
+      <c r="AB29" s="104"/>
+      <c r="AC29" s="104"/>
+      <c r="AD29" s="104"/>
+      <c r="AE29" s="104"/>
+      <c r="AF29" s="104"/>
+      <c r="AG29" s="104"/>
+      <c r="AH29" s="104"/>
+      <c r="AI29" s="118"/>
+      <c r="AJ29" s="41"/>
+    </row>
+    <row r="30" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A30" s="42"/>
+      <c r="B30" s="209">
+        <v>1</v>
+      </c>
+      <c r="C30" s="210" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="211"/>
+      <c r="E30" s="211"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="159" t="s">
+        <v>220</v>
+      </c>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="90"/>
+      <c r="W30" s="90"/>
+      <c r="X30" s="90"/>
+      <c r="Y30" s="90"/>
+      <c r="Z30" s="90"/>
+      <c r="AA30" s="90"/>
+      <c r="AB30" s="90"/>
+      <c r="AC30" s="90"/>
+      <c r="AD30" s="90"/>
+      <c r="AE30" s="90"/>
+      <c r="AF30" s="90"/>
+      <c r="AG30" s="90"/>
+      <c r="AH30" s="90"/>
+      <c r="AI30" s="212"/>
+      <c r="AJ30" s="41"/>
+    </row>
+    <row r="31" spans="1:36" ht="15.75">
+      <c r="A31" s="42"/>
+      <c r="B31" s="209">
+        <v>2</v>
+      </c>
+      <c r="C31" s="210" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" s="211"/>
+      <c r="E31" s="211"/>
+      <c r="F31" s="211"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="159" t="s">
+        <v>222</v>
+      </c>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="90"/>
+      <c r="AB31" s="90"/>
+      <c r="AC31" s="90"/>
+      <c r="AD31" s="90"/>
+      <c r="AE31" s="90"/>
+      <c r="AF31" s="90"/>
+      <c r="AG31" s="90"/>
+      <c r="AH31" s="90"/>
+      <c r="AI31" s="212"/>
+      <c r="AJ31" s="41"/>
+    </row>
+    <row r="32" spans="1:36" ht="15.75">
+      <c r="A32" s="42"/>
+      <c r="B32" s="209">
+        <v>3</v>
+      </c>
+      <c r="C32" s="210" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" s="211"/>
+      <c r="E32" s="211"/>
+      <c r="F32" s="211"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="159" t="s">
+        <v>224</v>
+      </c>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="90"/>
+      <c r="T32" s="90"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="90"/>
+      <c r="W32" s="90"/>
+      <c r="X32" s="90"/>
+      <c r="Y32" s="90"/>
+      <c r="Z32" s="90"/>
+      <c r="AA32" s="90"/>
+      <c r="AB32" s="90"/>
+      <c r="AC32" s="90"/>
+      <c r="AD32" s="90"/>
+      <c r="AE32" s="90"/>
+      <c r="AF32" s="90"/>
+      <c r="AG32" s="90"/>
+      <c r="AH32" s="90"/>
+      <c r="AI32" s="212"/>
+      <c r="AJ32" s="41"/>
+    </row>
+    <row r="33" spans="1:36" ht="15.75">
+      <c r="A33" s="42"/>
+      <c r="B33" s="209"/>
+      <c r="C33" s="210" t="s">
+        <v>226</v>
+      </c>
+      <c r="D33" s="211"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="90"/>
+      <c r="X33" s="90"/>
+      <c r="Y33" s="90"/>
+      <c r="Z33" s="90"/>
+      <c r="AA33" s="90"/>
+      <c r="AB33" s="90"/>
+      <c r="AC33" s="90"/>
+      <c r="AD33" s="90"/>
+      <c r="AE33" s="90"/>
+      <c r="AF33" s="90"/>
+      <c r="AG33" s="90"/>
+      <c r="AH33" s="90"/>
+      <c r="AI33" s="212"/>
+      <c r="AJ33" s="41"/>
+    </row>
+    <row r="34" spans="1:36" ht="15.75">
+      <c r="A34" s="42"/>
+      <c r="B34" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
+      <c r="AF34" s="60"/>
+      <c r="AG34" s="60"/>
+      <c r="AH34" s="60"/>
+      <c r="AI34" s="41"/>
+      <c r="AJ34" s="41"/>
+    </row>
+    <row r="35" spans="1:36" ht="15.75">
+      <c r="A35" s="42"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="41"/>
+      <c r="AD35" s="41"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="41"/>
+      <c r="AG35" s="41"/>
+      <c r="AH35" s="41"/>
+      <c r="AI35" s="41"/>
+      <c r="AJ35" s="41"/>
+    </row>
+    <row r="36" spans="1:36" ht="15.75">
+      <c r="A36" s="42"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="41"/>
+      <c r="AC36" s="41"/>
+      <c r="AD36" s="41"/>
+      <c r="AE36" s="41"/>
+      <c r="AF36" s="41"/>
+      <c r="AG36" s="41"/>
+      <c r="AH36" s="41"/>
+      <c r="AI36" s="41"/>
+      <c r="AJ36" s="41"/>
+    </row>
+    <row r="37" spans="1:36" ht="15.75">
+      <c r="A37" s="219"/>
+      <c r="B37" s="219"/>
+      <c r="C37" s="219"/>
+      <c r="D37" s="219"/>
+      <c r="E37" s="219"/>
+      <c r="F37" s="219"/>
+      <c r="G37" s="219"/>
+      <c r="H37" s="219"/>
+      <c r="I37" s="219"/>
+      <c r="J37" s="219"/>
+      <c r="K37" s="219"/>
+      <c r="L37" s="219"/>
+      <c r="M37" s="219"/>
+      <c r="N37" s="219"/>
+      <c r="O37" s="219"/>
+      <c r="P37" s="219"/>
+      <c r="Q37" s="219"/>
+      <c r="R37" s="219"/>
+      <c r="S37" s="219"/>
+      <c r="T37" s="219"/>
+      <c r="U37" s="219"/>
+      <c r="V37" s="219"/>
+      <c r="W37" s="219"/>
+      <c r="X37" s="219"/>
+      <c r="Y37" s="219"/>
+      <c r="Z37" s="219"/>
+      <c r="AA37" s="219"/>
+      <c r="AB37" s="219"/>
+      <c r="AC37" s="219"/>
+      <c r="AD37" s="219"/>
+      <c r="AE37" s="219"/>
+      <c r="AF37" s="219"/>
+      <c r="AG37" s="219"/>
+      <c r="AH37" s="219"/>
+      <c r="AI37" s="219"/>
+      <c r="AJ37" s="219"/>
+    </row>
+    <row r="38" spans="1:36" ht="15.75">
+      <c r="A38" s="220" t="s">
+        <v>241</v>
+      </c>
+      <c r="B38" s="217"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="217"/>
+      <c r="E38" s="217"/>
+      <c r="F38" s="217"/>
+      <c r="G38" s="217"/>
+      <c r="H38" s="217"/>
+      <c r="I38" s="217"/>
+      <c r="J38" s="217"/>
+      <c r="K38" s="217"/>
+      <c r="L38" s="217"/>
+      <c r="M38" s="217"/>
+      <c r="N38" s="217"/>
+      <c r="O38" s="217"/>
+      <c r="P38" s="217"/>
+      <c r="Q38" s="217"/>
+      <c r="R38" s="217"/>
+      <c r="S38" s="217"/>
+      <c r="T38" s="217"/>
+      <c r="U38" s="217"/>
+      <c r="V38" s="217"/>
+      <c r="W38" s="217"/>
+      <c r="X38" s="217"/>
+      <c r="Y38" s="217"/>
+      <c r="Z38" s="217"/>
+      <c r="AA38" s="217"/>
+      <c r="AB38" s="217"/>
+      <c r="AC38" s="217"/>
+      <c r="AD38" s="217"/>
+      <c r="AE38" s="217"/>
+      <c r="AF38" s="217"/>
+      <c r="AG38" s="217"/>
+      <c r="AH38" s="217"/>
+      <c r="AI38" s="217"/>
+      <c r="AJ38" s="217"/>
+    </row>
+    <row r="40" spans="1:36">
+      <c r="B40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36">
+      <c r="B41" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36">
+      <c r="C42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36">
+      <c r="D43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36">
+      <c r="D44" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36">
+      <c r="D45" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36">
+      <c r="C46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="C49" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="D50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="D51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="D52" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="C53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="199" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="C57" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="D58" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="D59" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="D60" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="C61" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="179" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="12">
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:V2"/>
+    <mergeCell ref="W1:AJ1"/>
+    <mergeCell ref="W2:AJ2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="M3:V4"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AG3:AJ3"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.3" top="0.4" bottom="0.3" header="0.15" footer="0.15"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU83"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:36" ht="15" customHeight="1">
+      <c r="A1" s="283" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="284"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="287" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="288"/>
+      <c r="J1" s="288"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
+      <c r="M1" s="288"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="288"/>
+      <c r="P1" s="288"/>
+      <c r="Q1" s="288"/>
+      <c r="R1" s="288"/>
+      <c r="S1" s="288"/>
+      <c r="T1" s="288"/>
+      <c r="U1" s="288"/>
+      <c r="V1" s="289"/>
+      <c r="W1" s="293" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="294"/>
+      <c r="Y1" s="294"/>
+      <c r="Z1" s="294"/>
+      <c r="AA1" s="294"/>
+      <c r="AB1" s="294"/>
+      <c r="AC1" s="294"/>
+      <c r="AD1" s="294"/>
+      <c r="AE1" s="294"/>
+      <c r="AF1" s="294"/>
+      <c r="AG1" s="294"/>
+      <c r="AH1" s="294"/>
+      <c r="AI1" s="294"/>
+      <c r="AJ1" s="295"/>
+    </row>
+    <row r="2" spans="1:36" ht="15" customHeight="1">
+      <c r="A2" s="285"/>
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
+      <c r="K2" s="291"/>
+      <c r="L2" s="291"/>
+      <c r="M2" s="291"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="291"/>
+      <c r="P2" s="291"/>
+      <c r="Q2" s="291"/>
+      <c r="R2" s="291"/>
+      <c r="S2" s="291"/>
+      <c r="T2" s="291"/>
+      <c r="U2" s="291"/>
+      <c r="V2" s="292"/>
+      <c r="W2" s="296" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="297"/>
+      <c r="Y2" s="297"/>
+      <c r="Z2" s="297"/>
+      <c r="AA2" s="297"/>
+      <c r="AB2" s="297"/>
+      <c r="AC2" s="297"/>
+      <c r="AD2" s="297"/>
+      <c r="AE2" s="297"/>
+      <c r="AF2" s="297"/>
+      <c r="AG2" s="297"/>
+      <c r="AH2" s="297"/>
+      <c r="AI2" s="297"/>
+      <c r="AJ2" s="298"/>
+    </row>
+    <row r="3" spans="1:36" ht="15" customHeight="1">
+      <c r="A3" s="299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="303"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="305"/>
+      <c r="I3" s="300" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="300"/>
+      <c r="K3" s="300"/>
+      <c r="L3" s="309"/>
+      <c r="M3" s="311" t="s">
+        <v>249</v>
+      </c>
+      <c r="N3" s="304"/>
+      <c r="O3" s="304"/>
+      <c r="P3" s="304"/>
+      <c r="Q3" s="304"/>
+      <c r="R3" s="304"/>
+      <c r="S3" s="304"/>
+      <c r="T3" s="304"/>
+      <c r="U3" s="304"/>
+      <c r="V3" s="312"/>
+      <c r="W3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="315"/>
+      <c r="AA3" s="315"/>
+      <c r="AB3" s="315"/>
+      <c r="AC3" s="316"/>
+      <c r="AD3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="320"/>
+      <c r="AH3" s="318"/>
+      <c r="AI3" s="318"/>
+      <c r="AJ3" s="319"/>
+    </row>
+    <row r="4" spans="1:36" ht="15" customHeight="1">
+      <c r="A4" s="301"/>
+      <c r="B4" s="302"/>
+      <c r="C4" s="302"/>
+      <c r="D4" s="302"/>
+      <c r="E4" s="306"/>
+      <c r="F4" s="307"/>
+      <c r="G4" s="307"/>
+      <c r="H4" s="308"/>
+      <c r="I4" s="302"/>
+      <c r="J4" s="302"/>
+      <c r="K4" s="302"/>
+      <c r="L4" s="310"/>
+      <c r="M4" s="313"/>
+      <c r="N4" s="307"/>
+      <c r="O4" s="307"/>
+      <c r="P4" s="307"/>
+      <c r="Q4" s="307"/>
+      <c r="R4" s="307"/>
+      <c r="S4" s="307"/>
+      <c r="T4" s="307"/>
+      <c r="U4" s="307"/>
+      <c r="V4" s="314"/>
+      <c r="W4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="251"/>
+      <c r="AA4" s="251"/>
+      <c r="AB4" s="251"/>
+      <c r="AC4" s="252"/>
+      <c r="AD4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="253"/>
+      <c r="AH4" s="254"/>
+      <c r="AI4" s="254"/>
+      <c r="AJ4" s="255"/>
+    </row>
+    <row r="5" spans="1:36" ht="15.75">
+      <c r="A5" s="218" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+    </row>
+    <row r="6" spans="1:36" ht="15.75">
+      <c r="A6" s="220" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="217"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="217"/>
+      <c r="G6" s="217"/>
+      <c r="H6" s="217"/>
+      <c r="I6" s="217"/>
+      <c r="J6" s="217"/>
+      <c r="K6" s="217"/>
+      <c r="L6" s="217"/>
+      <c r="M6" s="217"/>
+      <c r="N6" s="217"/>
+      <c r="O6" s="217"/>
+      <c r="P6" s="217"/>
+      <c r="Q6" s="217"/>
+      <c r="R6" s="217"/>
+      <c r="S6" s="217"/>
+      <c r="T6" s="217"/>
+      <c r="U6" s="217"/>
+      <c r="V6" s="217"/>
+      <c r="W6" s="217"/>
+      <c r="X6" s="217"/>
+      <c r="Y6" s="217"/>
+      <c r="Z6" s="217"/>
+      <c r="AA6" s="217"/>
+      <c r="AB6" s="217"/>
+      <c r="AC6" s="217"/>
+      <c r="AD6" s="217"/>
+      <c r="AE6" s="217"/>
+      <c r="AF6" s="217"/>
+      <c r="AG6" s="217"/>
+      <c r="AH6" s="217"/>
+      <c r="AI6" s="217"/>
+      <c r="AJ6" s="217"/>
+    </row>
+    <row r="7" spans="1:36" ht="15.75">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+    </row>
+    <row r="8" spans="1:36" ht="15.75">
+      <c r="A8" s="41"/>
+      <c r="B8" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="41"/>
+    </row>
+    <row r="9" spans="1:36" ht="15.75">
+      <c r="A9" s="41"/>
+      <c r="B9" s="222" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+    </row>
+    <row r="10" spans="1:36" ht="15.75">
+      <c r="A10" s="41"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+    </row>
+    <row r="11" spans="1:36" ht="15.75">
+      <c r="A11" s="41"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="221" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+    </row>
+    <row r="12" spans="1:36" ht="15.75">
+      <c r="A12" s="41"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="221" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="54"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="41"/>
+    </row>
+    <row r="13" spans="1:36" ht="15.75">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="221" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+    </row>
+    <row r="14" spans="1:36" ht="15.75">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="41"/>
+    </row>
+    <row r="15" spans="1:36" ht="15.75">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="221" t="s">
+        <v>266</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="41"/>
+    </row>
+    <row r="16" spans="1:36" ht="15.75">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="221" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+    </row>
+    <row r="17" spans="1:47" ht="15.75">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="41"/>
+    </row>
+    <row r="18" spans="1:47" ht="15.75">
+      <c r="A18" s="72"/>
+      <c r="B18" s="222" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="42"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+    </row>
+    <row r="19" spans="1:47" ht="15.75">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="41"/>
+    </row>
+    <row r="20" spans="1:47" ht="15.75">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="221" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="41"/>
+    </row>
+    <row r="21" spans="1:47" ht="15.75">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="221" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="E21" s="57"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="219"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+    </row>
+    <row r="22" spans="1:47" ht="15.75">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="41"/>
+      <c r="AI22" s="41"/>
+      <c r="AJ22" s="219"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+    </row>
+    <row r="23" spans="1:47" ht="15" customHeight="1">
+      <c r="A23" s="220" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" s="217"/>
+      <c r="C23" s="217"/>
+      <c r="D23" s="217"/>
+      <c r="E23" s="217"/>
+      <c r="F23" s="217"/>
+      <c r="G23" s="217"/>
+      <c r="H23" s="217"/>
+      <c r="I23" s="217"/>
+      <c r="J23" s="217"/>
+      <c r="K23" s="217"/>
+      <c r="L23" s="217"/>
+      <c r="M23" s="217"/>
+      <c r="N23" s="217"/>
+      <c r="O23" s="217"/>
+      <c r="P23" s="217"/>
+      <c r="Q23" s="217"/>
+      <c r="R23" s="217"/>
+      <c r="S23" s="217"/>
+      <c r="T23" s="217"/>
+      <c r="U23" s="217"/>
+      <c r="V23" s="217"/>
+      <c r="W23" s="217"/>
+      <c r="X23" s="217"/>
+      <c r="Y23" s="217"/>
+      <c r="Z23" s="217"/>
+      <c r="AA23" s="217"/>
+      <c r="AB23" s="217"/>
+      <c r="AC23" s="217"/>
+      <c r="AD23" s="217"/>
+      <c r="AE23" s="217"/>
+      <c r="AF23" s="217"/>
+      <c r="AG23" s="217"/>
+      <c r="AH23" s="217"/>
+      <c r="AI23" s="217"/>
+      <c r="AJ23" s="217"/>
+    </row>
+    <row r="24" spans="1:47" ht="15.75" customHeight="1">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="61"/>
+      <c r="AC24" s="61"/>
+      <c r="AD24" s="61"/>
+      <c r="AE24" s="61"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="61"/>
+      <c r="AH24" s="65"/>
+      <c r="AI24" s="41"/>
+      <c r="AJ24" s="219"/>
+    </row>
+    <row r="25" spans="1:47" ht="15.75" customHeight="1">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="61"/>
+      <c r="AH25" s="65"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="219"/>
+    </row>
+    <row r="26" spans="1:47" ht="15.75" customHeight="1">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="61"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="61"/>
+      <c r="AD26" s="61"/>
+      <c r="AE26" s="61"/>
+      <c r="AF26" s="61"/>
+      <c r="AG26" s="61"/>
+      <c r="AH26" s="65"/>
+      <c r="AI26" s="41"/>
+      <c r="AJ26" s="219"/>
+    </row>
+    <row r="27" spans="1:47" ht="15.75" customHeight="1">
+      <c r="A27" s="42"/>
+      <c r="B27" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="61"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="61"/>
+      <c r="AH27" s="65"/>
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="219"/>
+    </row>
+    <row r="28" spans="1:47" ht="15.75" customHeight="1">
+      <c r="A28" s="42"/>
+      <c r="B28" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="60"/>
+      <c r="Y28" s="60"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="61"/>
+      <c r="AH28" s="65"/>
+      <c r="AI28" s="41"/>
+      <c r="AJ28" s="219"/>
+    </row>
+    <row r="29" spans="1:47" ht="15.75" customHeight="1">
+      <c r="A29" s="42"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="41"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="60"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="60"/>
-      <c r="AD29" s="60"/>
-      <c r="AE29" s="60"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="60"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="61"/>
+      <c r="AC29" s="61"/>
+      <c r="AD29" s="61"/>
+      <c r="AE29" s="61"/>
+      <c r="AF29" s="61"/>
+      <c r="AG29" s="61"/>
+      <c r="AH29" s="66"/>
       <c r="AI29" s="41"/>
-      <c r="AJ29" s="48"/>
-    </row>
-    <row r="30" spans="1:36" ht="15.75">
-      <c r="A30" s="49"/>
-      <c r="B30" s="41"/>
+      <c r="AJ29" s="219"/>
+    </row>
+    <row r="30" spans="1:47" ht="15.75" customHeight="1">
+      <c r="A30" s="42"/>
+      <c r="B30" s="41" t="s">
+        <v>274</v>
+      </c>
       <c r="C30" s="41"/>
       <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
+      <c r="E30" s="1"/>
       <c r="F30" s="41"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="60"/>
-      <c r="X30" s="60"/>
-      <c r="Y30" s="60"/>
-      <c r="Z30" s="60"/>
-      <c r="AA30" s="60"/>
-      <c r="AB30" s="60"/>
-      <c r="AC30" s="60"/>
-      <c r="AD30" s="60"/>
-      <c r="AE30" s="60"/>
-      <c r="AF30" s="60"/>
-      <c r="AG30" s="60"/>
-      <c r="AH30" s="60"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="61"/>
+      <c r="W30" s="61"/>
+      <c r="X30" s="61"/>
+      <c r="Y30" s="61"/>
+      <c r="Z30" s="61"/>
+      <c r="AA30" s="61"/>
+      <c r="AB30" s="61"/>
+      <c r="AC30" s="61"/>
+      <c r="AD30" s="61"/>
+      <c r="AE30" s="61"/>
+      <c r="AF30" s="61"/>
+      <c r="AG30" s="61"/>
+      <c r="AH30" s="66"/>
       <c r="AI30" s="41"/>
-      <c r="AJ30" s="48"/>
-    </row>
-    <row r="31" spans="1:36" ht="15.75">
-      <c r="A31" s="49"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
+      <c r="AJ30" s="219"/>
+    </row>
+    <row r="31" spans="1:47" ht="15.75" customHeight="1">
+      <c r="A31" s="42"/>
+      <c r="B31" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="D31" s="42"/>
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
       <c r="G31" s="60"/>
@@ -14565,12 +17193,16 @@
       <c r="AG31" s="60"/>
       <c r="AH31" s="60"/>
       <c r="AI31" s="41"/>
-      <c r="AJ31" s="48"/>
-    </row>
-    <row r="32" spans="1:36" ht="15.75">
-      <c r="A32" s="49"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
+      <c r="AJ31" s="219"/>
+    </row>
+    <row r="32" spans="1:47" ht="15.75">
+      <c r="A32" s="42"/>
+      <c r="B32" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>276</v>
+      </c>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
@@ -14603,12 +17235,14 @@
       <c r="AG32" s="60"/>
       <c r="AH32" s="60"/>
       <c r="AI32" s="41"/>
-      <c r="AJ32" s="48"/>
+      <c r="AJ32" s="41"/>
     </row>
     <row r="33" spans="1:36" ht="15.75">
-      <c r="A33" s="49"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="41" t="s">
+        <v>277</v>
+      </c>
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
@@ -14641,83 +17275,1173 @@
       <c r="AG33" s="60"/>
       <c r="AH33" s="60"/>
       <c r="AI33" s="41"/>
-      <c r="AJ33" s="48"/>
+      <c r="AJ33" s="41"/>
     </row>
     <row r="34" spans="1:36" ht="15.75">
-      <c r="A34" s="49"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
+      <c r="C34" s="41" t="s">
+        <v>278</v>
+      </c>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="41"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="41"/>
-      <c r="AE34" s="41"/>
-      <c r="AF34" s="41"/>
-      <c r="AG34" s="41"/>
-      <c r="AH34" s="41"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
+      <c r="AF34" s="60"/>
+      <c r="AG34" s="60"/>
+      <c r="AH34" s="60"/>
       <c r="AI34" s="41"/>
-      <c r="AJ34" s="48"/>
+      <c r="AJ34" s="41"/>
     </row>
     <row r="35" spans="1:36" ht="15.75">
-      <c r="A35" s="67"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="68"/>
-      <c r="Z35" s="68"/>
-      <c r="AA35" s="68"/>
-      <c r="AB35" s="68"/>
-      <c r="AC35" s="68"/>
-      <c r="AD35" s="68"/>
-      <c r="AE35" s="68"/>
-      <c r="AF35" s="68"/>
-      <c r="AG35" s="68"/>
-      <c r="AH35" s="68"/>
-      <c r="AI35" s="68"/>
-      <c r="AJ35" s="69"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="60"/>
+      <c r="AB35" s="60"/>
+      <c r="AC35" s="60"/>
+      <c r="AD35" s="60"/>
+      <c r="AE35" s="60"/>
+      <c r="AF35" s="60"/>
+      <c r="AG35" s="60"/>
+      <c r="AH35" s="60"/>
+      <c r="AI35" s="41"/>
+      <c r="AJ35" s="41"/>
+    </row>
+    <row r="36" spans="1:36" ht="15.75">
+      <c r="A36" s="42"/>
+      <c r="B36" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="60"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="60"/>
+      <c r="AE36" s="60"/>
+      <c r="AF36" s="60"/>
+      <c r="AG36" s="60"/>
+      <c r="AH36" s="60"/>
+      <c r="AI36" s="41"/>
+      <c r="AJ36" s="41"/>
+    </row>
+    <row r="37" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A37" s="42"/>
+      <c r="B37" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="60"/>
+      <c r="AA37" s="60"/>
+      <c r="AB37" s="60"/>
+      <c r="AC37" s="60"/>
+      <c r="AD37" s="60"/>
+      <c r="AE37" s="60"/>
+      <c r="AF37" s="60"/>
+      <c r="AG37" s="60"/>
+      <c r="AH37" s="60"/>
+      <c r="AI37" s="41"/>
+      <c r="AJ37" s="41"/>
+    </row>
+    <row r="38" spans="1:36" ht="15.75">
+      <c r="A38" s="42"/>
+      <c r="B38" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="60"/>
+      <c r="V38" s="60"/>
+      <c r="W38" s="60"/>
+      <c r="X38" s="60"/>
+      <c r="Y38" s="60"/>
+      <c r="Z38" s="60"/>
+      <c r="AA38" s="60"/>
+      <c r="AB38" s="60"/>
+      <c r="AC38" s="60"/>
+      <c r="AD38" s="60"/>
+      <c r="AE38" s="60"/>
+      <c r="AF38" s="60"/>
+      <c r="AG38" s="60"/>
+      <c r="AH38" s="60"/>
+      <c r="AI38" s="41"/>
+      <c r="AJ38" s="41"/>
+    </row>
+    <row r="39" spans="1:36" ht="15.75">
+      <c r="A39" s="42"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="60"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="60"/>
+      <c r="T39" s="60"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="60"/>
+      <c r="W39" s="60"/>
+      <c r="X39" s="60"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="60"/>
+      <c r="AB39" s="60"/>
+      <c r="AC39" s="60"/>
+      <c r="AD39" s="60"/>
+      <c r="AE39" s="60"/>
+      <c r="AF39" s="60"/>
+      <c r="AG39" s="60"/>
+      <c r="AH39" s="60"/>
+      <c r="AI39" s="41"/>
+      <c r="AJ39" s="41"/>
+    </row>
+    <row r="40" spans="1:36" ht="15.75">
+      <c r="A40" s="220" t="s">
+        <v>282</v>
+      </c>
+      <c r="B40" s="217"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="217"/>
+      <c r="E40" s="217"/>
+      <c r="F40" s="217"/>
+      <c r="G40" s="217"/>
+      <c r="H40" s="217"/>
+      <c r="I40" s="217"/>
+      <c r="J40" s="217"/>
+      <c r="K40" s="217"/>
+      <c r="L40" s="217"/>
+      <c r="M40" s="217"/>
+      <c r="N40" s="217"/>
+      <c r="O40" s="217"/>
+      <c r="P40" s="217"/>
+      <c r="Q40" s="217"/>
+      <c r="R40" s="217"/>
+      <c r="S40" s="217"/>
+      <c r="T40" s="217"/>
+      <c r="U40" s="217"/>
+      <c r="V40" s="217"/>
+      <c r="W40" s="217"/>
+      <c r="X40" s="217"/>
+      <c r="Y40" s="217"/>
+      <c r="Z40" s="217"/>
+      <c r="AA40" s="217"/>
+      <c r="AB40" s="217"/>
+      <c r="AC40" s="217"/>
+      <c r="AD40" s="217"/>
+      <c r="AE40" s="217"/>
+      <c r="AF40" s="217"/>
+      <c r="AG40" s="217"/>
+      <c r="AH40" s="217"/>
+      <c r="AI40" s="217"/>
+      <c r="AJ40" s="217"/>
+    </row>
+    <row r="41" spans="1:36" ht="15.75">
+      <c r="A41" s="42"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="60"/>
+      <c r="V41" s="60"/>
+      <c r="W41" s="60"/>
+      <c r="X41" s="60"/>
+      <c r="Y41" s="60"/>
+      <c r="Z41" s="60"/>
+      <c r="AA41" s="60"/>
+      <c r="AB41" s="60"/>
+      <c r="AC41" s="60"/>
+      <c r="AD41" s="60"/>
+      <c r="AE41" s="60"/>
+      <c r="AF41" s="60"/>
+      <c r="AG41" s="60"/>
+      <c r="AH41" s="60"/>
+      <c r="AI41" s="41"/>
+      <c r="AJ41" s="41"/>
+    </row>
+    <row r="42" spans="1:36" ht="15.75">
+      <c r="A42" s="42"/>
+      <c r="B42" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="60"/>
+      <c r="V42" s="60"/>
+      <c r="W42" s="60"/>
+      <c r="X42" s="60"/>
+      <c r="Y42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="60"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="60"/>
+      <c r="AD42" s="60"/>
+      <c r="AE42" s="60"/>
+      <c r="AF42" s="60"/>
+      <c r="AG42" s="60"/>
+      <c r="AH42" s="60"/>
+      <c r="AI42" s="41"/>
+      <c r="AJ42" s="41"/>
+    </row>
+    <row r="43" spans="1:36" ht="15.75">
+      <c r="A43" s="42"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="60"/>
+      <c r="T43" s="60"/>
+      <c r="U43" s="60"/>
+      <c r="V43" s="60"/>
+      <c r="W43" s="60"/>
+      <c r="X43" s="60"/>
+      <c r="Y43" s="60"/>
+      <c r="Z43" s="60"/>
+      <c r="AA43" s="60"/>
+      <c r="AB43" s="60"/>
+      <c r="AC43" s="60"/>
+      <c r="AD43" s="60"/>
+      <c r="AE43" s="60"/>
+      <c r="AF43" s="60"/>
+      <c r="AG43" s="60"/>
+      <c r="AH43" s="60"/>
+      <c r="AI43" s="41"/>
+      <c r="AJ43" s="41"/>
+    </row>
+    <row r="44" spans="1:36" ht="15.75">
+      <c r="A44" s="42"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60"/>
+      <c r="S44" s="60"/>
+      <c r="T44" s="60"/>
+      <c r="U44" s="60"/>
+      <c r="V44" s="60"/>
+      <c r="W44" s="60"/>
+      <c r="X44" s="60"/>
+      <c r="Y44" s="60"/>
+      <c r="Z44" s="60"/>
+      <c r="AA44" s="60"/>
+      <c r="AB44" s="60"/>
+      <c r="AC44" s="60"/>
+      <c r="AD44" s="60"/>
+      <c r="AE44" s="60"/>
+      <c r="AF44" s="60"/>
+      <c r="AG44" s="60"/>
+      <c r="AH44" s="60"/>
+      <c r="AI44" s="41"/>
+      <c r="AJ44" s="41"/>
+    </row>
+    <row r="45" spans="1:36" ht="15.75">
+      <c r="A45" s="42"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60"/>
+      <c r="R45" s="60"/>
+      <c r="S45" s="60"/>
+      <c r="T45" s="60"/>
+      <c r="U45" s="60"/>
+      <c r="V45" s="60"/>
+      <c r="W45" s="60"/>
+      <c r="X45" s="60"/>
+      <c r="Y45" s="60"/>
+      <c r="Z45" s="60"/>
+      <c r="AA45" s="60"/>
+      <c r="AB45" s="60"/>
+      <c r="AC45" s="60"/>
+      <c r="AD45" s="60"/>
+      <c r="AE45" s="60"/>
+      <c r="AF45" s="60"/>
+      <c r="AG45" s="60"/>
+      <c r="AH45" s="60"/>
+      <c r="AI45" s="41"/>
+      <c r="AJ45" s="41"/>
+    </row>
+    <row r="46" spans="1:36" ht="18.75">
+      <c r="A46" s="42"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="60"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="60"/>
+      <c r="V46" s="60"/>
+      <c r="W46" s="60"/>
+      <c r="X46" s="60"/>
+      <c r="Y46" s="60"/>
+      <c r="Z46" s="60"/>
+      <c r="AA46" s="60"/>
+      <c r="AB46" s="60"/>
+      <c r="AC46" s="60"/>
+      <c r="AD46" s="60"/>
+      <c r="AE46" s="60"/>
+      <c r="AF46" s="60"/>
+      <c r="AG46" s="60"/>
+      <c r="AH46" s="60"/>
+      <c r="AI46" s="41"/>
+      <c r="AJ46" s="41"/>
+    </row>
+    <row r="47" spans="1:36" ht="15.75">
+      <c r="A47" s="42"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="60"/>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="60"/>
+      <c r="T47" s="60"/>
+      <c r="U47" s="60"/>
+      <c r="V47" s="60"/>
+      <c r="W47" s="60"/>
+      <c r="X47" s="60"/>
+      <c r="Y47" s="60"/>
+      <c r="Z47" s="60"/>
+      <c r="AA47" s="60"/>
+      <c r="AB47" s="60"/>
+      <c r="AC47" s="60"/>
+      <c r="AD47" s="60"/>
+      <c r="AE47" s="60"/>
+      <c r="AF47" s="60"/>
+      <c r="AG47" s="60"/>
+      <c r="AH47" s="60"/>
+      <c r="AI47" s="41"/>
+      <c r="AJ47" s="41"/>
+    </row>
+    <row r="48" spans="1:36" ht="15.75">
+      <c r="A48" s="42"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="60"/>
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="60"/>
+      <c r="S48" s="60"/>
+      <c r="T48" s="60"/>
+      <c r="U48" s="60"/>
+      <c r="V48" s="60"/>
+      <c r="W48" s="60"/>
+      <c r="X48" s="60"/>
+      <c r="Y48" s="60"/>
+      <c r="Z48" s="60"/>
+      <c r="AA48" s="60"/>
+      <c r="AB48" s="60"/>
+      <c r="AC48" s="60"/>
+      <c r="AD48" s="60"/>
+      <c r="AE48" s="60"/>
+      <c r="AF48" s="60"/>
+      <c r="AG48" s="60"/>
+      <c r="AH48" s="60"/>
+      <c r="AI48" s="41"/>
+      <c r="AJ48" s="41"/>
+    </row>
+    <row r="49" spans="1:36" ht="15.75">
+      <c r="A49" s="42"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="60"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="60"/>
+      <c r="Q49" s="60"/>
+      <c r="R49" s="60"/>
+      <c r="S49" s="60"/>
+      <c r="T49" s="60"/>
+      <c r="U49" s="60"/>
+      <c r="V49" s="60"/>
+      <c r="W49" s="60"/>
+      <c r="X49" s="60"/>
+      <c r="Y49" s="60"/>
+      <c r="Z49" s="60"/>
+      <c r="AA49" s="60"/>
+      <c r="AB49" s="60"/>
+      <c r="AC49" s="60"/>
+      <c r="AD49" s="60"/>
+      <c r="AE49" s="60"/>
+      <c r="AF49" s="60"/>
+      <c r="AG49" s="60"/>
+      <c r="AH49" s="60"/>
+      <c r="AI49" s="41"/>
+      <c r="AJ49" s="41"/>
+    </row>
+    <row r="50" spans="1:36" ht="18.75">
+      <c r="A50" s="42"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="60"/>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="60"/>
+      <c r="R50" s="60"/>
+      <c r="S50" s="60"/>
+      <c r="T50" s="60"/>
+      <c r="U50" s="60"/>
+      <c r="V50" s="60"/>
+      <c r="W50" s="60"/>
+      <c r="X50" s="60"/>
+      <c r="Y50" s="60"/>
+      <c r="Z50" s="60"/>
+      <c r="AA50" s="60"/>
+      <c r="AB50" s="60"/>
+      <c r="AC50" s="60"/>
+      <c r="AD50" s="60"/>
+      <c r="AE50" s="60"/>
+      <c r="AF50" s="60"/>
+      <c r="AG50" s="60"/>
+      <c r="AH50" s="60"/>
+      <c r="AI50" s="41"/>
+      <c r="AJ50" s="41"/>
+    </row>
+    <row r="51" spans="1:36" ht="15.75">
+      <c r="A51" s="42"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="60"/>
+      <c r="U51" s="60"/>
+      <c r="V51" s="60"/>
+      <c r="W51" s="60"/>
+      <c r="X51" s="60"/>
+      <c r="Y51" s="60"/>
+      <c r="Z51" s="60"/>
+      <c r="AA51" s="60"/>
+      <c r="AB51" s="60"/>
+      <c r="AC51" s="60"/>
+      <c r="AD51" s="60"/>
+      <c r="AE51" s="60"/>
+      <c r="AF51" s="60"/>
+      <c r="AG51" s="60"/>
+      <c r="AH51" s="60"/>
+      <c r="AI51" s="41"/>
+      <c r="AJ51" s="41"/>
+    </row>
+    <row r="52" spans="1:36" ht="15.75">
+      <c r="A52" s="42"/>
+      <c r="B52" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="41"/>
+      <c r="V52" s="41"/>
+      <c r="W52" s="41"/>
+      <c r="X52" s="41"/>
+      <c r="Y52" s="41"/>
+      <c r="Z52" s="41"/>
+      <c r="AA52" s="41"/>
+      <c r="AB52" s="41"/>
+      <c r="AC52" s="41"/>
+      <c r="AD52" s="41"/>
+      <c r="AE52" s="41"/>
+      <c r="AF52" s="41"/>
+      <c r="AG52" s="41"/>
+      <c r="AH52" s="41"/>
+      <c r="AI52" s="41"/>
+      <c r="AJ52" s="41"/>
+    </row>
+    <row r="53" spans="1:36" ht="15.75">
+      <c r="A53" s="42"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="41"/>
+      <c r="W53" s="41"/>
+      <c r="X53" s="41"/>
+      <c r="Y53" s="41"/>
+      <c r="Z53" s="41"/>
+      <c r="AA53" s="41"/>
+      <c r="AB53" s="41"/>
+      <c r="AC53" s="41"/>
+      <c r="AD53" s="41"/>
+      <c r="AE53" s="41"/>
+      <c r="AF53" s="41"/>
+      <c r="AG53" s="41"/>
+      <c r="AH53" s="41"/>
+      <c r="AI53" s="41"/>
+      <c r="AJ53" s="41"/>
+    </row>
+    <row r="54" spans="1:36" ht="15.75">
+      <c r="A54" s="219"/>
+      <c r="B54" s="219"/>
+      <c r="C54" s="219"/>
+      <c r="D54" s="219" t="s">
+        <v>285</v>
+      </c>
+      <c r="E54" s="219"/>
+      <c r="F54" s="219"/>
+      <c r="G54" s="219"/>
+      <c r="H54" s="219"/>
+      <c r="I54" s="219"/>
+      <c r="J54" s="219"/>
+      <c r="K54" s="219"/>
+      <c r="L54" s="219"/>
+      <c r="M54" s="219"/>
+      <c r="N54" s="219"/>
+      <c r="O54" s="219"/>
+      <c r="P54" s="219"/>
+      <c r="Q54" s="219"/>
+      <c r="R54" s="219"/>
+      <c r="S54" s="219"/>
+      <c r="T54" s="219"/>
+      <c r="U54" s="219"/>
+      <c r="V54" s="219"/>
+      <c r="W54" s="219"/>
+      <c r="X54" s="219"/>
+      <c r="Y54" s="219"/>
+      <c r="Z54" s="219"/>
+      <c r="AA54" s="219"/>
+      <c r="AB54" s="219"/>
+      <c r="AC54" s="219"/>
+      <c r="AD54" s="219"/>
+      <c r="AE54" s="219"/>
+      <c r="AF54" s="219"/>
+      <c r="AG54" s="219"/>
+      <c r="AH54" s="219"/>
+      <c r="AI54" s="219"/>
+      <c r="AJ54" s="219"/>
+    </row>
+    <row r="55" spans="1:36" ht="18.75">
+      <c r="E55" s="222" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" t="s">
+        <v>299</v>
+      </c>
+      <c r="H55" s="41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" ht="18.75">
+      <c r="E56" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" t="s">
+        <v>299</v>
+      </c>
+      <c r="H56" s="41" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36">
+      <c r="E57" s="223" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36">
+      <c r="E58" s="223" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" ht="18.75">
+      <c r="F59" s="41" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36">
+      <c r="Y60" s="321"/>
+      <c r="Z60" s="203"/>
+      <c r="AA60" s="203"/>
+      <c r="AB60" s="203"/>
+      <c r="AC60" s="203"/>
+      <c r="AD60" s="203"/>
+      <c r="AE60" s="203"/>
+      <c r="AF60" s="203"/>
+      <c r="AG60" s="203"/>
+      <c r="AH60" s="322"/>
+    </row>
+    <row r="61" spans="1:36">
+      <c r="E61" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y61" s="78"/>
+      <c r="Z61" s="323" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA61" s="323"/>
+      <c r="AB61" s="323" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="112"/>
+    </row>
+    <row r="62" spans="1:36">
+      <c r="F62" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y62" s="78"/>
+      <c r="Z62" s="323"/>
+      <c r="AA62" s="323" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB62" s="323" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC62" s="323" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1"/>
+      <c r="AH62" s="112"/>
+    </row>
+    <row r="63" spans="1:36">
+      <c r="F63" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y63" s="78"/>
+      <c r="Z63" s="323" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA63" s="323"/>
+      <c r="AB63" s="323" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC63" s="323" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="205" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF63" s="205" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG63" s="205"/>
+      <c r="AH63" s="112"/>
+    </row>
+    <row r="64" spans="1:36">
+      <c r="H64" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y64" s="78"/>
+      <c r="Z64" s="323"/>
+      <c r="AA64" s="323" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB64" s="323" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="205" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF64" s="205"/>
+      <c r="AG64" s="205" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH64" s="112"/>
+    </row>
+    <row r="65" spans="2:34">
+      <c r="H65" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y65" s="78"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="205" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF65" s="205" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG65" s="205" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH65" s="112"/>
+    </row>
+    <row r="66" spans="2:34">
+      <c r="H66" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y66" s="78"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="324" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="205" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF66" s="205" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG66" s="205"/>
+      <c r="AH66" s="112"/>
+    </row>
+    <row r="67" spans="2:34">
+      <c r="H67" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y67" s="78"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="324" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB67" s="324" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC67" s="324" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD67" s="324" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="205" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG67" s="205" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH67" s="112"/>
+    </row>
+    <row r="68" spans="2:34">
+      <c r="H68" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y68" s="78"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="324" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB68" s="324" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC68" s="324" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="205" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH68" s="112"/>
+    </row>
+    <row r="69" spans="2:34">
+      <c r="H69" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y69" s="113"/>
+      <c r="Z69" s="114"/>
+      <c r="AA69" s="114"/>
+      <c r="AB69" s="325" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC69" s="114"/>
+      <c r="AD69" s="114"/>
+      <c r="AE69" s="114"/>
+      <c r="AF69" s="114"/>
+      <c r="AG69" s="114"/>
+      <c r="AH69" s="115"/>
+    </row>
+    <row r="70" spans="2:34">
+      <c r="Y70" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:34">
+      <c r="F71" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="72" spans="2:34">
+      <c r="H72" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="73" spans="2:34">
+      <c r="H73" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="2:34">
+      <c r="H74" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="75" spans="2:34">
+      <c r="H75" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="76" spans="2:34">
+      <c r="F76" s="199" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="77" spans="2:34">
+      <c r="F77" s="199" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="79" spans="2:34">
+      <c r="B79" s="199" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="80" spans="2:34">
+      <c r="B80" s="326" t="s">
+        <v>266</v>
+      </c>
+      <c r="C80" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="326" t="s">
+        <v>266</v>
+      </c>
+      <c r="C81" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="C82" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" s="326" t="s">
+        <v>266</v>
+      </c>
+      <c r="C83" t="s">
+        <v>226</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/doc/design/GW_Design.xlsx
+++ b/doc/design/GW_Design.xlsx
@@ -9,33 +9,45 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="15480" windowHeight="8130" tabRatio="705" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15480" windowHeight="8130" tabRatio="705"/>
   </bookViews>
   <sheets>
     <sheet name="Record of change" sheetId="1" r:id="rId1"/>
-    <sheet name="Screen design" sheetId="21" r:id="rId2"/>
-    <sheet name="Architecture design" sheetId="22" r:id="rId3"/>
-    <sheet name="Domain design" sheetId="23" state="hidden" r:id="rId4"/>
-    <sheet name="Processing" sheetId="24" r:id="rId5"/>
+    <sheet name="Concepts" sheetId="27" r:id="rId2"/>
+    <sheet name="Layout" sheetId="25" r:id="rId3"/>
+    <sheet name="Screen design" sheetId="21" r:id="rId4"/>
+    <sheet name="Architecture design" sheetId="22" r:id="rId5"/>
+    <sheet name="Domain design" sheetId="23" r:id="rId6"/>
+    <sheet name="Processing" sheetId="24" r:id="rId7"/>
+    <sheet name="Dao-generate" sheetId="26" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_2.1_Danh_sách_đơn_hàng" localSheetId="2">Layout!#REF!</definedName>
     <definedName name="_2.1_Danh_sách_đơn_hàng">'Screen design'!$A$39</definedName>
+    <definedName name="_2.2.1_Quản_lý_địa_điểm" localSheetId="2">Layout!#REF!</definedName>
     <definedName name="_2.2.1_Quản_lý_địa_điểm">'Screen design'!$A$113</definedName>
+    <definedName name="_2.2_Nhập_thông_tin_đơn_hàng" localSheetId="2">Layout!#REF!</definedName>
     <definedName name="_2.2_Nhập_thông_tin_đơn_hàng">'Screen design'!$A$76</definedName>
+    <definedName name="_2.3_Lập_kế_hoạch_giao_hàng" localSheetId="2">Layout!#REF!</definedName>
     <definedName name="_2.3_Lập_kế_hoạch_giao_hàng">'Screen design'!$A$151</definedName>
+    <definedName name="DanhSachDonHang" localSheetId="2">Layout!#REF!</definedName>
     <definedName name="DanhSachDonHang">'Screen design'!$A$39</definedName>
+    <definedName name="NhapThongTinDonHang" localSheetId="2">Layout!#REF!</definedName>
     <definedName name="NhapThongTinDonHang">'Screen design'!$A$76</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Architecture design'!$A$1:$AJ$66</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Domain design'!$A$1:$AJ$66</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Processing!$A$1:$AJ$83</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Screen design'!$A$1:$AJ$283</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Architecture design'!$A$1:$AJ$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Concepts!$A$1:$AJ$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Dao-generate'!$A$1:$AJ$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Domain design'!$A$1:$AJ$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Layout!$A$1:$AJ$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Processing!$A$1:$AJ$109</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Screen design'!$A$1:$AJ$283</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="347">
   <si>
     <t>Date</t>
   </si>
@@ -1750,6 +1762,78 @@
   <si>
     <t>khác nhau tuỳ vào năng lực của máy tính và tính busy (ưu tiên chạy vào ban đêm)</t>
   </si>
+  <si>
+    <t>Sử dụng thuật toán Density-based spatial clustering of applications with noise (DBSCAN) (https://en.wikipedia.org/wiki/DBSCAN)</t>
+  </si>
+  <si>
+    <t>https://commons.apache.org/proper/commons-math/javadocs/api-3.1/org/apache/commons/math3/stat/clustering/DBSCANClusterer.html</t>
+  </si>
+  <si>
+    <t>Xem API tại:</t>
+  </si>
+  <si>
+    <t>Sử dụng maven dependency:</t>
+  </si>
+  <si>
+    <t>&lt;!-- https://mvnrepository.com/artifact/org.apache.commons/commons-math3 --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;groupId&gt;org.apache.commons&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;artifactId&gt;commons-math3&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;version&gt;3.6&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>Root API:</t>
+  </si>
+  <si>
+    <t>https://commons.apache.org/proper/commons-math/javadocs/api-3.6/</t>
+  </si>
+  <si>
+    <t>1. Sinh code DAO từ DB</t>
+  </si>
+  <si>
+    <t>Quy ước đặt id cho thẻ div cho lưới nhập liệu dạng Excel</t>
+  </si>
+  <si>
+    <t>1. Định nghĩa các khái niệm</t>
+  </si>
+  <si>
+    <t>2. Quy ước chung</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Màn hình layout</t>
+  </si>
+  <si>
+    <t>là màn hình có đầy đủ header, body và footer (có thể có thêm left, right tuỳ theo thiết kế).</t>
+  </si>
+  <si>
+    <t>Màn hình business</t>
+  </si>
+  <si>
+    <t>là màn hình trong phần body cung cấp thao tác chính để người dùng thực hiện công việc chính của mình.
+Trong màn hình Business nếu có dùng Javascript thì phải được chèn vào phía sau footer.
+Lý do là trong footer có nhúng các link Javascript cơ sở như jquery, datatable, handsontable,…
+Các script cho màn Business thông thường sử dụng lại Javascript cơ sở. Vì vậy Javascript cho business phải được khai báo sau Javascript cơ sở</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>hotProducts</t>
+  </si>
 </sst>
 </file>
 
@@ -1760,7 +1844,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="58">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2123,6 +2207,11 @@
       <vertAlign val="subscript"/>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -3205,7 +3294,7 @@
     <xf numFmtId="165" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3586,86 +3675,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="45" applyFont="1"/>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="15" fontId="25" fillId="0" borderId="38" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3681,87 +3701,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3865,7 +3804,7 @@
     <xf numFmtId="15" fontId="25" fillId="0" borderId="37" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3874,16 +3813,180 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -5660,6 +5763,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>227575</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>27762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="7486650"/>
+          <a:ext cx="8200000" cy="6504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>227575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>189687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="1362075"/>
+          <a:ext cx="8200000" cy="6504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6010,9 +6194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
@@ -6213,193 +6395,1216 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU270"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B271" sqref="B271"/>
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:36" ht="15" customHeight="1">
+      <c r="A1" s="237" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="241" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
+      <c r="Q1" s="242"/>
+      <c r="R1" s="242"/>
+      <c r="S1" s="242"/>
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="243"/>
+      <c r="W1" s="247" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="248"/>
+      <c r="Z1" s="248"/>
+      <c r="AA1" s="248"/>
+      <c r="AB1" s="248"/>
+      <c r="AC1" s="248"/>
+      <c r="AD1" s="248"/>
+      <c r="AE1" s="248"/>
+      <c r="AF1" s="248"/>
+      <c r="AG1" s="248"/>
+      <c r="AH1" s="248"/>
+      <c r="AI1" s="248"/>
+      <c r="AJ1" s="249"/>
+    </row>
+    <row r="2" spans="1:36" ht="15" customHeight="1">
+      <c r="A2" s="239"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="245"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="246"/>
+      <c r="W2" s="250" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="251"/>
+      <c r="Y2" s="251"/>
+      <c r="Z2" s="251"/>
+      <c r="AA2" s="251"/>
+      <c r="AB2" s="251"/>
+      <c r="AC2" s="251"/>
+      <c r="AD2" s="251"/>
+      <c r="AE2" s="251"/>
+      <c r="AF2" s="251"/>
+      <c r="AG2" s="251"/>
+      <c r="AH2" s="251"/>
+      <c r="AI2" s="251"/>
+      <c r="AJ2" s="252"/>
+    </row>
+    <row r="3" spans="1:36" ht="15" customHeight="1">
+      <c r="A3" s="253" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="254" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="265"/>
+      <c r="N3" s="258"/>
+      <c r="O3" s="258"/>
+      <c r="P3" s="258"/>
+      <c r="Q3" s="258"/>
+      <c r="R3" s="258"/>
+      <c r="S3" s="258"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="266"/>
+      <c r="W3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="269"/>
+      <c r="AA3" s="269"/>
+      <c r="AB3" s="269"/>
+      <c r="AC3" s="270"/>
+      <c r="AD3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="271"/>
+      <c r="AH3" s="272"/>
+      <c r="AI3" s="272"/>
+      <c r="AJ3" s="273"/>
+    </row>
+    <row r="4" spans="1:36" ht="15" customHeight="1">
+      <c r="A4" s="255"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="261"/>
+      <c r="G4" s="261"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="264"/>
+      <c r="M4" s="267"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="261"/>
+      <c r="U4" s="261"/>
+      <c r="V4" s="268"/>
+      <c r="W4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="232"/>
+      <c r="AA4" s="232"/>
+      <c r="AB4" s="232"/>
+      <c r="AC4" s="233"/>
+      <c r="AD4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="234"/>
+      <c r="AH4" s="235"/>
+      <c r="AI4" s="235"/>
+      <c r="AJ4" s="236"/>
+    </row>
+    <row r="5" spans="1:36" ht="15.75">
+      <c r="A5" s="218" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+    </row>
+    <row r="6" spans="1:36" ht="15.75">
+      <c r="A6" s="231"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="41"/>
+    </row>
+    <row r="7" spans="1:36" ht="15.75">
+      <c r="A7" s="231"/>
+      <c r="B7" s="330" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="331" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" s="332"/>
+      <c r="E7" s="332"/>
+      <c r="F7" s="332"/>
+      <c r="G7" s="332"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="333"/>
+      <c r="J7" s="331" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="332"/>
+      <c r="L7" s="332"/>
+      <c r="M7" s="332"/>
+      <c r="N7" s="332"/>
+      <c r="O7" s="332"/>
+      <c r="P7" s="332"/>
+      <c r="Q7" s="332"/>
+      <c r="R7" s="332"/>
+      <c r="S7" s="332"/>
+      <c r="T7" s="332"/>
+      <c r="U7" s="332"/>
+      <c r="V7" s="332"/>
+      <c r="W7" s="332"/>
+      <c r="X7" s="332"/>
+      <c r="Y7" s="332"/>
+      <c r="Z7" s="332"/>
+      <c r="AA7" s="332"/>
+      <c r="AB7" s="332"/>
+      <c r="AC7" s="332"/>
+      <c r="AD7" s="332"/>
+      <c r="AE7" s="332"/>
+      <c r="AF7" s="332"/>
+      <c r="AG7" s="332"/>
+      <c r="AH7" s="332"/>
+      <c r="AI7" s="333"/>
+      <c r="AJ7" s="41"/>
+    </row>
+    <row r="8" spans="1:36" ht="15.75">
+      <c r="A8" s="231"/>
+      <c r="B8" s="209">
+        <v>1</v>
+      </c>
+      <c r="C8" s="329" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" s="329"/>
+      <c r="E8" s="329"/>
+      <c r="F8" s="329"/>
+      <c r="G8" s="329"/>
+      <c r="H8" s="329"/>
+      <c r="I8" s="329"/>
+      <c r="J8" s="329" t="s">
+        <v>342</v>
+      </c>
+      <c r="K8" s="329"/>
+      <c r="L8" s="329"/>
+      <c r="M8" s="329"/>
+      <c r="N8" s="329"/>
+      <c r="O8" s="329"/>
+      <c r="P8" s="329"/>
+      <c r="Q8" s="329"/>
+      <c r="R8" s="329"/>
+      <c r="S8" s="329"/>
+      <c r="T8" s="329"/>
+      <c r="U8" s="329"/>
+      <c r="V8" s="329"/>
+      <c r="W8" s="329"/>
+      <c r="X8" s="329"/>
+      <c r="Y8" s="329"/>
+      <c r="Z8" s="329"/>
+      <c r="AA8" s="329"/>
+      <c r="AB8" s="329"/>
+      <c r="AC8" s="329"/>
+      <c r="AD8" s="329"/>
+      <c r="AE8" s="329"/>
+      <c r="AF8" s="329"/>
+      <c r="AG8" s="329"/>
+      <c r="AH8" s="329"/>
+      <c r="AI8" s="329"/>
+      <c r="AJ8" s="41"/>
+    </row>
+    <row r="9" spans="1:36" ht="66" customHeight="1">
+      <c r="A9" s="231"/>
+      <c r="B9" s="209">
+        <v>2</v>
+      </c>
+      <c r="C9" s="329" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" s="329"/>
+      <c r="E9" s="329"/>
+      <c r="F9" s="329"/>
+      <c r="G9" s="329"/>
+      <c r="H9" s="329"/>
+      <c r="I9" s="329"/>
+      <c r="J9" s="334" t="s">
+        <v>344</v>
+      </c>
+      <c r="K9" s="329"/>
+      <c r="L9" s="329"/>
+      <c r="M9" s="329"/>
+      <c r="N9" s="329"/>
+      <c r="O9" s="329"/>
+      <c r="P9" s="329"/>
+      <c r="Q9" s="329"/>
+      <c r="R9" s="329"/>
+      <c r="S9" s="329"/>
+      <c r="T9" s="329"/>
+      <c r="U9" s="329"/>
+      <c r="V9" s="329"/>
+      <c r="W9" s="329"/>
+      <c r="X9" s="329"/>
+      <c r="Y9" s="329"/>
+      <c r="Z9" s="329"/>
+      <c r="AA9" s="329"/>
+      <c r="AB9" s="329"/>
+      <c r="AC9" s="329"/>
+      <c r="AD9" s="329"/>
+      <c r="AE9" s="329"/>
+      <c r="AF9" s="329"/>
+      <c r="AG9" s="329"/>
+      <c r="AH9" s="329"/>
+      <c r="AI9" s="329"/>
+      <c r="AJ9" s="41"/>
+    </row>
+    <row r="10" spans="1:36" ht="15.75">
+      <c r="A10" s="231"/>
+      <c r="B10" s="209"/>
+      <c r="C10" s="329"/>
+      <c r="D10" s="329"/>
+      <c r="E10" s="329"/>
+      <c r="F10" s="329"/>
+      <c r="G10" s="329"/>
+      <c r="H10" s="329"/>
+      <c r="I10" s="329"/>
+      <c r="J10" s="329"/>
+      <c r="K10" s="329"/>
+      <c r="L10" s="329"/>
+      <c r="M10" s="329"/>
+      <c r="N10" s="329"/>
+      <c r="O10" s="329"/>
+      <c r="P10" s="329"/>
+      <c r="Q10" s="329"/>
+      <c r="R10" s="329"/>
+      <c r="S10" s="329"/>
+      <c r="T10" s="329"/>
+      <c r="U10" s="329"/>
+      <c r="V10" s="329"/>
+      <c r="W10" s="329"/>
+      <c r="X10" s="329"/>
+      <c r="Y10" s="329"/>
+      <c r="Z10" s="329"/>
+      <c r="AA10" s="329"/>
+      <c r="AB10" s="329"/>
+      <c r="AC10" s="329"/>
+      <c r="AD10" s="329"/>
+      <c r="AE10" s="329"/>
+      <c r="AF10" s="329"/>
+      <c r="AG10" s="329"/>
+      <c r="AH10" s="329"/>
+      <c r="AI10" s="329"/>
+      <c r="AJ10" s="41"/>
+    </row>
+    <row r="11" spans="1:36" ht="15.75">
+      <c r="A11" s="231"/>
+      <c r="B11" s="209"/>
+      <c r="C11" s="329"/>
+      <c r="D11" s="329"/>
+      <c r="E11" s="329"/>
+      <c r="F11" s="329"/>
+      <c r="G11" s="329"/>
+      <c r="H11" s="329"/>
+      <c r="I11" s="329"/>
+      <c r="J11" s="329"/>
+      <c r="K11" s="329"/>
+      <c r="L11" s="329"/>
+      <c r="M11" s="329"/>
+      <c r="N11" s="329"/>
+      <c r="O11" s="329"/>
+      <c r="P11" s="329"/>
+      <c r="Q11" s="329"/>
+      <c r="R11" s="329"/>
+      <c r="S11" s="329"/>
+      <c r="T11" s="329"/>
+      <c r="U11" s="329"/>
+      <c r="V11" s="329"/>
+      <c r="W11" s="329"/>
+      <c r="X11" s="329"/>
+      <c r="Y11" s="329"/>
+      <c r="Z11" s="329"/>
+      <c r="AA11" s="329"/>
+      <c r="AB11" s="329"/>
+      <c r="AC11" s="329"/>
+      <c r="AD11" s="329"/>
+      <c r="AE11" s="329"/>
+      <c r="AF11" s="329"/>
+      <c r="AG11" s="329"/>
+      <c r="AH11" s="329"/>
+      <c r="AI11" s="329"/>
+      <c r="AJ11" s="41"/>
+    </row>
+    <row r="12" spans="1:36" ht="15.75">
+      <c r="A12" s="231"/>
+      <c r="B12" s="209"/>
+      <c r="C12" s="329"/>
+      <c r="D12" s="329"/>
+      <c r="E12" s="329"/>
+      <c r="F12" s="329"/>
+      <c r="G12" s="329"/>
+      <c r="H12" s="329"/>
+      <c r="I12" s="329"/>
+      <c r="J12" s="329"/>
+      <c r="K12" s="329"/>
+      <c r="L12" s="329"/>
+      <c r="M12" s="329"/>
+      <c r="N12" s="329"/>
+      <c r="O12" s="329"/>
+      <c r="P12" s="329"/>
+      <c r="Q12" s="329"/>
+      <c r="R12" s="329"/>
+      <c r="S12" s="329"/>
+      <c r="T12" s="329"/>
+      <c r="U12" s="329"/>
+      <c r="V12" s="329"/>
+      <c r="W12" s="329"/>
+      <c r="X12" s="329"/>
+      <c r="Y12" s="329"/>
+      <c r="Z12" s="329"/>
+      <c r="AA12" s="329"/>
+      <c r="AB12" s="329"/>
+      <c r="AC12" s="329"/>
+      <c r="AD12" s="329"/>
+      <c r="AE12" s="329"/>
+      <c r="AF12" s="329"/>
+      <c r="AG12" s="329"/>
+      <c r="AH12" s="329"/>
+      <c r="AI12" s="329"/>
+      <c r="AJ12" s="41"/>
+    </row>
+    <row r="13" spans="1:36" ht="15.75">
+      <c r="A13" s="231"/>
+      <c r="B13" s="209"/>
+      <c r="C13" s="329"/>
+      <c r="D13" s="329"/>
+      <c r="E13" s="329"/>
+      <c r="F13" s="329"/>
+      <c r="G13" s="329"/>
+      <c r="H13" s="329"/>
+      <c r="I13" s="329"/>
+      <c r="J13" s="329"/>
+      <c r="K13" s="329"/>
+      <c r="L13" s="329"/>
+      <c r="M13" s="329"/>
+      <c r="N13" s="329"/>
+      <c r="O13" s="329"/>
+      <c r="P13" s="329"/>
+      <c r="Q13" s="329"/>
+      <c r="R13" s="329"/>
+      <c r="S13" s="329"/>
+      <c r="T13" s="329"/>
+      <c r="U13" s="329"/>
+      <c r="V13" s="329"/>
+      <c r="W13" s="329"/>
+      <c r="X13" s="329"/>
+      <c r="Y13" s="329"/>
+      <c r="Z13" s="329"/>
+      <c r="AA13" s="329"/>
+      <c r="AB13" s="329"/>
+      <c r="AC13" s="329"/>
+      <c r="AD13" s="329"/>
+      <c r="AE13" s="329"/>
+      <c r="AF13" s="329"/>
+      <c r="AG13" s="329"/>
+      <c r="AH13" s="329"/>
+      <c r="AI13" s="329"/>
+      <c r="AJ13" s="41"/>
+    </row>
+    <row r="14" spans="1:36" ht="15.75">
+      <c r="A14" s="231"/>
+      <c r="B14" s="209"/>
+      <c r="C14" s="329"/>
+      <c r="D14" s="329"/>
+      <c r="E14" s="329"/>
+      <c r="F14" s="329"/>
+      <c r="G14" s="329"/>
+      <c r="H14" s="329"/>
+      <c r="I14" s="329"/>
+      <c r="J14" s="329"/>
+      <c r="K14" s="329"/>
+      <c r="L14" s="329"/>
+      <c r="M14" s="329"/>
+      <c r="N14" s="329"/>
+      <c r="O14" s="329"/>
+      <c r="P14" s="329"/>
+      <c r="Q14" s="329"/>
+      <c r="R14" s="329"/>
+      <c r="S14" s="329"/>
+      <c r="T14" s="329"/>
+      <c r="U14" s="329"/>
+      <c r="V14" s="329"/>
+      <c r="W14" s="329"/>
+      <c r="X14" s="329"/>
+      <c r="Y14" s="329"/>
+      <c r="Z14" s="329"/>
+      <c r="AA14" s="329"/>
+      <c r="AB14" s="329"/>
+      <c r="AC14" s="329"/>
+      <c r="AD14" s="329"/>
+      <c r="AE14" s="329"/>
+      <c r="AF14" s="329"/>
+      <c r="AG14" s="329"/>
+      <c r="AH14" s="329"/>
+      <c r="AI14" s="329"/>
+      <c r="AJ14" s="41"/>
+    </row>
+    <row r="15" spans="1:36" ht="15.75">
+      <c r="A15" s="231"/>
+      <c r="B15" s="209"/>
+      <c r="C15" s="329"/>
+      <c r="D15" s="329"/>
+      <c r="E15" s="329"/>
+      <c r="F15" s="329"/>
+      <c r="G15" s="329"/>
+      <c r="H15" s="329"/>
+      <c r="I15" s="329"/>
+      <c r="J15" s="329"/>
+      <c r="K15" s="329"/>
+      <c r="L15" s="329"/>
+      <c r="M15" s="329"/>
+      <c r="N15" s="329"/>
+      <c r="O15" s="329"/>
+      <c r="P15" s="329"/>
+      <c r="Q15" s="329"/>
+      <c r="R15" s="329"/>
+      <c r="S15" s="329"/>
+      <c r="T15" s="329"/>
+      <c r="U15" s="329"/>
+      <c r="V15" s="329"/>
+      <c r="W15" s="329"/>
+      <c r="X15" s="329"/>
+      <c r="Y15" s="329"/>
+      <c r="Z15" s="329"/>
+      <c r="AA15" s="329"/>
+      <c r="AB15" s="329"/>
+      <c r="AC15" s="329"/>
+      <c r="AD15" s="329"/>
+      <c r="AE15" s="329"/>
+      <c r="AF15" s="329"/>
+      <c r="AG15" s="329"/>
+      <c r="AH15" s="329"/>
+      <c r="AI15" s="329"/>
+      <c r="AJ15" s="41"/>
+    </row>
+    <row r="16" spans="1:36" ht="15.75">
+      <c r="A16" s="231"/>
+      <c r="B16" s="209"/>
+      <c r="C16" s="329"/>
+      <c r="D16" s="329"/>
+      <c r="E16" s="329"/>
+      <c r="F16" s="329"/>
+      <c r="G16" s="329"/>
+      <c r="H16" s="329"/>
+      <c r="I16" s="329"/>
+      <c r="J16" s="329"/>
+      <c r="K16" s="329"/>
+      <c r="L16" s="329"/>
+      <c r="M16" s="329"/>
+      <c r="N16" s="329"/>
+      <c r="O16" s="329"/>
+      <c r="P16" s="329"/>
+      <c r="Q16" s="329"/>
+      <c r="R16" s="329"/>
+      <c r="S16" s="329"/>
+      <c r="T16" s="329"/>
+      <c r="U16" s="329"/>
+      <c r="V16" s="329"/>
+      <c r="W16" s="329"/>
+      <c r="X16" s="329"/>
+      <c r="Y16" s="329"/>
+      <c r="Z16" s="329"/>
+      <c r="AA16" s="329"/>
+      <c r="AB16" s="329"/>
+      <c r="AC16" s="329"/>
+      <c r="AD16" s="329"/>
+      <c r="AE16" s="329"/>
+      <c r="AF16" s="329"/>
+      <c r="AG16" s="329"/>
+      <c r="AH16" s="329"/>
+      <c r="AI16" s="329"/>
+      <c r="AJ16" s="41"/>
+    </row>
+    <row r="17" spans="1:36" ht="15.75">
+      <c r="A17" s="231"/>
+      <c r="B17" s="209"/>
+      <c r="C17" s="329"/>
+      <c r="D17" s="329"/>
+      <c r="E17" s="329"/>
+      <c r="F17" s="329"/>
+      <c r="G17" s="329"/>
+      <c r="H17" s="329"/>
+      <c r="I17" s="329"/>
+      <c r="J17" s="329"/>
+      <c r="K17" s="329"/>
+      <c r="L17" s="329"/>
+      <c r="M17" s="329"/>
+      <c r="N17" s="329"/>
+      <c r="O17" s="329"/>
+      <c r="P17" s="329"/>
+      <c r="Q17" s="329"/>
+      <c r="R17" s="329"/>
+      <c r="S17" s="329"/>
+      <c r="T17" s="329"/>
+      <c r="U17" s="329"/>
+      <c r="V17" s="329"/>
+      <c r="W17" s="329"/>
+      <c r="X17" s="329"/>
+      <c r="Y17" s="329"/>
+      <c r="Z17" s="329"/>
+      <c r="AA17" s="329"/>
+      <c r="AB17" s="329"/>
+      <c r="AC17" s="329"/>
+      <c r="AD17" s="329"/>
+      <c r="AE17" s="329"/>
+      <c r="AF17" s="329"/>
+      <c r="AG17" s="329"/>
+      <c r="AH17" s="329"/>
+      <c r="AI17" s="329"/>
+      <c r="AJ17" s="41"/>
+    </row>
+    <row r="18" spans="1:36" ht="15.75">
+      <c r="A18" s="231"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+    </row>
+    <row r="19" spans="1:36" ht="15.75">
+      <c r="A19" s="231"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="41"/>
+    </row>
+    <row r="20" spans="1:36" ht="15.75">
+      <c r="A20" s="218" t="s">
+        <v>339</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="38"/>
+      <c r="AJ20" s="38"/>
+    </row>
+    <row r="21" spans="1:36" ht="15.75">
+      <c r="A21" s="231"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="41"/>
+    </row>
+    <row r="22" spans="1:36" ht="15.75">
+      <c r="A22" s="42"/>
+      <c r="B22" s="330" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="331" t="s">
+        <v>345</v>
+      </c>
+      <c r="D22" s="332"/>
+      <c r="E22" s="332"/>
+      <c r="F22" s="332"/>
+      <c r="G22" s="332"/>
+      <c r="H22" s="332"/>
+      <c r="I22" s="333"/>
+      <c r="J22" s="331" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="332"/>
+      <c r="L22" s="332"/>
+      <c r="M22" s="332"/>
+      <c r="N22" s="332"/>
+      <c r="O22" s="332"/>
+      <c r="P22" s="332"/>
+      <c r="Q22" s="332"/>
+      <c r="R22" s="332"/>
+      <c r="S22" s="332"/>
+      <c r="T22" s="332"/>
+      <c r="U22" s="332"/>
+      <c r="V22" s="332"/>
+      <c r="W22" s="332"/>
+      <c r="X22" s="332"/>
+      <c r="Y22" s="332"/>
+      <c r="Z22" s="332"/>
+      <c r="AA22" s="332"/>
+      <c r="AB22" s="332"/>
+      <c r="AC22" s="332"/>
+      <c r="AD22" s="332"/>
+      <c r="AE22" s="332"/>
+      <c r="AF22" s="332"/>
+      <c r="AG22" s="332"/>
+      <c r="AH22" s="332"/>
+      <c r="AI22" s="333"/>
+      <c r="AJ22" s="41"/>
+    </row>
+    <row r="23" spans="1:36" ht="15.75">
+      <c r="B23" s="209">
+        <v>1</v>
+      </c>
+      <c r="C23" s="329" t="s">
+        <v>346</v>
+      </c>
+      <c r="D23" s="329"/>
+      <c r="E23" s="329"/>
+      <c r="F23" s="329"/>
+      <c r="G23" s="329"/>
+      <c r="H23" s="329"/>
+      <c r="I23" s="329"/>
+      <c r="J23" s="329" t="s">
+        <v>337</v>
+      </c>
+      <c r="K23" s="329"/>
+      <c r="L23" s="329"/>
+      <c r="M23" s="329"/>
+      <c r="N23" s="329"/>
+      <c r="O23" s="329"/>
+      <c r="P23" s="329"/>
+      <c r="Q23" s="329"/>
+      <c r="R23" s="329"/>
+      <c r="S23" s="329"/>
+      <c r="T23" s="329"/>
+      <c r="U23" s="329"/>
+      <c r="V23" s="329"/>
+      <c r="W23" s="329"/>
+      <c r="X23" s="329"/>
+      <c r="Y23" s="329"/>
+      <c r="Z23" s="329"/>
+      <c r="AA23" s="329"/>
+      <c r="AB23" s="329"/>
+      <c r="AC23" s="329"/>
+      <c r="AD23" s="329"/>
+      <c r="AE23" s="329"/>
+      <c r="AF23" s="329"/>
+      <c r="AG23" s="329"/>
+      <c r="AH23" s="329"/>
+      <c r="AI23" s="329"/>
+    </row>
+    <row r="24" spans="1:36" ht="15.75">
+      <c r="B24" s="209">
+        <v>2</v>
+      </c>
+      <c r="C24" s="329"/>
+      <c r="D24" s="329"/>
+      <c r="E24" s="329"/>
+      <c r="F24" s="329"/>
+      <c r="G24" s="329"/>
+      <c r="H24" s="329"/>
+      <c r="I24" s="329"/>
+      <c r="J24" s="334"/>
+      <c r="K24" s="329"/>
+      <c r="L24" s="329"/>
+      <c r="M24" s="329"/>
+      <c r="N24" s="329"/>
+      <c r="O24" s="329"/>
+      <c r="P24" s="329"/>
+      <c r="Q24" s="329"/>
+      <c r="R24" s="329"/>
+      <c r="S24" s="329"/>
+      <c r="T24" s="329"/>
+      <c r="U24" s="329"/>
+      <c r="V24" s="329"/>
+      <c r="W24" s="329"/>
+      <c r="X24" s="329"/>
+      <c r="Y24" s="329"/>
+      <c r="Z24" s="329"/>
+      <c r="AA24" s="329"/>
+      <c r="AB24" s="329"/>
+      <c r="AC24" s="329"/>
+      <c r="AD24" s="329"/>
+      <c r="AE24" s="329"/>
+      <c r="AF24" s="329"/>
+      <c r="AG24" s="329"/>
+      <c r="AH24" s="329"/>
+      <c r="AI24" s="329"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="36">
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="J23:AI23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="J24:AI24"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="J15:AI15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="J16:AI16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="J17:AI17"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="J12:AI12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="J13:AI13"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="J14:AI14"/>
+    <mergeCell ref="J9:AI9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="J10:AI10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="J11:AI11"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:V2"/>
+    <mergeCell ref="W1:AJ1"/>
+    <mergeCell ref="W2:AJ2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="M3:V4"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="J8:AI8"/>
+    <mergeCell ref="C9:I9"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.3" top="0.4" bottom="0.3" header="0.15" footer="0.15"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="283" t="s">
+      <c r="A1" s="237" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="287" t="s">
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="241" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="288"/>
-      <c r="G1" s="288"/>
-      <c r="H1" s="288"/>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
-      <c r="N1" s="288"/>
-      <c r="O1" s="288"/>
-      <c r="P1" s="288"/>
-      <c r="Q1" s="288"/>
-      <c r="R1" s="288"/>
-      <c r="S1" s="288"/>
-      <c r="T1" s="288"/>
-      <c r="U1" s="288"/>
-      <c r="V1" s="289"/>
-      <c r="W1" s="293" t="s">
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
+      <c r="Q1" s="242"/>
+      <c r="R1" s="242"/>
+      <c r="S1" s="242"/>
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="243"/>
+      <c r="W1" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="294"/>
-      <c r="Y1" s="294"/>
-      <c r="Z1" s="294"/>
-      <c r="AA1" s="294"/>
-      <c r="AB1" s="294"/>
-      <c r="AC1" s="294"/>
-      <c r="AD1" s="294"/>
-      <c r="AE1" s="294"/>
-      <c r="AF1" s="294"/>
-      <c r="AG1" s="294"/>
-      <c r="AH1" s="294"/>
-      <c r="AI1" s="294"/>
-      <c r="AJ1" s="295"/>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="248"/>
+      <c r="Z1" s="248"/>
+      <c r="AA1" s="248"/>
+      <c r="AB1" s="248"/>
+      <c r="AC1" s="248"/>
+      <c r="AD1" s="248"/>
+      <c r="AE1" s="248"/>
+      <c r="AF1" s="248"/>
+      <c r="AG1" s="248"/>
+      <c r="AH1" s="248"/>
+      <c r="AI1" s="248"/>
+      <c r="AJ1" s="249"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1">
-      <c r="A2" s="285"/>
-      <c r="B2" s="286"/>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="291"/>
-      <c r="G2" s="291"/>
-      <c r="H2" s="291"/>
-      <c r="I2" s="291"/>
-      <c r="J2" s="291"/>
-      <c r="K2" s="291"/>
-      <c r="L2" s="291"/>
-      <c r="M2" s="291"/>
-      <c r="N2" s="291"/>
-      <c r="O2" s="291"/>
-      <c r="P2" s="291"/>
-      <c r="Q2" s="291"/>
-      <c r="R2" s="291"/>
-      <c r="S2" s="291"/>
-      <c r="T2" s="291"/>
-      <c r="U2" s="291"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="296" t="s">
+      <c r="A2" s="239"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="245"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="246"/>
+      <c r="W2" s="250" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="297"/>
-      <c r="Y2" s="297"/>
-      <c r="Z2" s="297"/>
-      <c r="AA2" s="297"/>
-      <c r="AB2" s="297"/>
-      <c r="AC2" s="297"/>
-      <c r="AD2" s="297"/>
-      <c r="AE2" s="297"/>
-      <c r="AF2" s="297"/>
-      <c r="AG2" s="297"/>
-      <c r="AH2" s="297"/>
-      <c r="AI2" s="297"/>
-      <c r="AJ2" s="298"/>
+      <c r="X2" s="251"/>
+      <c r="Y2" s="251"/>
+      <c r="Z2" s="251"/>
+      <c r="AA2" s="251"/>
+      <c r="AB2" s="251"/>
+      <c r="AC2" s="251"/>
+      <c r="AD2" s="251"/>
+      <c r="AE2" s="251"/>
+      <c r="AF2" s="251"/>
+      <c r="AG2" s="251"/>
+      <c r="AH2" s="251"/>
+      <c r="AI2" s="251"/>
+      <c r="AJ2" s="252"/>
     </row>
     <row r="3" spans="1:47" ht="15" customHeight="1">
-      <c r="A3" s="299" t="s">
+      <c r="A3" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="300"/>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="303" t="s">
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="304"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="305"/>
-      <c r="I3" s="300" t="s">
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="254" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="300"/>
-      <c r="K3" s="300"/>
-      <c r="L3" s="309"/>
-      <c r="M3" s="311" t="s">
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="265" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="304"/>
-      <c r="O3" s="304"/>
-      <c r="P3" s="304"/>
-      <c r="Q3" s="304"/>
-      <c r="R3" s="304"/>
-      <c r="S3" s="304"/>
-      <c r="T3" s="304"/>
-      <c r="U3" s="304"/>
-      <c r="V3" s="312"/>
+      <c r="N3" s="258"/>
+      <c r="O3" s="258"/>
+      <c r="P3" s="258"/>
+      <c r="Q3" s="258"/>
+      <c r="R3" s="258"/>
+      <c r="S3" s="258"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="266"/>
       <c r="W3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="315">
+      <c r="Z3" s="269">
         <v>43234</v>
       </c>
-      <c r="AA3" s="315"/>
-      <c r="AB3" s="315"/>
-      <c r="AC3" s="316"/>
+      <c r="AA3" s="269"/>
+      <c r="AB3" s="269"/>
+      <c r="AC3" s="270"/>
       <c r="AD3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
-      <c r="AG3" s="317" t="s">
+      <c r="AG3" s="274" t="s">
         <v>81</v>
       </c>
-      <c r="AH3" s="318"/>
-      <c r="AI3" s="318"/>
-      <c r="AJ3" s="319"/>
+      <c r="AH3" s="272"/>
+      <c r="AI3" s="272"/>
+      <c r="AJ3" s="273"/>
     </row>
     <row r="4" spans="1:47" ht="15" customHeight="1">
-      <c r="A4" s="301"/>
-      <c r="B4" s="302"/>
-      <c r="C4" s="302"/>
-      <c r="D4" s="302"/>
-      <c r="E4" s="306"/>
-      <c r="F4" s="307"/>
-      <c r="G4" s="307"/>
-      <c r="H4" s="308"/>
-      <c r="I4" s="302"/>
-      <c r="J4" s="302"/>
-      <c r="K4" s="302"/>
-      <c r="L4" s="310"/>
-      <c r="M4" s="313"/>
-      <c r="N4" s="307"/>
-      <c r="O4" s="307"/>
-      <c r="P4" s="307"/>
-      <c r="Q4" s="307"/>
-      <c r="R4" s="307"/>
-      <c r="S4" s="307"/>
-      <c r="T4" s="307"/>
-      <c r="U4" s="307"/>
-      <c r="V4" s="314"/>
+      <c r="A4" s="255"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="261"/>
+      <c r="G4" s="261"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="264"/>
+      <c r="M4" s="267"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="261"/>
+      <c r="U4" s="261"/>
+      <c r="V4" s="268"/>
       <c r="W4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="251"/>
-      <c r="AA4" s="251"/>
-      <c r="AB4" s="251"/>
-      <c r="AC4" s="252"/>
+      <c r="Z4" s="232"/>
+      <c r="AA4" s="232"/>
+      <c r="AB4" s="232"/>
+      <c r="AC4" s="233"/>
       <c r="AD4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AE4" s="9"/>
       <c r="AF4" s="10"/>
-      <c r="AG4" s="253"/>
-      <c r="AH4" s="254"/>
-      <c r="AI4" s="254"/>
-      <c r="AJ4" s="255"/>
+      <c r="AG4" s="234"/>
+      <c r="AH4" s="235"/>
+      <c r="AI4" s="235"/>
+      <c r="AJ4" s="236"/>
     </row>
     <row r="5" spans="1:47" ht="15.75">
       <c r="A5" s="37">
@@ -6483,9 +7688,7 @@
     </row>
     <row r="7" spans="1:47" ht="15.75">
       <c r="A7" s="40"/>
-      <c r="B7" s="42" t="s">
-        <v>22</v>
-      </c>
+      <c r="B7" s="42"/>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
       <c r="E7" s="42"/>
@@ -6524,12 +7727,8 @@
     <row r="8" spans="1:47" ht="15.75">
       <c r="A8" s="40"/>
       <c r="B8" s="42"/>
-      <c r="C8" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>34</v>
-      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="41"/>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
@@ -6566,12 +7765,8 @@
     <row r="9" spans="1:47" ht="15.75">
       <c r="A9" s="40"/>
       <c r="B9" s="42"/>
-      <c r="C9" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>35</v>
-      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
@@ -6608,12 +7803,8 @@
     <row r="10" spans="1:47" ht="15.75">
       <c r="A10" s="46"/>
       <c r="B10" s="42"/>
-      <c r="C10" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>36</v>
-      </c>
+      <c r="C10" s="70"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="47"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -6650,12 +7841,8 @@
     <row r="11" spans="1:47" ht="15.75">
       <c r="A11" s="49"/>
       <c r="B11" s="42"/>
-      <c r="C11" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>37</v>
-      </c>
+      <c r="C11" s="70"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="47"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
@@ -6692,12 +7879,8 @@
     <row r="12" spans="1:47" ht="15.75">
       <c r="A12" s="49"/>
       <c r="B12" s="42"/>
-      <c r="C12" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>38</v>
-      </c>
+      <c r="C12" s="70"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="47"/>
       <c r="F12" s="42"/>
       <c r="G12" s="41"/>
@@ -6734,12 +7917,8 @@
     <row r="13" spans="1:47" ht="15.75">
       <c r="A13" s="49"/>
       <c r="B13" s="42"/>
-      <c r="C13" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>40</v>
-      </c>
+      <c r="C13" s="70"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="57"/>
       <c r="F13" s="42"/>
       <c r="G13" s="41"/>
@@ -7960,6 +9139,1780 @@
       <c r="AT37" s="1"/>
       <c r="AU37" s="1"/>
     </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="12">
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:V2"/>
+    <mergeCell ref="W1:AJ1"/>
+    <mergeCell ref="W2:AJ2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="M3:V4"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AG3:AJ3"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.3" top="0.4" bottom="0.3" header="0.15" footer="0.15"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU270"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:47" ht="15" customHeight="1">
+      <c r="A1" s="237" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="241" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
+      <c r="Q1" s="242"/>
+      <c r="R1" s="242"/>
+      <c r="S1" s="242"/>
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="243"/>
+      <c r="W1" s="247" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="248"/>
+      <c r="Z1" s="248"/>
+      <c r="AA1" s="248"/>
+      <c r="AB1" s="248"/>
+      <c r="AC1" s="248"/>
+      <c r="AD1" s="248"/>
+      <c r="AE1" s="248"/>
+      <c r="AF1" s="248"/>
+      <c r="AG1" s="248"/>
+      <c r="AH1" s="248"/>
+      <c r="AI1" s="248"/>
+      <c r="AJ1" s="249"/>
+    </row>
+    <row r="2" spans="1:47" ht="15" customHeight="1">
+      <c r="A2" s="239"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="245"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="246"/>
+      <c r="W2" s="250" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="251"/>
+      <c r="Y2" s="251"/>
+      <c r="Z2" s="251"/>
+      <c r="AA2" s="251"/>
+      <c r="AB2" s="251"/>
+      <c r="AC2" s="251"/>
+      <c r="AD2" s="251"/>
+      <c r="AE2" s="251"/>
+      <c r="AF2" s="251"/>
+      <c r="AG2" s="251"/>
+      <c r="AH2" s="251"/>
+      <c r="AI2" s="251"/>
+      <c r="AJ2" s="252"/>
+    </row>
+    <row r="3" spans="1:47" ht="15" customHeight="1">
+      <c r="A3" s="253" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="257" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="254" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="265" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="258"/>
+      <c r="O3" s="258"/>
+      <c r="P3" s="258"/>
+      <c r="Q3" s="258"/>
+      <c r="R3" s="258"/>
+      <c r="S3" s="258"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="266"/>
+      <c r="W3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="269">
+        <v>43234</v>
+      </c>
+      <c r="AA3" s="269"/>
+      <c r="AB3" s="269"/>
+      <c r="AC3" s="270"/>
+      <c r="AD3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="274" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH3" s="272"/>
+      <c r="AI3" s="272"/>
+      <c r="AJ3" s="273"/>
+    </row>
+    <row r="4" spans="1:47" ht="15" customHeight="1">
+      <c r="A4" s="255"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="261"/>
+      <c r="G4" s="261"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="264"/>
+      <c r="M4" s="267"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="261"/>
+      <c r="U4" s="261"/>
+      <c r="V4" s="268"/>
+      <c r="W4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="232"/>
+      <c r="AA4" s="232"/>
+      <c r="AB4" s="232"/>
+      <c r="AC4" s="233"/>
+      <c r="AD4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="234"/>
+      <c r="AH4" s="235"/>
+      <c r="AI4" s="235"/>
+      <c r="AJ4" s="236"/>
+    </row>
+    <row r="5" spans="1:47" ht="15.75">
+      <c r="A5" s="37">
+        <v>1</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="39"/>
+    </row>
+    <row r="6" spans="1:47" ht="15.75">
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="48"/>
+    </row>
+    <row r="7" spans="1:47" ht="15.75">
+      <c r="A7" s="40"/>
+      <c r="B7" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="48"/>
+    </row>
+    <row r="8" spans="1:47" ht="15.75">
+      <c r="A8" s="40"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="48"/>
+    </row>
+    <row r="9" spans="1:47" ht="15.75">
+      <c r="A9" s="40"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="48"/>
+    </row>
+    <row r="10" spans="1:47" ht="15.75">
+      <c r="A10" s="46"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="48"/>
+    </row>
+    <row r="11" spans="1:47" ht="15.75">
+      <c r="A11" s="49"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="48"/>
+    </row>
+    <row r="12" spans="1:47" ht="15.75">
+      <c r="A12" s="49"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="48"/>
+    </row>
+    <row r="13" spans="1:47" ht="15.75">
+      <c r="A13" s="49"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="57"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="58"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+    </row>
+    <row r="14" spans="1:47" ht="15.75">
+      <c r="A14" s="49"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="58"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+    </row>
+    <row r="15" spans="1:47" ht="15.75">
+      <c r="A15" s="49"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="41"/>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="58"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+    </row>
+    <row r="16" spans="1:47" ht="15.75">
+      <c r="A16" s="49"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="58"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+    </row>
+    <row r="17" spans="1:47" ht="15.75">
+      <c r="A17" s="49"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="58"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+    </row>
+    <row r="18" spans="1:47" ht="15.75">
+      <c r="A18" s="49"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="58"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+    </row>
+    <row r="19" spans="1:47" ht="15.75">
+      <c r="A19" s="49"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="58"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+    </row>
+    <row r="20" spans="1:47" ht="15.75">
+      <c r="A20" s="49"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="58"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+    </row>
+    <row r="21" spans="1:47" ht="15.75">
+      <c r="A21" s="49"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="58"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+    </row>
+    <row r="22" spans="1:47" ht="15.75">
+      <c r="A22" s="49"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="41"/>
+      <c r="AI22" s="41"/>
+      <c r="AJ22" s="58"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+    </row>
+    <row r="23" spans="1:47" ht="15.75">
+      <c r="A23" s="49"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="58"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+    </row>
+    <row r="24" spans="1:47" ht="15.75">
+      <c r="A24" s="49"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="41"/>
+      <c r="AF24" s="41"/>
+      <c r="AG24" s="41"/>
+      <c r="AH24" s="41"/>
+      <c r="AI24" s="41"/>
+      <c r="AJ24" s="58"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+    </row>
+    <row r="25" spans="1:47" ht="15.75">
+      <c r="A25" s="49"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="41"/>
+      <c r="AG25" s="41"/>
+      <c r="AH25" s="41"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="58"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+    </row>
+    <row r="26" spans="1:47" ht="15.75">
+      <c r="A26" s="49"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="41"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="41"/>
+      <c r="AG26" s="41"/>
+      <c r="AH26" s="41"/>
+      <c r="AI26" s="41"/>
+      <c r="AJ26" s="58"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+    </row>
+    <row r="27" spans="1:47" ht="15.75">
+      <c r="A27" s="49"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="41"/>
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="41"/>
+      <c r="AG27" s="41"/>
+      <c r="AH27" s="41"/>
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="58"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+    </row>
+    <row r="28" spans="1:47" ht="15.75">
+      <c r="A28" s="49"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="41"/>
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="41"/>
+      <c r="AC28" s="41"/>
+      <c r="AD28" s="41"/>
+      <c r="AE28" s="41"/>
+      <c r="AF28" s="41"/>
+      <c r="AG28" s="41"/>
+      <c r="AH28" s="41"/>
+      <c r="AI28" s="41"/>
+      <c r="AJ28" s="58"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+    </row>
+    <row r="29" spans="1:47" ht="15.75">
+      <c r="A29" s="49"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="41"/>
+      <c r="AC29" s="41"/>
+      <c r="AD29" s="41"/>
+      <c r="AE29" s="41"/>
+      <c r="AF29" s="41"/>
+      <c r="AG29" s="41"/>
+      <c r="AH29" s="41"/>
+      <c r="AI29" s="41"/>
+      <c r="AJ29" s="58"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+    </row>
+    <row r="30" spans="1:47" ht="15.75">
+      <c r="A30" s="49"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="41"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="41"/>
+      <c r="AI30" s="41"/>
+      <c r="AJ30" s="58"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+    </row>
+    <row r="31" spans="1:47" ht="15.75">
+      <c r="A31" s="49"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="41"/>
+      <c r="AG31" s="41"/>
+      <c r="AH31" s="41"/>
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="58"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+    </row>
+    <row r="32" spans="1:47" ht="15.75">
+      <c r="A32" s="49"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="41"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="41"/>
+      <c r="AI32" s="41"/>
+      <c r="AJ32" s="58"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+    </row>
+    <row r="33" spans="1:47" ht="15.75">
+      <c r="A33" s="49"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="41"/>
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="41"/>
+      <c r="AE33" s="41"/>
+      <c r="AF33" s="41"/>
+      <c r="AG33" s="41"/>
+      <c r="AH33" s="41"/>
+      <c r="AI33" s="41"/>
+      <c r="AJ33" s="58"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+    </row>
+    <row r="34" spans="1:47" ht="15.75">
+      <c r="A34" s="49"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="41"/>
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="41"/>
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="41"/>
+      <c r="AE34" s="41"/>
+      <c r="AF34" s="41"/>
+      <c r="AG34" s="41"/>
+      <c r="AH34" s="41"/>
+      <c r="AI34" s="41"/>
+      <c r="AJ34" s="58"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+    </row>
+    <row r="35" spans="1:47" ht="15.75">
+      <c r="A35" s="49"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="41"/>
+      <c r="AD35" s="41"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="41"/>
+      <c r="AG35" s="41"/>
+      <c r="AH35" s="41"/>
+      <c r="AI35" s="41"/>
+      <c r="AJ35" s="58"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+    </row>
+    <row r="36" spans="1:47" ht="15.75">
+      <c r="A36" s="49"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="41"/>
+      <c r="AC36" s="41"/>
+      <c r="AD36" s="41"/>
+      <c r="AE36" s="41"/>
+      <c r="AF36" s="41"/>
+      <c r="AG36" s="41"/>
+      <c r="AH36" s="41"/>
+      <c r="AI36" s="41"/>
+      <c r="AJ36" s="58"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+    </row>
+    <row r="37" spans="1:47" ht="15.75">
+      <c r="A37" s="49"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="41"/>
+      <c r="AC37" s="41"/>
+      <c r="AD37" s="41"/>
+      <c r="AE37" s="41"/>
+      <c r="AF37" s="41"/>
+      <c r="AG37" s="41"/>
+      <c r="AH37" s="41"/>
+      <c r="AI37" s="41"/>
+      <c r="AJ37" s="58"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+    </row>
     <row r="38" spans="1:47" ht="15" customHeight="1">
       <c r="A38" s="37">
         <v>2</v>
@@ -11067,28 +14020,28 @@
     </row>
     <row r="158" spans="1:36" ht="15.75" thickTop="1">
       <c r="B158" s="172"/>
-      <c r="C158" s="256" t="s">
+      <c r="C158" s="302" t="s">
         <v>145</v>
       </c>
-      <c r="D158" s="257"/>
-      <c r="E158" s="257"/>
-      <c r="F158" s="258"/>
+      <c r="D158" s="303"/>
+      <c r="E158" s="303"/>
+      <c r="F158" s="304"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
-      <c r="I158" s="265" t="s">
+      <c r="I158" s="311" t="s">
         <v>146</v>
       </c>
-      <c r="J158" s="266"/>
-      <c r="K158" s="266"/>
-      <c r="L158" s="267"/>
+      <c r="J158" s="312"/>
+      <c r="K158" s="312"/>
+      <c r="L158" s="313"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
-      <c r="O158" s="265" t="s">
+      <c r="O158" s="311" t="s">
         <v>147</v>
       </c>
-      <c r="P158" s="266"/>
-      <c r="Q158" s="266"/>
-      <c r="R158" s="267"/>
+      <c r="P158" s="312"/>
+      <c r="Q158" s="312"/>
+      <c r="R158" s="313"/>
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
@@ -11109,22 +14062,22 @@
     </row>
     <row r="159" spans="1:36">
       <c r="B159" s="172"/>
-      <c r="C159" s="259"/>
-      <c r="D159" s="260"/>
-      <c r="E159" s="260"/>
-      <c r="F159" s="261"/>
+      <c r="C159" s="305"/>
+      <c r="D159" s="306"/>
+      <c r="E159" s="306"/>
+      <c r="F159" s="307"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
-      <c r="I159" s="268"/>
-      <c r="J159" s="269"/>
-      <c r="K159" s="269"/>
-      <c r="L159" s="270"/>
+      <c r="I159" s="314"/>
+      <c r="J159" s="315"/>
+      <c r="K159" s="315"/>
+      <c r="L159" s="316"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
-      <c r="O159" s="268"/>
-      <c r="P159" s="269"/>
-      <c r="Q159" s="269"/>
-      <c r="R159" s="270"/>
+      <c r="O159" s="314"/>
+      <c r="P159" s="315"/>
+      <c r="Q159" s="315"/>
+      <c r="R159" s="316"/>
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
@@ -11145,22 +14098,22 @@
     </row>
     <row r="160" spans="1:36" ht="15.75" thickBot="1">
       <c r="B160" s="172"/>
-      <c r="C160" s="262"/>
-      <c r="D160" s="263"/>
-      <c r="E160" s="263"/>
-      <c r="F160" s="264"/>
+      <c r="C160" s="308"/>
+      <c r="D160" s="309"/>
+      <c r="E160" s="309"/>
+      <c r="F160" s="310"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
-      <c r="I160" s="271"/>
-      <c r="J160" s="272"/>
-      <c r="K160" s="272"/>
-      <c r="L160" s="273"/>
+      <c r="I160" s="317"/>
+      <c r="J160" s="318"/>
+      <c r="K160" s="318"/>
+      <c r="L160" s="319"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
-      <c r="O160" s="271"/>
-      <c r="P160" s="272"/>
-      <c r="Q160" s="272"/>
-      <c r="R160" s="273"/>
+      <c r="O160" s="317"/>
+      <c r="P160" s="318"/>
+      <c r="Q160" s="318"/>
+      <c r="R160" s="319"/>
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
@@ -11429,28 +14382,28 @@
     </row>
     <row r="192" spans="1:35" ht="15.75" thickTop="1">
       <c r="B192" s="172"/>
-      <c r="C192" s="224" t="s">
+      <c r="C192" s="275" t="s">
         <v>145</v>
       </c>
-      <c r="D192" s="225"/>
-      <c r="E192" s="225"/>
-      <c r="F192" s="226"/>
+      <c r="D192" s="276"/>
+      <c r="E192" s="276"/>
+      <c r="F192" s="277"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
-      <c r="I192" s="274" t="s">
+      <c r="I192" s="320" t="s">
         <v>146</v>
       </c>
-      <c r="J192" s="275"/>
-      <c r="K192" s="275"/>
-      <c r="L192" s="276"/>
+      <c r="J192" s="321"/>
+      <c r="K192" s="321"/>
+      <c r="L192" s="322"/>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
-      <c r="O192" s="265" t="s">
+      <c r="O192" s="311" t="s">
         <v>147</v>
       </c>
-      <c r="P192" s="266"/>
-      <c r="Q192" s="266"/>
-      <c r="R192" s="267"/>
+      <c r="P192" s="312"/>
+      <c r="Q192" s="312"/>
+      <c r="R192" s="313"/>
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
@@ -11471,22 +14424,22 @@
     </row>
     <row r="193" spans="2:35">
       <c r="B193" s="172"/>
-      <c r="C193" s="227"/>
-      <c r="D193" s="228"/>
-      <c r="E193" s="228"/>
-      <c r="F193" s="229"/>
+      <c r="C193" s="278"/>
+      <c r="D193" s="279"/>
+      <c r="E193" s="279"/>
+      <c r="F193" s="280"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
-      <c r="I193" s="277"/>
-      <c r="J193" s="278"/>
-      <c r="K193" s="278"/>
-      <c r="L193" s="279"/>
+      <c r="I193" s="323"/>
+      <c r="J193" s="324"/>
+      <c r="K193" s="324"/>
+      <c r="L193" s="325"/>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
-      <c r="O193" s="268"/>
-      <c r="P193" s="269"/>
-      <c r="Q193" s="269"/>
-      <c r="R193" s="270"/>
+      <c r="O193" s="314"/>
+      <c r="P193" s="315"/>
+      <c r="Q193" s="315"/>
+      <c r="R193" s="316"/>
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
@@ -11507,22 +14460,22 @@
     </row>
     <row r="194" spans="2:35" ht="15.75" thickBot="1">
       <c r="B194" s="172"/>
-      <c r="C194" s="230"/>
-      <c r="D194" s="231"/>
-      <c r="E194" s="231"/>
-      <c r="F194" s="232"/>
+      <c r="C194" s="281"/>
+      <c r="D194" s="282"/>
+      <c r="E194" s="282"/>
+      <c r="F194" s="283"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
-      <c r="I194" s="280"/>
-      <c r="J194" s="281"/>
-      <c r="K194" s="281"/>
-      <c r="L194" s="282"/>
+      <c r="I194" s="326"/>
+      <c r="J194" s="327"/>
+      <c r="K194" s="327"/>
+      <c r="L194" s="328"/>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
-      <c r="O194" s="271"/>
-      <c r="P194" s="272"/>
-      <c r="Q194" s="272"/>
-      <c r="R194" s="273"/>
+      <c r="O194" s="317"/>
+      <c r="P194" s="318"/>
+      <c r="Q194" s="318"/>
+      <c r="R194" s="319"/>
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
@@ -11770,28 +14723,28 @@
     </row>
     <row r="231" spans="1:35">
       <c r="B231" s="172"/>
-      <c r="C231" s="224" t="s">
+      <c r="C231" s="275" t="s">
         <v>145</v>
       </c>
-      <c r="D231" s="225"/>
-      <c r="E231" s="225"/>
-      <c r="F231" s="226"/>
+      <c r="D231" s="276"/>
+      <c r="E231" s="276"/>
+      <c r="F231" s="277"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
-      <c r="I231" s="233" t="s">
+      <c r="I231" s="284" t="s">
         <v>146</v>
       </c>
-      <c r="J231" s="234"/>
-      <c r="K231" s="234"/>
-      <c r="L231" s="235"/>
+      <c r="J231" s="285"/>
+      <c r="K231" s="285"/>
+      <c r="L231" s="286"/>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
-      <c r="O231" s="242" t="s">
+      <c r="O231" s="293" t="s">
         <v>147</v>
       </c>
-      <c r="P231" s="243"/>
-      <c r="Q231" s="243"/>
-      <c r="R231" s="244"/>
+      <c r="P231" s="294"/>
+      <c r="Q231" s="294"/>
+      <c r="R231" s="295"/>
       <c r="S231" s="1"/>
       <c r="T231" s="1"/>
       <c r="U231" s="1"/>
@@ -11812,22 +14765,22 @@
     </row>
     <row r="232" spans="1:35">
       <c r="B232" s="172"/>
-      <c r="C232" s="227"/>
-      <c r="D232" s="228"/>
-      <c r="E232" s="228"/>
-      <c r="F232" s="229"/>
+      <c r="C232" s="278"/>
+      <c r="D232" s="279"/>
+      <c r="E232" s="279"/>
+      <c r="F232" s="280"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
-      <c r="I232" s="236"/>
-      <c r="J232" s="237"/>
-      <c r="K232" s="237"/>
-      <c r="L232" s="238"/>
+      <c r="I232" s="287"/>
+      <c r="J232" s="288"/>
+      <c r="K232" s="288"/>
+      <c r="L232" s="289"/>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
-      <c r="O232" s="245"/>
-      <c r="P232" s="246"/>
-      <c r="Q232" s="246"/>
-      <c r="R232" s="247"/>
+      <c r="O232" s="296"/>
+      <c r="P232" s="297"/>
+      <c r="Q232" s="297"/>
+      <c r="R232" s="298"/>
       <c r="S232" s="1"/>
       <c r="T232" s="1"/>
       <c r="U232" s="1"/>
@@ -11848,22 +14801,22 @@
     </row>
     <row r="233" spans="1:35" ht="15.75" thickBot="1">
       <c r="B233" s="172"/>
-      <c r="C233" s="230"/>
-      <c r="D233" s="231"/>
-      <c r="E233" s="231"/>
-      <c r="F233" s="232"/>
+      <c r="C233" s="281"/>
+      <c r="D233" s="282"/>
+      <c r="E233" s="282"/>
+      <c r="F233" s="283"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
-      <c r="I233" s="239"/>
-      <c r="J233" s="240"/>
-      <c r="K233" s="240"/>
-      <c r="L233" s="241"/>
+      <c r="I233" s="290"/>
+      <c r="J233" s="291"/>
+      <c r="K233" s="291"/>
+      <c r="L233" s="292"/>
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
-      <c r="O233" s="248"/>
-      <c r="P233" s="249"/>
-      <c r="Q233" s="249"/>
-      <c r="R233" s="250"/>
+      <c r="O233" s="299"/>
+      <c r="P233" s="300"/>
+      <c r="Q233" s="300"/>
+      <c r="R233" s="301"/>
       <c r="S233" s="1"/>
       <c r="T233" s="1"/>
       <c r="U233" s="1"/>
@@ -12580,191 +15533,191 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU63"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M64" sqref="M64"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="283" t="s">
+      <c r="A1" s="237" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="287" t="s">
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="241" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="288"/>
-      <c r="G1" s="288"/>
-      <c r="H1" s="288"/>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
-      <c r="N1" s="288"/>
-      <c r="O1" s="288"/>
-      <c r="P1" s="288"/>
-      <c r="Q1" s="288"/>
-      <c r="R1" s="288"/>
-      <c r="S1" s="288"/>
-      <c r="T1" s="288"/>
-      <c r="U1" s="288"/>
-      <c r="V1" s="289"/>
-      <c r="W1" s="293" t="s">
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
+      <c r="Q1" s="242"/>
+      <c r="R1" s="242"/>
+      <c r="S1" s="242"/>
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="243"/>
+      <c r="W1" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="294"/>
-      <c r="Y1" s="294"/>
-      <c r="Z1" s="294"/>
-      <c r="AA1" s="294"/>
-      <c r="AB1" s="294"/>
-      <c r="AC1" s="294"/>
-      <c r="AD1" s="294"/>
-      <c r="AE1" s="294"/>
-      <c r="AF1" s="294"/>
-      <c r="AG1" s="294"/>
-      <c r="AH1" s="294"/>
-      <c r="AI1" s="294"/>
-      <c r="AJ1" s="295"/>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="248"/>
+      <c r="Z1" s="248"/>
+      <c r="AA1" s="248"/>
+      <c r="AB1" s="248"/>
+      <c r="AC1" s="248"/>
+      <c r="AD1" s="248"/>
+      <c r="AE1" s="248"/>
+      <c r="AF1" s="248"/>
+      <c r="AG1" s="248"/>
+      <c r="AH1" s="248"/>
+      <c r="AI1" s="248"/>
+      <c r="AJ1" s="249"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1">
-      <c r="A2" s="285"/>
-      <c r="B2" s="286"/>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="291"/>
-      <c r="G2" s="291"/>
-      <c r="H2" s="291"/>
-      <c r="I2" s="291"/>
-      <c r="J2" s="291"/>
-      <c r="K2" s="291"/>
-      <c r="L2" s="291"/>
-      <c r="M2" s="291"/>
-      <c r="N2" s="291"/>
-      <c r="O2" s="291"/>
-      <c r="P2" s="291"/>
-      <c r="Q2" s="291"/>
-      <c r="R2" s="291"/>
-      <c r="S2" s="291"/>
-      <c r="T2" s="291"/>
-      <c r="U2" s="291"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="296" t="s">
+      <c r="A2" s="239"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="245"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="246"/>
+      <c r="W2" s="250" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="297"/>
-      <c r="Y2" s="297"/>
-      <c r="Z2" s="297"/>
-      <c r="AA2" s="297"/>
-      <c r="AB2" s="297"/>
-      <c r="AC2" s="297"/>
-      <c r="AD2" s="297"/>
-      <c r="AE2" s="297"/>
-      <c r="AF2" s="297"/>
-      <c r="AG2" s="297"/>
-      <c r="AH2" s="297"/>
-      <c r="AI2" s="297"/>
-      <c r="AJ2" s="298"/>
+      <c r="X2" s="251"/>
+      <c r="Y2" s="251"/>
+      <c r="Z2" s="251"/>
+      <c r="AA2" s="251"/>
+      <c r="AB2" s="251"/>
+      <c r="AC2" s="251"/>
+      <c r="AD2" s="251"/>
+      <c r="AE2" s="251"/>
+      <c r="AF2" s="251"/>
+      <c r="AG2" s="251"/>
+      <c r="AH2" s="251"/>
+      <c r="AI2" s="251"/>
+      <c r="AJ2" s="252"/>
     </row>
     <row r="3" spans="1:47" ht="15" customHeight="1">
-      <c r="A3" s="299" t="s">
+      <c r="A3" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="300"/>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="303" t="s">
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="257" t="s">
         <v>184</v>
       </c>
-      <c r="F3" s="304"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="305"/>
-      <c r="I3" s="300" t="s">
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="254" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="300"/>
-      <c r="K3" s="300"/>
-      <c r="L3" s="309"/>
-      <c r="M3" s="311" t="s">
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="265" t="s">
         <v>183</v>
       </c>
-      <c r="N3" s="304"/>
-      <c r="O3" s="304"/>
-      <c r="P3" s="304"/>
-      <c r="Q3" s="304"/>
-      <c r="R3" s="304"/>
-      <c r="S3" s="304"/>
-      <c r="T3" s="304"/>
-      <c r="U3" s="304"/>
-      <c r="V3" s="312"/>
+      <c r="N3" s="258"/>
+      <c r="O3" s="258"/>
+      <c r="P3" s="258"/>
+      <c r="Q3" s="258"/>
+      <c r="R3" s="258"/>
+      <c r="S3" s="258"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="266"/>
       <c r="W3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="315"/>
-      <c r="AA3" s="315"/>
-      <c r="AB3" s="315"/>
-      <c r="AC3" s="316"/>
+      <c r="Z3" s="269"/>
+      <c r="AA3" s="269"/>
+      <c r="AB3" s="269"/>
+      <c r="AC3" s="270"/>
       <c r="AD3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
-      <c r="AG3" s="320"/>
-      <c r="AH3" s="318"/>
-      <c r="AI3" s="318"/>
-      <c r="AJ3" s="319"/>
+      <c r="AG3" s="271"/>
+      <c r="AH3" s="272"/>
+      <c r="AI3" s="272"/>
+      <c r="AJ3" s="273"/>
     </row>
     <row r="4" spans="1:47" ht="15" customHeight="1">
-      <c r="A4" s="301"/>
-      <c r="B4" s="302"/>
-      <c r="C4" s="302"/>
-      <c r="D4" s="302"/>
-      <c r="E4" s="306"/>
-      <c r="F4" s="307"/>
-      <c r="G4" s="307"/>
-      <c r="H4" s="308"/>
-      <c r="I4" s="302"/>
-      <c r="J4" s="302"/>
-      <c r="K4" s="302"/>
-      <c r="L4" s="310"/>
-      <c r="M4" s="313"/>
-      <c r="N4" s="307"/>
-      <c r="O4" s="307"/>
-      <c r="P4" s="307"/>
-      <c r="Q4" s="307"/>
-      <c r="R4" s="307"/>
-      <c r="S4" s="307"/>
-      <c r="T4" s="307"/>
-      <c r="U4" s="307"/>
-      <c r="V4" s="314"/>
+      <c r="A4" s="255"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="261"/>
+      <c r="G4" s="261"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="264"/>
+      <c r="M4" s="267"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="261"/>
+      <c r="U4" s="261"/>
+      <c r="V4" s="268"/>
       <c r="W4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="251"/>
-      <c r="AA4" s="251"/>
-      <c r="AB4" s="251"/>
-      <c r="AC4" s="252"/>
+      <c r="Z4" s="232"/>
+      <c r="AA4" s="232"/>
+      <c r="AB4" s="232"/>
+      <c r="AC4" s="233"/>
       <c r="AD4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AE4" s="9"/>
       <c r="AF4" s="10"/>
-      <c r="AG4" s="253"/>
-      <c r="AH4" s="254"/>
-      <c r="AI4" s="254"/>
-      <c r="AJ4" s="255"/>
+      <c r="AG4" s="234"/>
+      <c r="AH4" s="235"/>
+      <c r="AI4" s="235"/>
+      <c r="AJ4" s="236"/>
     </row>
     <row r="5" spans="1:47" ht="15.75">
       <c r="A5" s="37">
@@ -14189,189 +17142,189 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU66"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:V4"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="283" t="s">
+      <c r="A1" s="237" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="287" t="s">
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="241" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="288"/>
-      <c r="G1" s="288"/>
-      <c r="H1" s="288"/>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
-      <c r="N1" s="288"/>
-      <c r="O1" s="288"/>
-      <c r="P1" s="288"/>
-      <c r="Q1" s="288"/>
-      <c r="R1" s="288"/>
-      <c r="S1" s="288"/>
-      <c r="T1" s="288"/>
-      <c r="U1" s="288"/>
-      <c r="V1" s="289"/>
-      <c r="W1" s="293" t="s">
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
+      <c r="Q1" s="242"/>
+      <c r="R1" s="242"/>
+      <c r="S1" s="242"/>
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="243"/>
+      <c r="W1" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="294"/>
-      <c r="Y1" s="294"/>
-      <c r="Z1" s="294"/>
-      <c r="AA1" s="294"/>
-      <c r="AB1" s="294"/>
-      <c r="AC1" s="294"/>
-      <c r="AD1" s="294"/>
-      <c r="AE1" s="294"/>
-      <c r="AF1" s="294"/>
-      <c r="AG1" s="294"/>
-      <c r="AH1" s="294"/>
-      <c r="AI1" s="294"/>
-      <c r="AJ1" s="295"/>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="248"/>
+      <c r="Z1" s="248"/>
+      <c r="AA1" s="248"/>
+      <c r="AB1" s="248"/>
+      <c r="AC1" s="248"/>
+      <c r="AD1" s="248"/>
+      <c r="AE1" s="248"/>
+      <c r="AF1" s="248"/>
+      <c r="AG1" s="248"/>
+      <c r="AH1" s="248"/>
+      <c r="AI1" s="248"/>
+      <c r="AJ1" s="249"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1">
-      <c r="A2" s="285"/>
-      <c r="B2" s="286"/>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="291"/>
-      <c r="G2" s="291"/>
-      <c r="H2" s="291"/>
-      <c r="I2" s="291"/>
-      <c r="J2" s="291"/>
-      <c r="K2" s="291"/>
-      <c r="L2" s="291"/>
-      <c r="M2" s="291"/>
-      <c r="N2" s="291"/>
-      <c r="O2" s="291"/>
-      <c r="P2" s="291"/>
-      <c r="Q2" s="291"/>
-      <c r="R2" s="291"/>
-      <c r="S2" s="291"/>
-      <c r="T2" s="291"/>
-      <c r="U2" s="291"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="296" t="s">
+      <c r="A2" s="239"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="245"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="246"/>
+      <c r="W2" s="250" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="297"/>
-      <c r="Y2" s="297"/>
-      <c r="Z2" s="297"/>
-      <c r="AA2" s="297"/>
-      <c r="AB2" s="297"/>
-      <c r="AC2" s="297"/>
-      <c r="AD2" s="297"/>
-      <c r="AE2" s="297"/>
-      <c r="AF2" s="297"/>
-      <c r="AG2" s="297"/>
-      <c r="AH2" s="297"/>
-      <c r="AI2" s="297"/>
-      <c r="AJ2" s="298"/>
+      <c r="X2" s="251"/>
+      <c r="Y2" s="251"/>
+      <c r="Z2" s="251"/>
+      <c r="AA2" s="251"/>
+      <c r="AB2" s="251"/>
+      <c r="AC2" s="251"/>
+      <c r="AD2" s="251"/>
+      <c r="AE2" s="251"/>
+      <c r="AF2" s="251"/>
+      <c r="AG2" s="251"/>
+      <c r="AH2" s="251"/>
+      <c r="AI2" s="251"/>
+      <c r="AJ2" s="252"/>
     </row>
     <row r="3" spans="1:47" ht="15" customHeight="1">
-      <c r="A3" s="299" t="s">
+      <c r="A3" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="300"/>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="303"/>
-      <c r="F3" s="304"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="305"/>
-      <c r="I3" s="300" t="s">
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="254" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="300"/>
-      <c r="K3" s="300"/>
-      <c r="L3" s="309"/>
-      <c r="M3" s="311" t="s">
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="265" t="s">
         <v>249</v>
       </c>
-      <c r="N3" s="304"/>
-      <c r="O3" s="304"/>
-      <c r="P3" s="304"/>
-      <c r="Q3" s="304"/>
-      <c r="R3" s="304"/>
-      <c r="S3" s="304"/>
-      <c r="T3" s="304"/>
-      <c r="U3" s="304"/>
-      <c r="V3" s="312"/>
+      <c r="N3" s="258"/>
+      <c r="O3" s="258"/>
+      <c r="P3" s="258"/>
+      <c r="Q3" s="258"/>
+      <c r="R3" s="258"/>
+      <c r="S3" s="258"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="266"/>
       <c r="W3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="315"/>
-      <c r="AA3" s="315"/>
-      <c r="AB3" s="315"/>
-      <c r="AC3" s="316"/>
+      <c r="Z3" s="269"/>
+      <c r="AA3" s="269"/>
+      <c r="AB3" s="269"/>
+      <c r="AC3" s="270"/>
       <c r="AD3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
-      <c r="AG3" s="320"/>
-      <c r="AH3" s="318"/>
-      <c r="AI3" s="318"/>
-      <c r="AJ3" s="319"/>
+      <c r="AG3" s="271"/>
+      <c r="AH3" s="272"/>
+      <c r="AI3" s="272"/>
+      <c r="AJ3" s="273"/>
     </row>
     <row r="4" spans="1:47" ht="15" customHeight="1">
-      <c r="A4" s="301"/>
-      <c r="B4" s="302"/>
-      <c r="C4" s="302"/>
-      <c r="D4" s="302"/>
-      <c r="E4" s="306"/>
-      <c r="F4" s="307"/>
-      <c r="G4" s="307"/>
-      <c r="H4" s="308"/>
-      <c r="I4" s="302"/>
-      <c r="J4" s="302"/>
-      <c r="K4" s="302"/>
-      <c r="L4" s="310"/>
-      <c r="M4" s="313"/>
-      <c r="N4" s="307"/>
-      <c r="O4" s="307"/>
-      <c r="P4" s="307"/>
-      <c r="Q4" s="307"/>
-      <c r="R4" s="307"/>
-      <c r="S4" s="307"/>
-      <c r="T4" s="307"/>
-      <c r="U4" s="307"/>
-      <c r="V4" s="314"/>
+      <c r="A4" s="255"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="261"/>
+      <c r="G4" s="261"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="264"/>
+      <c r="M4" s="267"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="261"/>
+      <c r="U4" s="261"/>
+      <c r="V4" s="268"/>
       <c r="W4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="251"/>
-      <c r="AA4" s="251"/>
-      <c r="AB4" s="251"/>
-      <c r="AC4" s="252"/>
+      <c r="Z4" s="232"/>
+      <c r="AA4" s="232"/>
+      <c r="AB4" s="232"/>
+      <c r="AC4" s="233"/>
       <c r="AD4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AE4" s="9"/>
       <c r="AF4" s="10"/>
-      <c r="AG4" s="253"/>
-      <c r="AH4" s="254"/>
-      <c r="AI4" s="254"/>
-      <c r="AJ4" s="255"/>
+      <c r="AG4" s="234"/>
+      <c r="AH4" s="235"/>
+      <c r="AI4" s="235"/>
+      <c r="AJ4" s="236"/>
     </row>
     <row r="5" spans="1:47" ht="15.75">
       <c r="A5" s="218" t="s">
@@ -15895,189 +18848,189 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU83"/>
+  <dimension ref="A1:AU98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="283" t="s">
+      <c r="A1" s="237" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="287" t="s">
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="241" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="288"/>
-      <c r="G1" s="288"/>
-      <c r="H1" s="288"/>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
-      <c r="N1" s="288"/>
-      <c r="O1" s="288"/>
-      <c r="P1" s="288"/>
-      <c r="Q1" s="288"/>
-      <c r="R1" s="288"/>
-      <c r="S1" s="288"/>
-      <c r="T1" s="288"/>
-      <c r="U1" s="288"/>
-      <c r="V1" s="289"/>
-      <c r="W1" s="293" t="s">
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
+      <c r="Q1" s="242"/>
+      <c r="R1" s="242"/>
+      <c r="S1" s="242"/>
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="243"/>
+      <c r="W1" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="294"/>
-      <c r="Y1" s="294"/>
-      <c r="Z1" s="294"/>
-      <c r="AA1" s="294"/>
-      <c r="AB1" s="294"/>
-      <c r="AC1" s="294"/>
-      <c r="AD1" s="294"/>
-      <c r="AE1" s="294"/>
-      <c r="AF1" s="294"/>
-      <c r="AG1" s="294"/>
-      <c r="AH1" s="294"/>
-      <c r="AI1" s="294"/>
-      <c r="AJ1" s="295"/>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="248"/>
+      <c r="Z1" s="248"/>
+      <c r="AA1" s="248"/>
+      <c r="AB1" s="248"/>
+      <c r="AC1" s="248"/>
+      <c r="AD1" s="248"/>
+      <c r="AE1" s="248"/>
+      <c r="AF1" s="248"/>
+      <c r="AG1" s="248"/>
+      <c r="AH1" s="248"/>
+      <c r="AI1" s="248"/>
+      <c r="AJ1" s="249"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="285"/>
-      <c r="B2" s="286"/>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="291"/>
-      <c r="G2" s="291"/>
-      <c r="H2" s="291"/>
-      <c r="I2" s="291"/>
-      <c r="J2" s="291"/>
-      <c r="K2" s="291"/>
-      <c r="L2" s="291"/>
-      <c r="M2" s="291"/>
-      <c r="N2" s="291"/>
-      <c r="O2" s="291"/>
-      <c r="P2" s="291"/>
-      <c r="Q2" s="291"/>
-      <c r="R2" s="291"/>
-      <c r="S2" s="291"/>
-      <c r="T2" s="291"/>
-      <c r="U2" s="291"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="296" t="s">
+      <c r="A2" s="239"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="245"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="246"/>
+      <c r="W2" s="250" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="297"/>
-      <c r="Y2" s="297"/>
-      <c r="Z2" s="297"/>
-      <c r="AA2" s="297"/>
-      <c r="AB2" s="297"/>
-      <c r="AC2" s="297"/>
-      <c r="AD2" s="297"/>
-      <c r="AE2" s="297"/>
-      <c r="AF2" s="297"/>
-      <c r="AG2" s="297"/>
-      <c r="AH2" s="297"/>
-      <c r="AI2" s="297"/>
-      <c r="AJ2" s="298"/>
+      <c r="X2" s="251"/>
+      <c r="Y2" s="251"/>
+      <c r="Z2" s="251"/>
+      <c r="AA2" s="251"/>
+      <c r="AB2" s="251"/>
+      <c r="AC2" s="251"/>
+      <c r="AD2" s="251"/>
+      <c r="AE2" s="251"/>
+      <c r="AF2" s="251"/>
+      <c r="AG2" s="251"/>
+      <c r="AH2" s="251"/>
+      <c r="AI2" s="251"/>
+      <c r="AJ2" s="252"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="299" t="s">
+      <c r="A3" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="300"/>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="303"/>
-      <c r="F3" s="304"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="305"/>
-      <c r="I3" s="300" t="s">
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="254" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="300"/>
-      <c r="K3" s="300"/>
-      <c r="L3" s="309"/>
-      <c r="M3" s="311" t="s">
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="265" t="s">
         <v>249</v>
       </c>
-      <c r="N3" s="304"/>
-      <c r="O3" s="304"/>
-      <c r="P3" s="304"/>
-      <c r="Q3" s="304"/>
-      <c r="R3" s="304"/>
-      <c r="S3" s="304"/>
-      <c r="T3" s="304"/>
-      <c r="U3" s="304"/>
-      <c r="V3" s="312"/>
+      <c r="N3" s="258"/>
+      <c r="O3" s="258"/>
+      <c r="P3" s="258"/>
+      <c r="Q3" s="258"/>
+      <c r="R3" s="258"/>
+      <c r="S3" s="258"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="266"/>
       <c r="W3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="315"/>
-      <c r="AA3" s="315"/>
-      <c r="AB3" s="315"/>
-      <c r="AC3" s="316"/>
+      <c r="Z3" s="269"/>
+      <c r="AA3" s="269"/>
+      <c r="AB3" s="269"/>
+      <c r="AC3" s="270"/>
       <c r="AD3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
-      <c r="AG3" s="320"/>
-      <c r="AH3" s="318"/>
-      <c r="AI3" s="318"/>
-      <c r="AJ3" s="319"/>
+      <c r="AG3" s="271"/>
+      <c r="AH3" s="272"/>
+      <c r="AI3" s="272"/>
+      <c r="AJ3" s="273"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1">
-      <c r="A4" s="301"/>
-      <c r="B4" s="302"/>
-      <c r="C4" s="302"/>
-      <c r="D4" s="302"/>
-      <c r="E4" s="306"/>
-      <c r="F4" s="307"/>
-      <c r="G4" s="307"/>
-      <c r="H4" s="308"/>
-      <c r="I4" s="302"/>
-      <c r="J4" s="302"/>
-      <c r="K4" s="302"/>
-      <c r="L4" s="310"/>
-      <c r="M4" s="313"/>
-      <c r="N4" s="307"/>
-      <c r="O4" s="307"/>
-      <c r="P4" s="307"/>
-      <c r="Q4" s="307"/>
-      <c r="R4" s="307"/>
-      <c r="S4" s="307"/>
-      <c r="T4" s="307"/>
-      <c r="U4" s="307"/>
-      <c r="V4" s="314"/>
+      <c r="A4" s="255"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="261"/>
+      <c r="G4" s="261"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="264"/>
+      <c r="M4" s="267"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="261"/>
+      <c r="U4" s="261"/>
+      <c r="V4" s="268"/>
       <c r="W4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="251"/>
-      <c r="AA4" s="251"/>
-      <c r="AB4" s="251"/>
-      <c r="AC4" s="252"/>
+      <c r="Z4" s="232"/>
+      <c r="AA4" s="232"/>
+      <c r="AB4" s="232"/>
+      <c r="AC4" s="233"/>
       <c r="AD4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AE4" s="9"/>
       <c r="AF4" s="10"/>
-      <c r="AG4" s="253"/>
-      <c r="AH4" s="254"/>
-      <c r="AI4" s="254"/>
-      <c r="AJ4" s="255"/>
+      <c r="AG4" s="234"/>
+      <c r="AH4" s="235"/>
+      <c r="AI4" s="235"/>
+      <c r="AJ4" s="236"/>
     </row>
     <row r="5" spans="1:36" ht="15.75">
       <c r="A5" s="218" t="s">
@@ -18161,7 +21114,7 @@
       </c>
     </row>
     <row r="60" spans="1:36">
-      <c r="Y60" s="321"/>
+      <c r="Y60" s="224"/>
       <c r="Z60" s="203"/>
       <c r="AA60" s="203"/>
       <c r="AB60" s="203"/>
@@ -18170,18 +21123,18 @@
       <c r="AE60" s="203"/>
       <c r="AF60" s="203"/>
       <c r="AG60" s="203"/>
-      <c r="AH60" s="322"/>
+      <c r="AH60" s="225"/>
     </row>
     <row r="61" spans="1:36">
       <c r="E61" t="s">
         <v>298</v>
       </c>
       <c r="Y61" s="78"/>
-      <c r="Z61" s="323" t="s">
+      <c r="Z61" s="226" t="s">
         <v>151</v>
       </c>
-      <c r="AA61" s="323"/>
-      <c r="AB61" s="323" t="s">
+      <c r="AA61" s="226"/>
+      <c r="AB61" s="226" t="s">
         <v>151</v>
       </c>
       <c r="AC61" s="1"/>
@@ -18196,14 +21149,14 @@
         <v>303</v>
       </c>
       <c r="Y62" s="78"/>
-      <c r="Z62" s="323"/>
-      <c r="AA62" s="323" t="s">
+      <c r="Z62" s="226"/>
+      <c r="AA62" s="226" t="s">
         <v>151</v>
       </c>
-      <c r="AB62" s="323" t="s">
+      <c r="AB62" s="226" t="s">
         <v>151</v>
       </c>
-      <c r="AC62" s="323" t="s">
+      <c r="AC62" s="226" t="s">
         <v>151</v>
       </c>
       <c r="AD62" s="1"/>
@@ -18217,14 +21170,14 @@
         <v>304</v>
       </c>
       <c r="Y63" s="78"/>
-      <c r="Z63" s="323" t="s">
+      <c r="Z63" s="226" t="s">
         <v>151</v>
       </c>
-      <c r="AA63" s="323"/>
-      <c r="AB63" s="323" t="s">
+      <c r="AA63" s="226"/>
+      <c r="AB63" s="226" t="s">
         <v>151</v>
       </c>
-      <c r="AC63" s="323" t="s">
+      <c r="AC63" s="226" t="s">
         <v>151</v>
       </c>
       <c r="AD63" s="1"/>
@@ -18242,11 +21195,11 @@
         <v>305</v>
       </c>
       <c r="Y64" s="78"/>
-      <c r="Z64" s="323"/>
-      <c r="AA64" s="323" t="s">
+      <c r="Z64" s="226"/>
+      <c r="AA64" s="226" t="s">
         <v>151</v>
       </c>
-      <c r="AB64" s="323" t="s">
+      <c r="AB64" s="226" t="s">
         <v>151</v>
       </c>
       <c r="AC64" s="1"/>
@@ -18289,7 +21242,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
-      <c r="AC66" s="324" t="s">
+      <c r="AC66" s="227" t="s">
         <v>302</v>
       </c>
       <c r="AD66" s="1"/>
@@ -18308,16 +21261,16 @@
       </c>
       <c r="Y67" s="78"/>
       <c r="Z67" s="1"/>
-      <c r="AA67" s="324" t="s">
+      <c r="AA67" s="227" t="s">
         <v>302</v>
       </c>
-      <c r="AB67" s="324" t="s">
+      <c r="AB67" s="227" t="s">
         <v>302</v>
       </c>
-      <c r="AC67" s="324" t="s">
+      <c r="AC67" s="227" t="s">
         <v>302</v>
       </c>
-      <c r="AD67" s="324" t="s">
+      <c r="AD67" s="227" t="s">
         <v>302</v>
       </c>
       <c r="AE67" s="1"/>
@@ -18335,13 +21288,13 @@
       </c>
       <c r="Y68" s="78"/>
       <c r="Z68" s="1"/>
-      <c r="AA68" s="324" t="s">
+      <c r="AA68" s="227" t="s">
         <v>302</v>
       </c>
-      <c r="AB68" s="324" t="s">
+      <c r="AB68" s="227" t="s">
         <v>302</v>
       </c>
-      <c r="AC68" s="324" t="s">
+      <c r="AC68" s="227" t="s">
         <v>302</v>
       </c>
       <c r="AD68" s="1"/>
@@ -18359,7 +21312,7 @@
       <c r="Y69" s="113"/>
       <c r="Z69" s="114"/>
       <c r="AA69" s="114"/>
-      <c r="AB69" s="325" t="s">
+      <c r="AB69" s="228" t="s">
         <v>302</v>
       </c>
       <c r="AC69" s="114"/>
@@ -18415,7 +21368,7 @@
       </c>
     </row>
     <row r="80" spans="2:34">
-      <c r="B80" s="326" t="s">
+      <c r="B80" s="229" t="s">
         <v>266</v>
       </c>
       <c r="C80" t="s">
@@ -18423,7 +21376,7 @@
       </c>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="326" t="s">
+      <c r="B81" s="229" t="s">
         <v>266</v>
       </c>
       <c r="C81" t="s">
@@ -18436,12 +21389,1298 @@
       </c>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="326" t="s">
+      <c r="B83" s="229" t="s">
         <v>266</v>
       </c>
       <c r="C83" t="s">
         <v>226</v>
       </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="C88" s="162" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="C89" s="230" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="C90" s="162" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="C91" s="162"/>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="C93" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="C94" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="C95" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="C96" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="12">
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:V2"/>
+    <mergeCell ref="W1:AJ1"/>
+    <mergeCell ref="W2:AJ2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="M3:V4"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AG3:AJ3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C88" r:id="rId1"/>
+    <hyperlink ref="C90" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.5" right="0.3" top="0.4" bottom="0.3" header="0.15" footer="0.15"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:36" ht="15" customHeight="1">
+      <c r="A1" s="237" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="241" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
+      <c r="Q1" s="242"/>
+      <c r="R1" s="242"/>
+      <c r="S1" s="242"/>
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="243"/>
+      <c r="W1" s="247" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="248"/>
+      <c r="Z1" s="248"/>
+      <c r="AA1" s="248"/>
+      <c r="AB1" s="248"/>
+      <c r="AC1" s="248"/>
+      <c r="AD1" s="248"/>
+      <c r="AE1" s="248"/>
+      <c r="AF1" s="248"/>
+      <c r="AG1" s="248"/>
+      <c r="AH1" s="248"/>
+      <c r="AI1" s="248"/>
+      <c r="AJ1" s="249"/>
+    </row>
+    <row r="2" spans="1:36" ht="15" customHeight="1">
+      <c r="A2" s="239"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="245"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="246"/>
+      <c r="W2" s="250" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="251"/>
+      <c r="Y2" s="251"/>
+      <c r="Z2" s="251"/>
+      <c r="AA2" s="251"/>
+      <c r="AB2" s="251"/>
+      <c r="AC2" s="251"/>
+      <c r="AD2" s="251"/>
+      <c r="AE2" s="251"/>
+      <c r="AF2" s="251"/>
+      <c r="AG2" s="251"/>
+      <c r="AH2" s="251"/>
+      <c r="AI2" s="251"/>
+      <c r="AJ2" s="252"/>
+    </row>
+    <row r="3" spans="1:36" ht="15" customHeight="1">
+      <c r="A3" s="253" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="254" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="265"/>
+      <c r="N3" s="258"/>
+      <c r="O3" s="258"/>
+      <c r="P3" s="258"/>
+      <c r="Q3" s="258"/>
+      <c r="R3" s="258"/>
+      <c r="S3" s="258"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="266"/>
+      <c r="W3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="269"/>
+      <c r="AA3" s="269"/>
+      <c r="AB3" s="269"/>
+      <c r="AC3" s="270"/>
+      <c r="AD3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="271"/>
+      <c r="AH3" s="272"/>
+      <c r="AI3" s="272"/>
+      <c r="AJ3" s="273"/>
+    </row>
+    <row r="4" spans="1:36" ht="15" customHeight="1">
+      <c r="A4" s="255"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="261"/>
+      <c r="G4" s="261"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="264"/>
+      <c r="M4" s="267"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="261"/>
+      <c r="U4" s="261"/>
+      <c r="V4" s="268"/>
+      <c r="W4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="232"/>
+      <c r="AA4" s="232"/>
+      <c r="AB4" s="232"/>
+      <c r="AC4" s="233"/>
+      <c r="AD4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="234"/>
+      <c r="AH4" s="235"/>
+      <c r="AI4" s="235"/>
+      <c r="AJ4" s="236"/>
+    </row>
+    <row r="5" spans="1:36" ht="15.75">
+      <c r="A5" s="218" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+    </row>
+    <row r="6" spans="1:36" ht="15.75">
+      <c r="A6" s="220"/>
+      <c r="B6" s="217"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="217"/>
+      <c r="G6" s="217"/>
+      <c r="H6" s="217"/>
+      <c r="I6" s="217"/>
+      <c r="J6" s="217"/>
+      <c r="K6" s="217"/>
+      <c r="L6" s="217"/>
+      <c r="M6" s="217"/>
+      <c r="N6" s="217"/>
+      <c r="O6" s="217"/>
+      <c r="P6" s="217"/>
+      <c r="Q6" s="217"/>
+      <c r="R6" s="217"/>
+      <c r="S6" s="217"/>
+      <c r="T6" s="217"/>
+      <c r="U6" s="217"/>
+      <c r="V6" s="217"/>
+      <c r="W6" s="217"/>
+      <c r="X6" s="217"/>
+      <c r="Y6" s="217"/>
+      <c r="Z6" s="217"/>
+      <c r="AA6" s="217"/>
+      <c r="AB6" s="217"/>
+      <c r="AC6" s="217"/>
+      <c r="AD6" s="217"/>
+      <c r="AE6" s="217"/>
+      <c r="AF6" s="217"/>
+      <c r="AG6" s="217"/>
+      <c r="AH6" s="217"/>
+      <c r="AI6" s="217"/>
+      <c r="AJ6" s="217"/>
+    </row>
+    <row r="7" spans="1:36" ht="15.75">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+    </row>
+    <row r="8" spans="1:36" ht="15.75">
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="41"/>
+    </row>
+    <row r="9" spans="1:36" ht="15.75">
+      <c r="A9" s="41"/>
+      <c r="B9" s="222"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+    </row>
+    <row r="10" spans="1:36" ht="15.75">
+      <c r="A10" s="41"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+    </row>
+    <row r="11" spans="1:36" ht="15.75">
+      <c r="A11" s="41"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+    </row>
+    <row r="12" spans="1:36" ht="15.75">
+      <c r="A12" s="41"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="221"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="54"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="41"/>
+    </row>
+    <row r="13" spans="1:36" ht="15.75">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="221"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+    </row>
+    <row r="14" spans="1:36" ht="15.75">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="41"/>
+    </row>
+    <row r="15" spans="1:36" ht="15.75">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="221"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="41"/>
+    </row>
+    <row r="16" spans="1:36" ht="15.75">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+    </row>
+    <row r="17" spans="1:47" ht="15.75">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="41"/>
+    </row>
+    <row r="18" spans="1:47" ht="15.75">
+      <c r="A18" s="72"/>
+      <c r="B18" s="222"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="42"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+    </row>
+    <row r="19" spans="1:47" ht="15.75">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="41"/>
+    </row>
+    <row r="20" spans="1:47" ht="15.75">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="221"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="41"/>
+    </row>
+    <row r="21" spans="1:47" ht="15.75">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="221"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="219"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+    </row>
+    <row r="22" spans="1:47" ht="15.75">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="41"/>
+      <c r="AI22" s="41"/>
+      <c r="AJ22" s="219"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+    </row>
+    <row r="23" spans="1:47" ht="15.75">
+      <c r="A23" s="42"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="60"/>
+      <c r="AB23" s="60"/>
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="60"/>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="60"/>
+      <c r="AG23" s="60"/>
+      <c r="AH23" s="60"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+    </row>
+    <row r="24" spans="1:47" ht="15.75">
+      <c r="A24" s="42"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="60"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="60"/>
+      <c r="AI24" s="41"/>
+      <c r="AJ24" s="41"/>
+    </row>
+    <row r="25" spans="1:47" ht="15.75">
+      <c r="A25" s="42"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="60"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="60"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="60"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="41"/>
+    </row>
+    <row r="26" spans="1:47" ht="15.75">
+      <c r="A26" s="42"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="60"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="60"/>
+      <c r="AG26" s="60"/>
+      <c r="AH26" s="60"/>
+      <c r="AI26" s="41"/>
+      <c r="AJ26" s="41"/>
+    </row>
+    <row r="27" spans="1:47" ht="15.75">
+      <c r="A27" s="42"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="60"/>
+      <c r="AB27" s="60"/>
+      <c r="AC27" s="60"/>
+      <c r="AD27" s="60"/>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="60"/>
+      <c r="AG27" s="60"/>
+      <c r="AH27" s="60"/>
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="41"/>
+    </row>
+    <row r="28" spans="1:47" ht="15.75">
+      <c r="A28" s="42"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="60"/>
+      <c r="Y28" s="60"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="60"/>
+      <c r="AB28" s="60"/>
+      <c r="AC28" s="60"/>
+      <c r="AD28" s="60"/>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="60"/>
+      <c r="AG28" s="60"/>
+      <c r="AH28" s="60"/>
+      <c r="AI28" s="41"/>
+      <c r="AJ28" s="41"/>
+    </row>
+    <row r="29" spans="1:47" ht="15.75">
+      <c r="A29" s="42"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="60"/>
+      <c r="AG29" s="60"/>
+      <c r="AH29" s="60"/>
+      <c r="AI29" s="41"/>
+      <c r="AJ29" s="41"/>
+    </row>
+    <row r="30" spans="1:47" ht="15.75">
+      <c r="A30" s="42"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="41"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="41"/>
+      <c r="AI30" s="41"/>
+      <c r="AJ30" s="41"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -18465,5 +22704,6 @@
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/design/GW_Design.xlsx
+++ b/doc/design/GW_Design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="15480" windowHeight="8130" tabRatio="705"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15480" windowHeight="8130" tabRatio="705" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Record of change" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Domain design" sheetId="23" r:id="rId6"/>
     <sheet name="Processing" sheetId="24" r:id="rId7"/>
     <sheet name="Dao-generate" sheetId="26" r:id="rId8"/>
+    <sheet name="Map service" sheetId="29" r:id="rId9"/>
+    <sheet name="Test data" sheetId="28" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_2.1_Danh_sách_đơn_hàng" localSheetId="2">Layout!#REF!</definedName>
@@ -39,8 +41,10 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Dao-generate'!$A$1:$AJ$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Domain design'!$A$1:$AJ$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Layout!$A$1:$AJ$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Map service'!$A$1:$AJ$109</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Processing!$A$1:$AJ$109</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Screen design'!$A$1:$AJ$284</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'Test data'!$A$1:$AJ$40</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -70,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="376">
   <si>
     <t>Date</t>
   </si>
@@ -1934,6 +1938,45 @@
   </si>
   <si>
     <t>Bổ sung trạng thái khi Tạo/Cập nhật đơn hàng</t>
+  </si>
+  <si>
+    <t>1. Introduction</t>
+  </si>
+  <si>
+    <t>Phần mềm này sẽ dùng dịch vụ Google Map để hiển thị bản đồ và một số dịch vụ khác như:</t>
+  </si>
+  <si>
+    <t>Tra địa chỉ dạng text thành vĩ độ và kinh độ; và ngược lại</t>
+  </si>
+  <si>
+    <t>Vẽ đường đi giữa 2 địa chỉ.</t>
+  </si>
+  <si>
+    <t>Để sử dụng được dịch vụ này thì cần khai báo key</t>
+  </si>
+  <si>
+    <t>Xem file cấu hình "/goodway-web2/src/main/resources/application.properties", property "map.key"</t>
+  </si>
+  <si>
+    <t>Cách làm:</t>
+  </si>
+  <si>
+    <t>Vào trang web "https://console.developers.google.com/apis/dashboard" để tạo key và thiết lập cấu hình.</t>
+  </si>
+  <si>
+    <t>Ví dụ cấu hình cho môi trường phát triển:</t>
+  </si>
+  <si>
+    <t>Trong màn hình Credentials, tạo key xong, chọn chứ năng edit</t>
+  </si>
+  <si>
+    <t>Thiết lập Application restrictions cho phép ứng dụng trên máy "http://localhost:8080" sử dụng được map key.</t>
+  </si>
+  <si>
+    <t>Thiết lập dịch vụ</t>
+  </si>
+  <si>
+    <t>Hướng dẫn sử dụng Google Map</t>
   </si>
 </sst>
 </file>
@@ -3424,7 +3467,7 @@
     <xf numFmtId="165" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="379">
+  <cellXfs count="381">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3894,6 +3937,21 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="15" fontId="25" fillId="0" borderId="38" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="25" fillId="0" borderId="39" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4006,21 +4064,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="25" fillId="0" borderId="38" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="25" fillId="0" borderId="39" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4187,6 +4230,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -6011,14 +6060,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>141828</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>65952</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>65767</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>142262</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6032,7 +6081,276 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="257175" y="8439150"/>
-          <a:ext cx="8371428" cy="5780952"/>
+          <a:ext cx="7266667" cy="4904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>96340</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>62369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="771525" y="3562351"/>
+          <a:ext cx="7811590" cy="3977143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Right Arrow 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7839075" y="6924675"/>
+          <a:ext cx="428625" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="771525" y="8048625"/>
+          <a:ext cx="6219825" cy="6534150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="771525" y="15287625"/>
+          <a:ext cx="5419725" cy="5429250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>65767</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>142262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="8439150"/>
+          <a:ext cx="7266667" cy="4904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6394,7 +6712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -6603,6 +6921,1246 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:36" ht="15" customHeight="1">
+      <c r="A1" s="287" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="291" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+      <c r="P1" s="292"/>
+      <c r="Q1" s="292"/>
+      <c r="R1" s="292"/>
+      <c r="S1" s="292"/>
+      <c r="T1" s="292"/>
+      <c r="U1" s="292"/>
+      <c r="V1" s="293"/>
+      <c r="W1" s="297" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="298"/>
+      <c r="Y1" s="298"/>
+      <c r="Z1" s="298"/>
+      <c r="AA1" s="298"/>
+      <c r="AB1" s="298"/>
+      <c r="AC1" s="298"/>
+      <c r="AD1" s="298"/>
+      <c r="AE1" s="298"/>
+      <c r="AF1" s="298"/>
+      <c r="AG1" s="298"/>
+      <c r="AH1" s="298"/>
+      <c r="AI1" s="298"/>
+      <c r="AJ1" s="299"/>
+    </row>
+    <row r="2" spans="1:36" ht="15" customHeight="1">
+      <c r="A2" s="289"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="295"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="295"/>
+      <c r="O2" s="295"/>
+      <c r="P2" s="295"/>
+      <c r="Q2" s="295"/>
+      <c r="R2" s="295"/>
+      <c r="S2" s="295"/>
+      <c r="T2" s="295"/>
+      <c r="U2" s="295"/>
+      <c r="V2" s="296"/>
+      <c r="W2" s="300" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="301"/>
+      <c r="Y2" s="301"/>
+      <c r="Z2" s="301"/>
+      <c r="AA2" s="301"/>
+      <c r="AB2" s="301"/>
+      <c r="AC2" s="301"/>
+      <c r="AD2" s="301"/>
+      <c r="AE2" s="301"/>
+      <c r="AF2" s="301"/>
+      <c r="AG2" s="301"/>
+      <c r="AH2" s="301"/>
+      <c r="AI2" s="301"/>
+      <c r="AJ2" s="302"/>
+    </row>
+    <row r="3" spans="1:36" ht="15" customHeight="1">
+      <c r="A3" s="303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="304"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="307"/>
+      <c r="F3" s="308"/>
+      <c r="G3" s="308"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="304" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="304"/>
+      <c r="K3" s="304"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="315"/>
+      <c r="N3" s="308"/>
+      <c r="O3" s="308"/>
+      <c r="P3" s="308"/>
+      <c r="Q3" s="308"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="308"/>
+      <c r="T3" s="308"/>
+      <c r="U3" s="308"/>
+      <c r="V3" s="316"/>
+      <c r="W3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="319"/>
+      <c r="AA3" s="319"/>
+      <c r="AB3" s="319"/>
+      <c r="AC3" s="320"/>
+      <c r="AD3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="321"/>
+      <c r="AH3" s="322"/>
+      <c r="AI3" s="322"/>
+      <c r="AJ3" s="323"/>
+    </row>
+    <row r="4" spans="1:36" ht="15" customHeight="1">
+      <c r="A4" s="305"/>
+      <c r="B4" s="306"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="311"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="306"/>
+      <c r="J4" s="306"/>
+      <c r="K4" s="306"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="317"/>
+      <c r="N4" s="311"/>
+      <c r="O4" s="311"/>
+      <c r="P4" s="311"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="311"/>
+      <c r="T4" s="311"/>
+      <c r="U4" s="311"/>
+      <c r="V4" s="318"/>
+      <c r="W4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="281"/>
+      <c r="AA4" s="281"/>
+      <c r="AB4" s="281"/>
+      <c r="AC4" s="282"/>
+      <c r="AD4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="283"/>
+      <c r="AH4" s="284"/>
+      <c r="AI4" s="284"/>
+      <c r="AJ4" s="285"/>
+    </row>
+    <row r="5" spans="1:36" ht="15.75">
+      <c r="A5" s="216" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+    </row>
+    <row r="6" spans="1:36" ht="15.75">
+      <c r="A6" s="218"/>
+      <c r="B6" s="215"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="215"/>
+      <c r="F6" s="215"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="215"/>
+      <c r="I6" s="215"/>
+      <c r="J6" s="215"/>
+      <c r="K6" s="215"/>
+      <c r="L6" s="215"/>
+      <c r="M6" s="215"/>
+      <c r="N6" s="215"/>
+      <c r="O6" s="215"/>
+      <c r="P6" s="215"/>
+      <c r="Q6" s="215"/>
+      <c r="R6" s="215"/>
+      <c r="S6" s="215"/>
+      <c r="T6" s="215"/>
+      <c r="U6" s="215"/>
+      <c r="V6" s="215"/>
+      <c r="W6" s="215"/>
+      <c r="X6" s="215"/>
+      <c r="Y6" s="215"/>
+      <c r="Z6" s="215"/>
+      <c r="AA6" s="215"/>
+      <c r="AB6" s="215"/>
+      <c r="AC6" s="215"/>
+      <c r="AD6" s="215"/>
+      <c r="AE6" s="215"/>
+      <c r="AF6" s="215"/>
+      <c r="AG6" s="215"/>
+      <c r="AH6" s="215"/>
+      <c r="AI6" s="215"/>
+      <c r="AJ6" s="215"/>
+    </row>
+    <row r="7" spans="1:36" ht="15.75">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+    </row>
+    <row r="8" spans="1:36" ht="15.75">
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="42">
+        <v>1</v>
+      </c>
+      <c r="E8" s="42">
+        <v>2</v>
+      </c>
+      <c r="F8" s="42">
+        <v>3</v>
+      </c>
+      <c r="G8" s="42">
+        <v>4</v>
+      </c>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="41"/>
+    </row>
+    <row r="9" spans="1:36" ht="15.75">
+      <c r="A9" s="41"/>
+      <c r="B9" s="220"/>
+      <c r="C9" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="42">
+        <v>4</v>
+      </c>
+      <c r="E9" s="41">
+        <v>5</v>
+      </c>
+      <c r="F9" s="53">
+        <v>6</v>
+      </c>
+      <c r="G9" s="53">
+        <v>7</v>
+      </c>
+      <c r="H9" s="43"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+    </row>
+    <row r="10" spans="1:36" ht="15.75">
+      <c r="A10" s="41"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+    </row>
+    <row r="11" spans="1:36" ht="15.75">
+      <c r="A11" s="41"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+    </row>
+    <row r="12" spans="1:36" ht="15.75">
+      <c r="A12" s="41"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="54"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="41"/>
+    </row>
+    <row r="13" spans="1:36" ht="15.75">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+    </row>
+    <row r="14" spans="1:36" ht="15.75">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="41"/>
+    </row>
+    <row r="15" spans="1:36" ht="15.75">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="41"/>
+    </row>
+    <row r="16" spans="1:36" ht="15.75">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="219"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+    </row>
+    <row r="17" spans="1:47" ht="15.75">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="41"/>
+    </row>
+    <row r="18" spans="1:47" ht="15.75">
+      <c r="A18" s="72"/>
+      <c r="B18" s="220"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="42"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+    </row>
+    <row r="19" spans="1:47" ht="15.75">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="41"/>
+    </row>
+    <row r="20" spans="1:47" ht="15.75">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="41"/>
+    </row>
+    <row r="21" spans="1:47" ht="15.75">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="217"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+    </row>
+    <row r="22" spans="1:47" ht="15.75">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="41"/>
+      <c r="AI22" s="41"/>
+      <c r="AJ22" s="217"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+    </row>
+    <row r="23" spans="1:47" ht="15.75">
+      <c r="A23" s="42"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="60"/>
+      <c r="AB23" s="60"/>
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="60"/>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="60"/>
+      <c r="AG23" s="60"/>
+      <c r="AH23" s="60"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+    </row>
+    <row r="24" spans="1:47" ht="15.75">
+      <c r="A24" s="42"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="60"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="60"/>
+      <c r="AI24" s="41"/>
+      <c r="AJ24" s="41"/>
+    </row>
+    <row r="25" spans="1:47" ht="15.75">
+      <c r="A25" s="42"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="60"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="60"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="60"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="41"/>
+    </row>
+    <row r="26" spans="1:47" ht="15.75">
+      <c r="A26" s="42"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="60"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="60"/>
+      <c r="AG26" s="60"/>
+      <c r="AH26" s="60"/>
+      <c r="AI26" s="41"/>
+      <c r="AJ26" s="41"/>
+    </row>
+    <row r="27" spans="1:47" ht="15.75">
+      <c r="A27" s="42"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="60"/>
+      <c r="AB27" s="60"/>
+      <c r="AC27" s="60"/>
+      <c r="AD27" s="60"/>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="60"/>
+      <c r="AG27" s="60"/>
+      <c r="AH27" s="60"/>
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="41"/>
+    </row>
+    <row r="28" spans="1:47" ht="15.75">
+      <c r="A28" s="42"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="60"/>
+      <c r="Y28" s="60"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="60"/>
+      <c r="AB28" s="60"/>
+      <c r="AC28" s="60"/>
+      <c r="AD28" s="60"/>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="60"/>
+      <c r="AG28" s="60"/>
+      <c r="AH28" s="60"/>
+      <c r="AI28" s="41"/>
+      <c r="AJ28" s="41"/>
+    </row>
+    <row r="29" spans="1:47" ht="15.75">
+      <c r="A29" s="42"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="60"/>
+      <c r="AG29" s="60"/>
+      <c r="AH29" s="60"/>
+      <c r="AI29" s="41"/>
+      <c r="AJ29" s="41"/>
+    </row>
+    <row r="30" spans="1:47" ht="15.75">
+      <c r="A30" s="42"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="41"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="41"/>
+      <c r="AI30" s="41"/>
+      <c r="AJ30" s="41"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="12">
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:V2"/>
+    <mergeCell ref="W1:AJ1"/>
+    <mergeCell ref="W2:AJ2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="M3:V4"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AG3:AJ3"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.3" top="0.4" bottom="0.3" header="0.15" footer="0.15"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ24"/>
@@ -6614,176 +8172,176 @@
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="287" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="286" t="s">
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="291" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
-      <c r="Q1" s="287"/>
-      <c r="R1" s="287"/>
-      <c r="S1" s="287"/>
-      <c r="T1" s="287"/>
-      <c r="U1" s="287"/>
-      <c r="V1" s="288"/>
-      <c r="W1" s="292" t="s">
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+      <c r="P1" s="292"/>
+      <c r="Q1" s="292"/>
+      <c r="R1" s="292"/>
+      <c r="S1" s="292"/>
+      <c r="T1" s="292"/>
+      <c r="U1" s="292"/>
+      <c r="V1" s="293"/>
+      <c r="W1" s="297" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="293"/>
-      <c r="Y1" s="293"/>
-      <c r="Z1" s="293"/>
-      <c r="AA1" s="293"/>
-      <c r="AB1" s="293"/>
-      <c r="AC1" s="293"/>
-      <c r="AD1" s="293"/>
-      <c r="AE1" s="293"/>
-      <c r="AF1" s="293"/>
-      <c r="AG1" s="293"/>
-      <c r="AH1" s="293"/>
-      <c r="AI1" s="293"/>
-      <c r="AJ1" s="294"/>
+      <c r="X1" s="298"/>
+      <c r="Y1" s="298"/>
+      <c r="Z1" s="298"/>
+      <c r="AA1" s="298"/>
+      <c r="AB1" s="298"/>
+      <c r="AC1" s="298"/>
+      <c r="AD1" s="298"/>
+      <c r="AE1" s="298"/>
+      <c r="AF1" s="298"/>
+      <c r="AG1" s="298"/>
+      <c r="AH1" s="298"/>
+      <c r="AI1" s="298"/>
+      <c r="AJ1" s="299"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="284"/>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
-      <c r="M2" s="290"/>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
-      <c r="P2" s="290"/>
-      <c r="Q2" s="290"/>
-      <c r="R2" s="290"/>
-      <c r="S2" s="290"/>
-      <c r="T2" s="290"/>
-      <c r="U2" s="290"/>
-      <c r="V2" s="291"/>
-      <c r="W2" s="295" t="s">
+      <c r="A2" s="289"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="295"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="295"/>
+      <c r="O2" s="295"/>
+      <c r="P2" s="295"/>
+      <c r="Q2" s="295"/>
+      <c r="R2" s="295"/>
+      <c r="S2" s="295"/>
+      <c r="T2" s="295"/>
+      <c r="U2" s="295"/>
+      <c r="V2" s="296"/>
+      <c r="W2" s="300" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="296"/>
-      <c r="Y2" s="296"/>
-      <c r="Z2" s="296"/>
-      <c r="AA2" s="296"/>
-      <c r="AB2" s="296"/>
-      <c r="AC2" s="296"/>
-      <c r="AD2" s="296"/>
-      <c r="AE2" s="296"/>
-      <c r="AF2" s="296"/>
-      <c r="AG2" s="296"/>
-      <c r="AH2" s="296"/>
-      <c r="AI2" s="296"/>
-      <c r="AJ2" s="297"/>
+      <c r="X2" s="301"/>
+      <c r="Y2" s="301"/>
+      <c r="Z2" s="301"/>
+      <c r="AA2" s="301"/>
+      <c r="AB2" s="301"/>
+      <c r="AC2" s="301"/>
+      <c r="AD2" s="301"/>
+      <c r="AE2" s="301"/>
+      <c r="AF2" s="301"/>
+      <c r="AG2" s="301"/>
+      <c r="AH2" s="301"/>
+      <c r="AI2" s="301"/>
+      <c r="AJ2" s="302"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="298" t="s">
+      <c r="A3" s="303" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="302"/>
-      <c r="F3" s="303"/>
-      <c r="G3" s="303"/>
-      <c r="H3" s="304"/>
-      <c r="I3" s="299" t="s">
+      <c r="B3" s="304"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="307"/>
+      <c r="F3" s="308"/>
+      <c r="G3" s="308"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="299"/>
-      <c r="K3" s="299"/>
-      <c r="L3" s="308"/>
-      <c r="M3" s="310"/>
-      <c r="N3" s="303"/>
-      <c r="O3" s="303"/>
-      <c r="P3" s="303"/>
-      <c r="Q3" s="303"/>
-      <c r="R3" s="303"/>
-      <c r="S3" s="303"/>
-      <c r="T3" s="303"/>
-      <c r="U3" s="303"/>
-      <c r="V3" s="311"/>
+      <c r="J3" s="304"/>
+      <c r="K3" s="304"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="315"/>
+      <c r="N3" s="308"/>
+      <c r="O3" s="308"/>
+      <c r="P3" s="308"/>
+      <c r="Q3" s="308"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="308"/>
+      <c r="T3" s="308"/>
+      <c r="U3" s="308"/>
+      <c r="V3" s="316"/>
       <c r="W3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="314"/>
-      <c r="AA3" s="314"/>
-      <c r="AB3" s="314"/>
-      <c r="AC3" s="315"/>
+      <c r="Z3" s="319"/>
+      <c r="AA3" s="319"/>
+      <c r="AB3" s="319"/>
+      <c r="AC3" s="320"/>
       <c r="AD3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
-      <c r="AG3" s="316"/>
-      <c r="AH3" s="317"/>
-      <c r="AI3" s="317"/>
-      <c r="AJ3" s="318"/>
+      <c r="AG3" s="321"/>
+      <c r="AH3" s="322"/>
+      <c r="AI3" s="322"/>
+      <c r="AJ3" s="323"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1">
-      <c r="A4" s="300"/>
-      <c r="B4" s="301"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="305"/>
-      <c r="F4" s="306"/>
-      <c r="G4" s="306"/>
-      <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="309"/>
-      <c r="M4" s="312"/>
-      <c r="N4" s="306"/>
-      <c r="O4" s="306"/>
-      <c r="P4" s="306"/>
-      <c r="Q4" s="306"/>
-      <c r="R4" s="306"/>
-      <c r="S4" s="306"/>
-      <c r="T4" s="306"/>
-      <c r="U4" s="306"/>
-      <c r="V4" s="313"/>
+      <c r="A4" s="305"/>
+      <c r="B4" s="306"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="311"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="306"/>
+      <c r="J4" s="306"/>
+      <c r="K4" s="306"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="317"/>
+      <c r="N4" s="311"/>
+      <c r="O4" s="311"/>
+      <c r="P4" s="311"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="311"/>
+      <c r="T4" s="311"/>
+      <c r="U4" s="311"/>
+      <c r="V4" s="318"/>
       <c r="W4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="319"/>
-      <c r="AA4" s="319"/>
-      <c r="AB4" s="319"/>
-      <c r="AC4" s="320"/>
+      <c r="Z4" s="281"/>
+      <c r="AA4" s="281"/>
+      <c r="AB4" s="281"/>
+      <c r="AC4" s="282"/>
       <c r="AD4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AE4" s="9"/>
       <c r="AF4" s="10"/>
-      <c r="AG4" s="321"/>
-      <c r="AH4" s="322"/>
-      <c r="AI4" s="322"/>
-      <c r="AJ4" s="323"/>
+      <c r="AG4" s="283"/>
+      <c r="AH4" s="284"/>
+      <c r="AI4" s="284"/>
+      <c r="AJ4" s="285"/>
     </row>
     <row r="5" spans="1:36" ht="15.75">
       <c r="A5" s="216" t="s">
@@ -6965,7 +8523,7 @@
       <c r="G9" s="280"/>
       <c r="H9" s="280"/>
       <c r="I9" s="280"/>
-      <c r="J9" s="281" t="s">
+      <c r="J9" s="286" t="s">
         <v>344</v>
       </c>
       <c r="K9" s="280"/>
@@ -7550,7 +9108,7 @@
       <c r="G24" s="280"/>
       <c r="H24" s="280"/>
       <c r="I24" s="280"/>
-      <c r="J24" s="281"/>
+      <c r="J24" s="286"/>
       <c r="K24" s="280"/>
       <c r="L24" s="280"/>
       <c r="M24" s="280"/>
@@ -7580,12 +9138,26 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="36">
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="J8:AI8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="J9:AI9"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="J24:AI24"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="J15:AI15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="J16:AI16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="J17:AI17"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="J13:AI13"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="J14:AI14"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="J23:AI23"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="J10:AI10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="J11:AI11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="J12:AI12"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:V2"/>
     <mergeCell ref="W1:AJ1"/>
@@ -7596,26 +9168,12 @@
     <mergeCell ref="M3:V4"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="J10:AI10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="J11:AI11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="J12:AI12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="J13:AI13"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="J14:AI14"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="J23:AI23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="J24:AI24"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="J15:AI15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="J16:AI16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="J17:AI17"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="J8:AI8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="J9:AI9"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.3" top="0.4" bottom="0.3" header="0.15" footer="0.15"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7637,131 +9195,131 @@
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="287" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="286" t="s">
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="291" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
-      <c r="Q1" s="287"/>
-      <c r="R1" s="287"/>
-      <c r="S1" s="287"/>
-      <c r="T1" s="287"/>
-      <c r="U1" s="287"/>
-      <c r="V1" s="288"/>
-      <c r="W1" s="292" t="s">
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+      <c r="P1" s="292"/>
+      <c r="Q1" s="292"/>
+      <c r="R1" s="292"/>
+      <c r="S1" s="292"/>
+      <c r="T1" s="292"/>
+      <c r="U1" s="292"/>
+      <c r="V1" s="293"/>
+      <c r="W1" s="297" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="293"/>
-      <c r="Y1" s="293"/>
-      <c r="Z1" s="293"/>
-      <c r="AA1" s="293"/>
-      <c r="AB1" s="293"/>
-      <c r="AC1" s="293"/>
-      <c r="AD1" s="293"/>
-      <c r="AE1" s="293"/>
-      <c r="AF1" s="293"/>
-      <c r="AG1" s="293"/>
-      <c r="AH1" s="293"/>
-      <c r="AI1" s="293"/>
-      <c r="AJ1" s="294"/>
+      <c r="X1" s="298"/>
+      <c r="Y1" s="298"/>
+      <c r="Z1" s="298"/>
+      <c r="AA1" s="298"/>
+      <c r="AB1" s="298"/>
+      <c r="AC1" s="298"/>
+      <c r="AD1" s="298"/>
+      <c r="AE1" s="298"/>
+      <c r="AF1" s="298"/>
+      <c r="AG1" s="298"/>
+      <c r="AH1" s="298"/>
+      <c r="AI1" s="298"/>
+      <c r="AJ1" s="299"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1">
-      <c r="A2" s="284"/>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
-      <c r="M2" s="290"/>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
-      <c r="P2" s="290"/>
-      <c r="Q2" s="290"/>
-      <c r="R2" s="290"/>
-      <c r="S2" s="290"/>
-      <c r="T2" s="290"/>
-      <c r="U2" s="290"/>
-      <c r="V2" s="291"/>
-      <c r="W2" s="295" t="s">
+      <c r="A2" s="289"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="295"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="295"/>
+      <c r="O2" s="295"/>
+      <c r="P2" s="295"/>
+      <c r="Q2" s="295"/>
+      <c r="R2" s="295"/>
+      <c r="S2" s="295"/>
+      <c r="T2" s="295"/>
+      <c r="U2" s="295"/>
+      <c r="V2" s="296"/>
+      <c r="W2" s="300" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="296"/>
-      <c r="Y2" s="296"/>
-      <c r="Z2" s="296"/>
-      <c r="AA2" s="296"/>
-      <c r="AB2" s="296"/>
-      <c r="AC2" s="296"/>
-      <c r="AD2" s="296"/>
-      <c r="AE2" s="296"/>
-      <c r="AF2" s="296"/>
-      <c r="AG2" s="296"/>
-      <c r="AH2" s="296"/>
-      <c r="AI2" s="296"/>
-      <c r="AJ2" s="297"/>
+      <c r="X2" s="301"/>
+      <c r="Y2" s="301"/>
+      <c r="Z2" s="301"/>
+      <c r="AA2" s="301"/>
+      <c r="AB2" s="301"/>
+      <c r="AC2" s="301"/>
+      <c r="AD2" s="301"/>
+      <c r="AE2" s="301"/>
+      <c r="AF2" s="301"/>
+      <c r="AG2" s="301"/>
+      <c r="AH2" s="301"/>
+      <c r="AI2" s="301"/>
+      <c r="AJ2" s="302"/>
     </row>
     <row r="3" spans="1:47" ht="15" customHeight="1">
-      <c r="A3" s="298" t="s">
+      <c r="A3" s="303" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="302" t="s">
+      <c r="B3" s="304"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="307" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="303"/>
-      <c r="G3" s="303"/>
-      <c r="H3" s="304"/>
-      <c r="I3" s="299" t="s">
+      <c r="F3" s="308"/>
+      <c r="G3" s="308"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="299"/>
-      <c r="K3" s="299"/>
-      <c r="L3" s="308"/>
-      <c r="M3" s="310" t="s">
+      <c r="J3" s="304"/>
+      <c r="K3" s="304"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="315" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="303"/>
-      <c r="O3" s="303"/>
-      <c r="P3" s="303"/>
-      <c r="Q3" s="303"/>
-      <c r="R3" s="303"/>
-      <c r="S3" s="303"/>
-      <c r="T3" s="303"/>
-      <c r="U3" s="303"/>
-      <c r="V3" s="311"/>
+      <c r="N3" s="308"/>
+      <c r="O3" s="308"/>
+      <c r="P3" s="308"/>
+      <c r="Q3" s="308"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="308"/>
+      <c r="T3" s="308"/>
+      <c r="U3" s="308"/>
+      <c r="V3" s="316"/>
       <c r="W3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="314">
+      <c r="Z3" s="319">
         <v>43234</v>
       </c>
-      <c r="AA3" s="314"/>
-      <c r="AB3" s="314"/>
-      <c r="AC3" s="315"/>
+      <c r="AA3" s="319"/>
+      <c r="AB3" s="319"/>
+      <c r="AC3" s="320"/>
       <c r="AD3" s="5" t="s">
         <v>9</v>
       </c>
@@ -7770,51 +9328,51 @@
       <c r="AG3" s="324" t="s">
         <v>81</v>
       </c>
-      <c r="AH3" s="317"/>
-      <c r="AI3" s="317"/>
-      <c r="AJ3" s="318"/>
+      <c r="AH3" s="322"/>
+      <c r="AI3" s="322"/>
+      <c r="AJ3" s="323"/>
     </row>
     <row r="4" spans="1:47" ht="15" customHeight="1">
-      <c r="A4" s="300"/>
-      <c r="B4" s="301"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="305"/>
-      <c r="F4" s="306"/>
-      <c r="G4" s="306"/>
-      <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="309"/>
-      <c r="M4" s="312"/>
-      <c r="N4" s="306"/>
-      <c r="O4" s="306"/>
-      <c r="P4" s="306"/>
-      <c r="Q4" s="306"/>
-      <c r="R4" s="306"/>
-      <c r="S4" s="306"/>
-      <c r="T4" s="306"/>
-      <c r="U4" s="306"/>
-      <c r="V4" s="313"/>
+      <c r="A4" s="305"/>
+      <c r="B4" s="306"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="311"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="306"/>
+      <c r="J4" s="306"/>
+      <c r="K4" s="306"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="317"/>
+      <c r="N4" s="311"/>
+      <c r="O4" s="311"/>
+      <c r="P4" s="311"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="311"/>
+      <c r="T4" s="311"/>
+      <c r="U4" s="311"/>
+      <c r="V4" s="318"/>
       <c r="W4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="319"/>
-      <c r="AA4" s="319"/>
-      <c r="AB4" s="319"/>
-      <c r="AC4" s="320"/>
+      <c r="Z4" s="281"/>
+      <c r="AA4" s="281"/>
+      <c r="AB4" s="281"/>
+      <c r="AC4" s="282"/>
       <c r="AD4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AE4" s="9"/>
       <c r="AF4" s="10"/>
-      <c r="AG4" s="321"/>
-      <c r="AH4" s="322"/>
-      <c r="AI4" s="322"/>
-      <c r="AJ4" s="323"/>
+      <c r="AG4" s="283"/>
+      <c r="AH4" s="284"/>
+      <c r="AI4" s="284"/>
+      <c r="AJ4" s="285"/>
     </row>
     <row r="5" spans="1:47" ht="15.75">
       <c r="A5" s="37">
@@ -9494,138 +11052,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU271"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A84" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A108" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="287" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="286" t="s">
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="291" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
-      <c r="Q1" s="287"/>
-      <c r="R1" s="287"/>
-      <c r="S1" s="287"/>
-      <c r="T1" s="287"/>
-      <c r="U1" s="287"/>
-      <c r="V1" s="288"/>
-      <c r="W1" s="292" t="s">
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+      <c r="P1" s="292"/>
+      <c r="Q1" s="292"/>
+      <c r="R1" s="292"/>
+      <c r="S1" s="292"/>
+      <c r="T1" s="292"/>
+      <c r="U1" s="292"/>
+      <c r="V1" s="293"/>
+      <c r="W1" s="297" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="293"/>
-      <c r="Y1" s="293"/>
-      <c r="Z1" s="293"/>
-      <c r="AA1" s="293"/>
-      <c r="AB1" s="293"/>
-      <c r="AC1" s="293"/>
-      <c r="AD1" s="293"/>
-      <c r="AE1" s="293"/>
-      <c r="AF1" s="293"/>
-      <c r="AG1" s="293"/>
-      <c r="AH1" s="293"/>
-      <c r="AI1" s="293"/>
-      <c r="AJ1" s="294"/>
+      <c r="X1" s="298"/>
+      <c r="Y1" s="298"/>
+      <c r="Z1" s="298"/>
+      <c r="AA1" s="298"/>
+      <c r="AB1" s="298"/>
+      <c r="AC1" s="298"/>
+      <c r="AD1" s="298"/>
+      <c r="AE1" s="298"/>
+      <c r="AF1" s="298"/>
+      <c r="AG1" s="298"/>
+      <c r="AH1" s="298"/>
+      <c r="AI1" s="298"/>
+      <c r="AJ1" s="299"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1">
-      <c r="A2" s="284"/>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
-      <c r="M2" s="290"/>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
-      <c r="P2" s="290"/>
-      <c r="Q2" s="290"/>
-      <c r="R2" s="290"/>
-      <c r="S2" s="290"/>
-      <c r="T2" s="290"/>
-      <c r="U2" s="290"/>
-      <c r="V2" s="291"/>
-      <c r="W2" s="295" t="s">
+      <c r="A2" s="289"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="295"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="295"/>
+      <c r="O2" s="295"/>
+      <c r="P2" s="295"/>
+      <c r="Q2" s="295"/>
+      <c r="R2" s="295"/>
+      <c r="S2" s="295"/>
+      <c r="T2" s="295"/>
+      <c r="U2" s="295"/>
+      <c r="V2" s="296"/>
+      <c r="W2" s="300" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="296"/>
-      <c r="Y2" s="296"/>
-      <c r="Z2" s="296"/>
-      <c r="AA2" s="296"/>
-      <c r="AB2" s="296"/>
-      <c r="AC2" s="296"/>
-      <c r="AD2" s="296"/>
-      <c r="AE2" s="296"/>
-      <c r="AF2" s="296"/>
-      <c r="AG2" s="296"/>
-      <c r="AH2" s="296"/>
-      <c r="AI2" s="296"/>
-      <c r="AJ2" s="297"/>
+      <c r="X2" s="301"/>
+      <c r="Y2" s="301"/>
+      <c r="Z2" s="301"/>
+      <c r="AA2" s="301"/>
+      <c r="AB2" s="301"/>
+      <c r="AC2" s="301"/>
+      <c r="AD2" s="301"/>
+      <c r="AE2" s="301"/>
+      <c r="AF2" s="301"/>
+      <c r="AG2" s="301"/>
+      <c r="AH2" s="301"/>
+      <c r="AI2" s="301"/>
+      <c r="AJ2" s="302"/>
     </row>
     <row r="3" spans="1:47" ht="15" customHeight="1">
-      <c r="A3" s="298" t="s">
+      <c r="A3" s="303" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="302" t="s">
+      <c r="B3" s="304"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="307" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="303"/>
-      <c r="G3" s="303"/>
-      <c r="H3" s="304"/>
-      <c r="I3" s="299" t="s">
+      <c r="F3" s="308"/>
+      <c r="G3" s="308"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="299"/>
-      <c r="K3" s="299"/>
-      <c r="L3" s="308"/>
-      <c r="M3" s="310" t="s">
+      <c r="J3" s="304"/>
+      <c r="K3" s="304"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="315" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="303"/>
-      <c r="O3" s="303"/>
-      <c r="P3" s="303"/>
-      <c r="Q3" s="303"/>
-      <c r="R3" s="303"/>
-      <c r="S3" s="303"/>
-      <c r="T3" s="303"/>
-      <c r="U3" s="303"/>
-      <c r="V3" s="311"/>
+      <c r="N3" s="308"/>
+      <c r="O3" s="308"/>
+      <c r="P3" s="308"/>
+      <c r="Q3" s="308"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="308"/>
+      <c r="T3" s="308"/>
+      <c r="U3" s="308"/>
+      <c r="V3" s="316"/>
       <c r="W3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="314">
+      <c r="Z3" s="319">
         <v>43234</v>
       </c>
-      <c r="AA3" s="314"/>
-      <c r="AB3" s="314"/>
-      <c r="AC3" s="315"/>
+      <c r="AA3" s="319"/>
+      <c r="AB3" s="319"/>
+      <c r="AC3" s="320"/>
       <c r="AD3" s="5" t="s">
         <v>9</v>
       </c>
@@ -9634,51 +11192,51 @@
       <c r="AG3" s="324" t="s">
         <v>81</v>
       </c>
-      <c r="AH3" s="317"/>
-      <c r="AI3" s="317"/>
-      <c r="AJ3" s="318"/>
+      <c r="AH3" s="322"/>
+      <c r="AI3" s="322"/>
+      <c r="AJ3" s="323"/>
     </row>
     <row r="4" spans="1:47" ht="15" customHeight="1">
-      <c r="A4" s="300"/>
-      <c r="B4" s="301"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="305"/>
-      <c r="F4" s="306"/>
-      <c r="G4" s="306"/>
-      <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="309"/>
-      <c r="M4" s="312"/>
-      <c r="N4" s="306"/>
-      <c r="O4" s="306"/>
-      <c r="P4" s="306"/>
-      <c r="Q4" s="306"/>
-      <c r="R4" s="306"/>
-      <c r="S4" s="306"/>
-      <c r="T4" s="306"/>
-      <c r="U4" s="306"/>
-      <c r="V4" s="313"/>
+      <c r="A4" s="305"/>
+      <c r="B4" s="306"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="311"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="306"/>
+      <c r="J4" s="306"/>
+      <c r="K4" s="306"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="317"/>
+      <c r="N4" s="311"/>
+      <c r="O4" s="311"/>
+      <c r="P4" s="311"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="311"/>
+      <c r="T4" s="311"/>
+      <c r="U4" s="311"/>
+      <c r="V4" s="318"/>
       <c r="W4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="319"/>
-      <c r="AA4" s="319"/>
-      <c r="AB4" s="319"/>
-      <c r="AC4" s="320"/>
+      <c r="Z4" s="281"/>
+      <c r="AA4" s="281"/>
+      <c r="AB4" s="281"/>
+      <c r="AC4" s="282"/>
       <c r="AD4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AE4" s="9"/>
       <c r="AF4" s="10"/>
-      <c r="AG4" s="321"/>
-      <c r="AH4" s="322"/>
-      <c r="AI4" s="322"/>
-      <c r="AJ4" s="323"/>
+      <c r="AG4" s="283"/>
+      <c r="AH4" s="284"/>
+      <c r="AI4" s="284"/>
+      <c r="AJ4" s="285"/>
     </row>
     <row r="5" spans="1:47" ht="15.75">
       <c r="A5" s="37">
@@ -15842,6 +17400,16 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="21">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:V2"/>
+    <mergeCell ref="W1:AJ1"/>
+    <mergeCell ref="W2:AJ2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="M3:V4"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AG3:AJ3"/>
     <mergeCell ref="C232:F234"/>
     <mergeCell ref="I232:L234"/>
     <mergeCell ref="O232:R234"/>
@@ -15853,16 +17421,6 @@
     <mergeCell ref="C193:F195"/>
     <mergeCell ref="I193:L195"/>
     <mergeCell ref="O193:R195"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:V2"/>
-    <mergeCell ref="W1:AJ1"/>
-    <mergeCell ref="W2:AJ2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:H4"/>
-    <mergeCell ref="I3:L4"/>
-    <mergeCell ref="M3:V4"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AG3:AJ3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H61" location="NhapThongTinDonHang" display="trong mục 2.1"/>
@@ -15894,180 +17452,180 @@
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="287" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="286" t="s">
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="291" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
-      <c r="Q1" s="287"/>
-      <c r="R1" s="287"/>
-      <c r="S1" s="287"/>
-      <c r="T1" s="287"/>
-      <c r="U1" s="287"/>
-      <c r="V1" s="288"/>
-      <c r="W1" s="292" t="s">
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+      <c r="P1" s="292"/>
+      <c r="Q1" s="292"/>
+      <c r="R1" s="292"/>
+      <c r="S1" s="292"/>
+      <c r="T1" s="292"/>
+      <c r="U1" s="292"/>
+      <c r="V1" s="293"/>
+      <c r="W1" s="297" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="293"/>
-      <c r="Y1" s="293"/>
-      <c r="Z1" s="293"/>
-      <c r="AA1" s="293"/>
-      <c r="AB1" s="293"/>
-      <c r="AC1" s="293"/>
-      <c r="AD1" s="293"/>
-      <c r="AE1" s="293"/>
-      <c r="AF1" s="293"/>
-      <c r="AG1" s="293"/>
-      <c r="AH1" s="293"/>
-      <c r="AI1" s="293"/>
-      <c r="AJ1" s="294"/>
+      <c r="X1" s="298"/>
+      <c r="Y1" s="298"/>
+      <c r="Z1" s="298"/>
+      <c r="AA1" s="298"/>
+      <c r="AB1" s="298"/>
+      <c r="AC1" s="298"/>
+      <c r="AD1" s="298"/>
+      <c r="AE1" s="298"/>
+      <c r="AF1" s="298"/>
+      <c r="AG1" s="298"/>
+      <c r="AH1" s="298"/>
+      <c r="AI1" s="298"/>
+      <c r="AJ1" s="299"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1">
-      <c r="A2" s="284"/>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
-      <c r="M2" s="290"/>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
-      <c r="P2" s="290"/>
-      <c r="Q2" s="290"/>
-      <c r="R2" s="290"/>
-      <c r="S2" s="290"/>
-      <c r="T2" s="290"/>
-      <c r="U2" s="290"/>
-      <c r="V2" s="291"/>
-      <c r="W2" s="295" t="s">
+      <c r="A2" s="289"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="295"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="295"/>
+      <c r="O2" s="295"/>
+      <c r="P2" s="295"/>
+      <c r="Q2" s="295"/>
+      <c r="R2" s="295"/>
+      <c r="S2" s="295"/>
+      <c r="T2" s="295"/>
+      <c r="U2" s="295"/>
+      <c r="V2" s="296"/>
+      <c r="W2" s="300" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="296"/>
-      <c r="Y2" s="296"/>
-      <c r="Z2" s="296"/>
-      <c r="AA2" s="296"/>
-      <c r="AB2" s="296"/>
-      <c r="AC2" s="296"/>
-      <c r="AD2" s="296"/>
-      <c r="AE2" s="296"/>
-      <c r="AF2" s="296"/>
-      <c r="AG2" s="296"/>
-      <c r="AH2" s="296"/>
-      <c r="AI2" s="296"/>
-      <c r="AJ2" s="297"/>
+      <c r="X2" s="301"/>
+      <c r="Y2" s="301"/>
+      <c r="Z2" s="301"/>
+      <c r="AA2" s="301"/>
+      <c r="AB2" s="301"/>
+      <c r="AC2" s="301"/>
+      <c r="AD2" s="301"/>
+      <c r="AE2" s="301"/>
+      <c r="AF2" s="301"/>
+      <c r="AG2" s="301"/>
+      <c r="AH2" s="301"/>
+      <c r="AI2" s="301"/>
+      <c r="AJ2" s="302"/>
     </row>
     <row r="3" spans="1:47" ht="15" customHeight="1">
-      <c r="A3" s="298" t="s">
+      <c r="A3" s="303" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="302" t="s">
+      <c r="B3" s="304"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="307" t="s">
         <v>184</v>
       </c>
-      <c r="F3" s="303"/>
-      <c r="G3" s="303"/>
-      <c r="H3" s="304"/>
-      <c r="I3" s="299" t="s">
+      <c r="F3" s="308"/>
+      <c r="G3" s="308"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="299"/>
-      <c r="K3" s="299"/>
-      <c r="L3" s="308"/>
-      <c r="M3" s="310" t="s">
+      <c r="J3" s="304"/>
+      <c r="K3" s="304"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="315" t="s">
         <v>183</v>
       </c>
-      <c r="N3" s="303"/>
-      <c r="O3" s="303"/>
-      <c r="P3" s="303"/>
-      <c r="Q3" s="303"/>
-      <c r="R3" s="303"/>
-      <c r="S3" s="303"/>
-      <c r="T3" s="303"/>
-      <c r="U3" s="303"/>
-      <c r="V3" s="311"/>
+      <c r="N3" s="308"/>
+      <c r="O3" s="308"/>
+      <c r="P3" s="308"/>
+      <c r="Q3" s="308"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="308"/>
+      <c r="T3" s="308"/>
+      <c r="U3" s="308"/>
+      <c r="V3" s="316"/>
       <c r="W3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="314"/>
-      <c r="AA3" s="314"/>
-      <c r="AB3" s="314"/>
-      <c r="AC3" s="315"/>
+      <c r="Z3" s="319"/>
+      <c r="AA3" s="319"/>
+      <c r="AB3" s="319"/>
+      <c r="AC3" s="320"/>
       <c r="AD3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
-      <c r="AG3" s="316"/>
-      <c r="AH3" s="317"/>
-      <c r="AI3" s="317"/>
-      <c r="AJ3" s="318"/>
+      <c r="AG3" s="321"/>
+      <c r="AH3" s="322"/>
+      <c r="AI3" s="322"/>
+      <c r="AJ3" s="323"/>
     </row>
     <row r="4" spans="1:47" ht="15" customHeight="1">
-      <c r="A4" s="300"/>
-      <c r="B4" s="301"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="305"/>
-      <c r="F4" s="306"/>
-      <c r="G4" s="306"/>
-      <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="309"/>
-      <c r="M4" s="312"/>
-      <c r="N4" s="306"/>
-      <c r="O4" s="306"/>
-      <c r="P4" s="306"/>
-      <c r="Q4" s="306"/>
-      <c r="R4" s="306"/>
-      <c r="S4" s="306"/>
-      <c r="T4" s="306"/>
-      <c r="U4" s="306"/>
-      <c r="V4" s="313"/>
+      <c r="A4" s="305"/>
+      <c r="B4" s="306"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="311"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="306"/>
+      <c r="J4" s="306"/>
+      <c r="K4" s="306"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="317"/>
+      <c r="N4" s="311"/>
+      <c r="O4" s="311"/>
+      <c r="P4" s="311"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="311"/>
+      <c r="T4" s="311"/>
+      <c r="U4" s="311"/>
+      <c r="V4" s="318"/>
       <c r="W4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="319"/>
-      <c r="AA4" s="319"/>
-      <c r="AB4" s="319"/>
-      <c r="AC4" s="320"/>
+      <c r="Z4" s="281"/>
+      <c r="AA4" s="281"/>
+      <c r="AB4" s="281"/>
+      <c r="AC4" s="282"/>
       <c r="AD4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AE4" s="9"/>
       <c r="AF4" s="10"/>
-      <c r="AG4" s="321"/>
-      <c r="AH4" s="322"/>
-      <c r="AI4" s="322"/>
-      <c r="AJ4" s="323"/>
+      <c r="AG4" s="283"/>
+      <c r="AH4" s="284"/>
+      <c r="AI4" s="284"/>
+      <c r="AJ4" s="285"/>
     </row>
     <row r="5" spans="1:47" ht="15.75">
       <c r="A5" s="37">
@@ -17503,178 +19061,178 @@
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="287" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="286" t="s">
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="291" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
-      <c r="Q1" s="287"/>
-      <c r="R1" s="287"/>
-      <c r="S1" s="287"/>
-      <c r="T1" s="287"/>
-      <c r="U1" s="287"/>
-      <c r="V1" s="288"/>
-      <c r="W1" s="292" t="s">
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+      <c r="P1" s="292"/>
+      <c r="Q1" s="292"/>
+      <c r="R1" s="292"/>
+      <c r="S1" s="292"/>
+      <c r="T1" s="292"/>
+      <c r="U1" s="292"/>
+      <c r="V1" s="293"/>
+      <c r="W1" s="297" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="293"/>
-      <c r="Y1" s="293"/>
-      <c r="Z1" s="293"/>
-      <c r="AA1" s="293"/>
-      <c r="AB1" s="293"/>
-      <c r="AC1" s="293"/>
-      <c r="AD1" s="293"/>
-      <c r="AE1" s="293"/>
-      <c r="AF1" s="293"/>
-      <c r="AG1" s="293"/>
-      <c r="AH1" s="293"/>
-      <c r="AI1" s="293"/>
-      <c r="AJ1" s="294"/>
+      <c r="X1" s="298"/>
+      <c r="Y1" s="298"/>
+      <c r="Z1" s="298"/>
+      <c r="AA1" s="298"/>
+      <c r="AB1" s="298"/>
+      <c r="AC1" s="298"/>
+      <c r="AD1" s="298"/>
+      <c r="AE1" s="298"/>
+      <c r="AF1" s="298"/>
+      <c r="AG1" s="298"/>
+      <c r="AH1" s="298"/>
+      <c r="AI1" s="298"/>
+      <c r="AJ1" s="299"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1">
-      <c r="A2" s="284"/>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
-      <c r="M2" s="290"/>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
-      <c r="P2" s="290"/>
-      <c r="Q2" s="290"/>
-      <c r="R2" s="290"/>
-      <c r="S2" s="290"/>
-      <c r="T2" s="290"/>
-      <c r="U2" s="290"/>
-      <c r="V2" s="291"/>
-      <c r="W2" s="295" t="s">
+      <c r="A2" s="289"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="295"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="295"/>
+      <c r="O2" s="295"/>
+      <c r="P2" s="295"/>
+      <c r="Q2" s="295"/>
+      <c r="R2" s="295"/>
+      <c r="S2" s="295"/>
+      <c r="T2" s="295"/>
+      <c r="U2" s="295"/>
+      <c r="V2" s="296"/>
+      <c r="W2" s="300" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="296"/>
-      <c r="Y2" s="296"/>
-      <c r="Z2" s="296"/>
-      <c r="AA2" s="296"/>
-      <c r="AB2" s="296"/>
-      <c r="AC2" s="296"/>
-      <c r="AD2" s="296"/>
-      <c r="AE2" s="296"/>
-      <c r="AF2" s="296"/>
-      <c r="AG2" s="296"/>
-      <c r="AH2" s="296"/>
-      <c r="AI2" s="296"/>
-      <c r="AJ2" s="297"/>
+      <c r="X2" s="301"/>
+      <c r="Y2" s="301"/>
+      <c r="Z2" s="301"/>
+      <c r="AA2" s="301"/>
+      <c r="AB2" s="301"/>
+      <c r="AC2" s="301"/>
+      <c r="AD2" s="301"/>
+      <c r="AE2" s="301"/>
+      <c r="AF2" s="301"/>
+      <c r="AG2" s="301"/>
+      <c r="AH2" s="301"/>
+      <c r="AI2" s="301"/>
+      <c r="AJ2" s="302"/>
     </row>
     <row r="3" spans="1:47" ht="15" customHeight="1">
-      <c r="A3" s="298" t="s">
+      <c r="A3" s="303" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="302"/>
-      <c r="F3" s="303"/>
-      <c r="G3" s="303"/>
-      <c r="H3" s="304"/>
-      <c r="I3" s="299" t="s">
+      <c r="B3" s="304"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="307"/>
+      <c r="F3" s="308"/>
+      <c r="G3" s="308"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="299"/>
-      <c r="K3" s="299"/>
-      <c r="L3" s="308"/>
-      <c r="M3" s="310" t="s">
+      <c r="J3" s="304"/>
+      <c r="K3" s="304"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="315" t="s">
         <v>249</v>
       </c>
-      <c r="N3" s="303"/>
-      <c r="O3" s="303"/>
-      <c r="P3" s="303"/>
-      <c r="Q3" s="303"/>
-      <c r="R3" s="303"/>
-      <c r="S3" s="303"/>
-      <c r="T3" s="303"/>
-      <c r="U3" s="303"/>
-      <c r="V3" s="311"/>
+      <c r="N3" s="308"/>
+      <c r="O3" s="308"/>
+      <c r="P3" s="308"/>
+      <c r="Q3" s="308"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="308"/>
+      <c r="T3" s="308"/>
+      <c r="U3" s="308"/>
+      <c r="V3" s="316"/>
       <c r="W3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="314"/>
-      <c r="AA3" s="314"/>
-      <c r="AB3" s="314"/>
-      <c r="AC3" s="315"/>
+      <c r="Z3" s="319"/>
+      <c r="AA3" s="319"/>
+      <c r="AB3" s="319"/>
+      <c r="AC3" s="320"/>
       <c r="AD3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
-      <c r="AG3" s="316"/>
-      <c r="AH3" s="317"/>
-      <c r="AI3" s="317"/>
-      <c r="AJ3" s="318"/>
+      <c r="AG3" s="321"/>
+      <c r="AH3" s="322"/>
+      <c r="AI3" s="322"/>
+      <c r="AJ3" s="323"/>
     </row>
     <row r="4" spans="1:47" ht="15" customHeight="1">
-      <c r="A4" s="300"/>
-      <c r="B4" s="301"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="305"/>
-      <c r="F4" s="306"/>
-      <c r="G4" s="306"/>
-      <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="309"/>
-      <c r="M4" s="312"/>
-      <c r="N4" s="306"/>
-      <c r="O4" s="306"/>
-      <c r="P4" s="306"/>
-      <c r="Q4" s="306"/>
-      <c r="R4" s="306"/>
-      <c r="S4" s="306"/>
-      <c r="T4" s="306"/>
-      <c r="U4" s="306"/>
-      <c r="V4" s="313"/>
+      <c r="A4" s="305"/>
+      <c r="B4" s="306"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="311"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="306"/>
+      <c r="J4" s="306"/>
+      <c r="K4" s="306"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="317"/>
+      <c r="N4" s="311"/>
+      <c r="O4" s="311"/>
+      <c r="P4" s="311"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="311"/>
+      <c r="T4" s="311"/>
+      <c r="U4" s="311"/>
+      <c r="V4" s="318"/>
       <c r="W4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="319"/>
-      <c r="AA4" s="319"/>
-      <c r="AB4" s="319"/>
-      <c r="AC4" s="320"/>
+      <c r="Z4" s="281"/>
+      <c r="AA4" s="281"/>
+      <c r="AB4" s="281"/>
+      <c r="AC4" s="282"/>
       <c r="AD4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AE4" s="9"/>
       <c r="AF4" s="10"/>
-      <c r="AG4" s="321"/>
-      <c r="AH4" s="322"/>
-      <c r="AI4" s="322"/>
-      <c r="AJ4" s="323"/>
+      <c r="AG4" s="283"/>
+      <c r="AH4" s="284"/>
+      <c r="AI4" s="284"/>
+      <c r="AJ4" s="285"/>
     </row>
     <row r="5" spans="1:47" ht="15.75">
       <c r="A5" s="216" t="s">
@@ -19209,178 +20767,178 @@
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="287" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="286" t="s">
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="291" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
-      <c r="Q1" s="287"/>
-      <c r="R1" s="287"/>
-      <c r="S1" s="287"/>
-      <c r="T1" s="287"/>
-      <c r="U1" s="287"/>
-      <c r="V1" s="288"/>
-      <c r="W1" s="292" t="s">
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+      <c r="P1" s="292"/>
+      <c r="Q1" s="292"/>
+      <c r="R1" s="292"/>
+      <c r="S1" s="292"/>
+      <c r="T1" s="292"/>
+      <c r="U1" s="292"/>
+      <c r="V1" s="293"/>
+      <c r="W1" s="297" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="293"/>
-      <c r="Y1" s="293"/>
-      <c r="Z1" s="293"/>
-      <c r="AA1" s="293"/>
-      <c r="AB1" s="293"/>
-      <c r="AC1" s="293"/>
-      <c r="AD1" s="293"/>
-      <c r="AE1" s="293"/>
-      <c r="AF1" s="293"/>
-      <c r="AG1" s="293"/>
-      <c r="AH1" s="293"/>
-      <c r="AI1" s="293"/>
-      <c r="AJ1" s="294"/>
+      <c r="X1" s="298"/>
+      <c r="Y1" s="298"/>
+      <c r="Z1" s="298"/>
+      <c r="AA1" s="298"/>
+      <c r="AB1" s="298"/>
+      <c r="AC1" s="298"/>
+      <c r="AD1" s="298"/>
+      <c r="AE1" s="298"/>
+      <c r="AF1" s="298"/>
+      <c r="AG1" s="298"/>
+      <c r="AH1" s="298"/>
+      <c r="AI1" s="298"/>
+      <c r="AJ1" s="299"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="284"/>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
-      <c r="M2" s="290"/>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
-      <c r="P2" s="290"/>
-      <c r="Q2" s="290"/>
-      <c r="R2" s="290"/>
-      <c r="S2" s="290"/>
-      <c r="T2" s="290"/>
-      <c r="U2" s="290"/>
-      <c r="V2" s="291"/>
-      <c r="W2" s="295" t="s">
+      <c r="A2" s="289"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="295"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="295"/>
+      <c r="O2" s="295"/>
+      <c r="P2" s="295"/>
+      <c r="Q2" s="295"/>
+      <c r="R2" s="295"/>
+      <c r="S2" s="295"/>
+      <c r="T2" s="295"/>
+      <c r="U2" s="295"/>
+      <c r="V2" s="296"/>
+      <c r="W2" s="300" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="296"/>
-      <c r="Y2" s="296"/>
-      <c r="Z2" s="296"/>
-      <c r="AA2" s="296"/>
-      <c r="AB2" s="296"/>
-      <c r="AC2" s="296"/>
-      <c r="AD2" s="296"/>
-      <c r="AE2" s="296"/>
-      <c r="AF2" s="296"/>
-      <c r="AG2" s="296"/>
-      <c r="AH2" s="296"/>
-      <c r="AI2" s="296"/>
-      <c r="AJ2" s="297"/>
+      <c r="X2" s="301"/>
+      <c r="Y2" s="301"/>
+      <c r="Z2" s="301"/>
+      <c r="AA2" s="301"/>
+      <c r="AB2" s="301"/>
+      <c r="AC2" s="301"/>
+      <c r="AD2" s="301"/>
+      <c r="AE2" s="301"/>
+      <c r="AF2" s="301"/>
+      <c r="AG2" s="301"/>
+      <c r="AH2" s="301"/>
+      <c r="AI2" s="301"/>
+      <c r="AJ2" s="302"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="298" t="s">
+      <c r="A3" s="303" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="302"/>
-      <c r="F3" s="303"/>
-      <c r="G3" s="303"/>
-      <c r="H3" s="304"/>
-      <c r="I3" s="299" t="s">
+      <c r="B3" s="304"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="307"/>
+      <c r="F3" s="308"/>
+      <c r="G3" s="308"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="299"/>
-      <c r="K3" s="299"/>
-      <c r="L3" s="308"/>
-      <c r="M3" s="310" t="s">
+      <c r="J3" s="304"/>
+      <c r="K3" s="304"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="315" t="s">
         <v>249</v>
       </c>
-      <c r="N3" s="303"/>
-      <c r="O3" s="303"/>
-      <c r="P3" s="303"/>
-      <c r="Q3" s="303"/>
-      <c r="R3" s="303"/>
-      <c r="S3" s="303"/>
-      <c r="T3" s="303"/>
-      <c r="U3" s="303"/>
-      <c r="V3" s="311"/>
+      <c r="N3" s="308"/>
+      <c r="O3" s="308"/>
+      <c r="P3" s="308"/>
+      <c r="Q3" s="308"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="308"/>
+      <c r="T3" s="308"/>
+      <c r="U3" s="308"/>
+      <c r="V3" s="316"/>
       <c r="W3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="314"/>
-      <c r="AA3" s="314"/>
-      <c r="AB3" s="314"/>
-      <c r="AC3" s="315"/>
+      <c r="Z3" s="319"/>
+      <c r="AA3" s="319"/>
+      <c r="AB3" s="319"/>
+      <c r="AC3" s="320"/>
       <c r="AD3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
-      <c r="AG3" s="316"/>
-      <c r="AH3" s="317"/>
-      <c r="AI3" s="317"/>
-      <c r="AJ3" s="318"/>
+      <c r="AG3" s="321"/>
+      <c r="AH3" s="322"/>
+      <c r="AI3" s="322"/>
+      <c r="AJ3" s="323"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1">
-      <c r="A4" s="300"/>
-      <c r="B4" s="301"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="305"/>
-      <c r="F4" s="306"/>
-      <c r="G4" s="306"/>
-      <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="309"/>
-      <c r="M4" s="312"/>
-      <c r="N4" s="306"/>
-      <c r="O4" s="306"/>
-      <c r="P4" s="306"/>
-      <c r="Q4" s="306"/>
-      <c r="R4" s="306"/>
-      <c r="S4" s="306"/>
-      <c r="T4" s="306"/>
-      <c r="U4" s="306"/>
-      <c r="V4" s="313"/>
+      <c r="A4" s="305"/>
+      <c r="B4" s="306"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="311"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="306"/>
+      <c r="J4" s="306"/>
+      <c r="K4" s="306"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="317"/>
+      <c r="N4" s="311"/>
+      <c r="O4" s="311"/>
+      <c r="P4" s="311"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="311"/>
+      <c r="T4" s="311"/>
+      <c r="U4" s="311"/>
+      <c r="V4" s="318"/>
       <c r="W4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="319"/>
-      <c r="AA4" s="319"/>
-      <c r="AB4" s="319"/>
-      <c r="AC4" s="320"/>
+      <c r="Z4" s="281"/>
+      <c r="AA4" s="281"/>
+      <c r="AB4" s="281"/>
+      <c r="AC4" s="282"/>
       <c r="AD4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AE4" s="9"/>
       <c r="AF4" s="10"/>
-      <c r="AG4" s="321"/>
-      <c r="AH4" s="322"/>
-      <c r="AI4" s="322"/>
-      <c r="AJ4" s="323"/>
+      <c r="AG4" s="283"/>
+      <c r="AH4" s="284"/>
+      <c r="AI4" s="284"/>
+      <c r="AJ4" s="285"/>
     </row>
     <row r="5" spans="1:36" ht="15.75">
       <c r="A5" s="216" t="s">
@@ -21842,183 +23400,183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU30"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AI23" sqref="AI23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="287" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="286" t="s">
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="291" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
-      <c r="Q1" s="287"/>
-      <c r="R1" s="287"/>
-      <c r="S1" s="287"/>
-      <c r="T1" s="287"/>
-      <c r="U1" s="287"/>
-      <c r="V1" s="288"/>
-      <c r="W1" s="292" t="s">
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+      <c r="P1" s="292"/>
+      <c r="Q1" s="292"/>
+      <c r="R1" s="292"/>
+      <c r="S1" s="292"/>
+      <c r="T1" s="292"/>
+      <c r="U1" s="292"/>
+      <c r="V1" s="293"/>
+      <c r="W1" s="297" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="293"/>
-      <c r="Y1" s="293"/>
-      <c r="Z1" s="293"/>
-      <c r="AA1" s="293"/>
-      <c r="AB1" s="293"/>
-      <c r="AC1" s="293"/>
-      <c r="AD1" s="293"/>
-      <c r="AE1" s="293"/>
-      <c r="AF1" s="293"/>
-      <c r="AG1" s="293"/>
-      <c r="AH1" s="293"/>
-      <c r="AI1" s="293"/>
-      <c r="AJ1" s="294"/>
+      <c r="X1" s="298"/>
+      <c r="Y1" s="298"/>
+      <c r="Z1" s="298"/>
+      <c r="AA1" s="298"/>
+      <c r="AB1" s="298"/>
+      <c r="AC1" s="298"/>
+      <c r="AD1" s="298"/>
+      <c r="AE1" s="298"/>
+      <c r="AF1" s="298"/>
+      <c r="AG1" s="298"/>
+      <c r="AH1" s="298"/>
+      <c r="AI1" s="298"/>
+      <c r="AJ1" s="299"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="284"/>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
-      <c r="M2" s="290"/>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
-      <c r="P2" s="290"/>
-      <c r="Q2" s="290"/>
-      <c r="R2" s="290"/>
-      <c r="S2" s="290"/>
-      <c r="T2" s="290"/>
-      <c r="U2" s="290"/>
-      <c r="V2" s="291"/>
-      <c r="W2" s="295" t="s">
+      <c r="A2" s="289"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="295"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="295"/>
+      <c r="O2" s="295"/>
+      <c r="P2" s="295"/>
+      <c r="Q2" s="295"/>
+      <c r="R2" s="295"/>
+      <c r="S2" s="295"/>
+      <c r="T2" s="295"/>
+      <c r="U2" s="295"/>
+      <c r="V2" s="296"/>
+      <c r="W2" s="300" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="296"/>
-      <c r="Y2" s="296"/>
-      <c r="Z2" s="296"/>
-      <c r="AA2" s="296"/>
-      <c r="AB2" s="296"/>
-      <c r="AC2" s="296"/>
-      <c r="AD2" s="296"/>
-      <c r="AE2" s="296"/>
-      <c r="AF2" s="296"/>
-      <c r="AG2" s="296"/>
-      <c r="AH2" s="296"/>
-      <c r="AI2" s="296"/>
-      <c r="AJ2" s="297"/>
+      <c r="X2" s="301"/>
+      <c r="Y2" s="301"/>
+      <c r="Z2" s="301"/>
+      <c r="AA2" s="301"/>
+      <c r="AB2" s="301"/>
+      <c r="AC2" s="301"/>
+      <c r="AD2" s="301"/>
+      <c r="AE2" s="301"/>
+      <c r="AF2" s="301"/>
+      <c r="AG2" s="301"/>
+      <c r="AH2" s="301"/>
+      <c r="AI2" s="301"/>
+      <c r="AJ2" s="302"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="298" t="s">
+      <c r="A3" s="303" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="302"/>
-      <c r="F3" s="303"/>
-      <c r="G3" s="303"/>
-      <c r="H3" s="304"/>
-      <c r="I3" s="299" t="s">
+      <c r="B3" s="304"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="307"/>
+      <c r="F3" s="308"/>
+      <c r="G3" s="308"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="299"/>
-      <c r="K3" s="299"/>
-      <c r="L3" s="308"/>
-      <c r="M3" s="310"/>
-      <c r="N3" s="303"/>
-      <c r="O3" s="303"/>
-      <c r="P3" s="303"/>
-      <c r="Q3" s="303"/>
-      <c r="R3" s="303"/>
-      <c r="S3" s="303"/>
-      <c r="T3" s="303"/>
-      <c r="U3" s="303"/>
-      <c r="V3" s="311"/>
+      <c r="J3" s="304"/>
+      <c r="K3" s="304"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="315"/>
+      <c r="N3" s="308"/>
+      <c r="O3" s="308"/>
+      <c r="P3" s="308"/>
+      <c r="Q3" s="308"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="308"/>
+      <c r="T3" s="308"/>
+      <c r="U3" s="308"/>
+      <c r="V3" s="316"/>
       <c r="W3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="314"/>
-      <c r="AA3" s="314"/>
-      <c r="AB3" s="314"/>
-      <c r="AC3" s="315"/>
+      <c r="Z3" s="319"/>
+      <c r="AA3" s="319"/>
+      <c r="AB3" s="319"/>
+      <c r="AC3" s="320"/>
       <c r="AD3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
-      <c r="AG3" s="316"/>
-      <c r="AH3" s="317"/>
-      <c r="AI3" s="317"/>
-      <c r="AJ3" s="318"/>
+      <c r="AG3" s="321"/>
+      <c r="AH3" s="322"/>
+      <c r="AI3" s="322"/>
+      <c r="AJ3" s="323"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1">
-      <c r="A4" s="300"/>
-      <c r="B4" s="301"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="305"/>
-      <c r="F4" s="306"/>
-      <c r="G4" s="306"/>
-      <c r="H4" s="307"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="309"/>
-      <c r="M4" s="312"/>
-      <c r="N4" s="306"/>
-      <c r="O4" s="306"/>
-      <c r="P4" s="306"/>
-      <c r="Q4" s="306"/>
-      <c r="R4" s="306"/>
-      <c r="S4" s="306"/>
-      <c r="T4" s="306"/>
-      <c r="U4" s="306"/>
-      <c r="V4" s="313"/>
+      <c r="A4" s="305"/>
+      <c r="B4" s="306"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="311"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="306"/>
+      <c r="J4" s="306"/>
+      <c r="K4" s="306"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="317"/>
+      <c r="N4" s="311"/>
+      <c r="O4" s="311"/>
+      <c r="P4" s="311"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="311"/>
+      <c r="T4" s="311"/>
+      <c r="U4" s="311"/>
+      <c r="V4" s="318"/>
       <c r="W4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="319"/>
-      <c r="AA4" s="319"/>
-      <c r="AB4" s="319"/>
-      <c r="AC4" s="320"/>
+      <c r="Z4" s="281"/>
+      <c r="AA4" s="281"/>
+      <c r="AB4" s="281"/>
+      <c r="AC4" s="282"/>
       <c r="AD4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AE4" s="9"/>
       <c r="AF4" s="10"/>
-      <c r="AG4" s="321"/>
-      <c r="AH4" s="322"/>
-      <c r="AI4" s="322"/>
-      <c r="AJ4" s="323"/>
+      <c r="AG4" s="283"/>
+      <c r="AH4" s="284"/>
+      <c r="AI4" s="284"/>
+      <c r="AJ4" s="285"/>
     </row>
     <row r="5" spans="1:36" ht="15.75">
       <c r="A5" s="216" t="s">
@@ -23056,4 +24614,1220 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU78"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:V4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:36" ht="15" customHeight="1">
+      <c r="A1" s="287" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="291" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+      <c r="P1" s="292"/>
+      <c r="Q1" s="292"/>
+      <c r="R1" s="292"/>
+      <c r="S1" s="292"/>
+      <c r="T1" s="292"/>
+      <c r="U1" s="292"/>
+      <c r="V1" s="293"/>
+      <c r="W1" s="297" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="298"/>
+      <c r="Y1" s="298"/>
+      <c r="Z1" s="298"/>
+      <c r="AA1" s="298"/>
+      <c r="AB1" s="298"/>
+      <c r="AC1" s="298"/>
+      <c r="AD1" s="298"/>
+      <c r="AE1" s="298"/>
+      <c r="AF1" s="298"/>
+      <c r="AG1" s="298"/>
+      <c r="AH1" s="298"/>
+      <c r="AI1" s="298"/>
+      <c r="AJ1" s="299"/>
+    </row>
+    <row r="2" spans="1:36" ht="15" customHeight="1">
+      <c r="A2" s="289"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="295"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="295"/>
+      <c r="O2" s="295"/>
+      <c r="P2" s="295"/>
+      <c r="Q2" s="295"/>
+      <c r="R2" s="295"/>
+      <c r="S2" s="295"/>
+      <c r="T2" s="295"/>
+      <c r="U2" s="295"/>
+      <c r="V2" s="296"/>
+      <c r="W2" s="300" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="301"/>
+      <c r="Y2" s="301"/>
+      <c r="Z2" s="301"/>
+      <c r="AA2" s="301"/>
+      <c r="AB2" s="301"/>
+      <c r="AC2" s="301"/>
+      <c r="AD2" s="301"/>
+      <c r="AE2" s="301"/>
+      <c r="AF2" s="301"/>
+      <c r="AG2" s="301"/>
+      <c r="AH2" s="301"/>
+      <c r="AI2" s="301"/>
+      <c r="AJ2" s="302"/>
+    </row>
+    <row r="3" spans="1:36" ht="15" customHeight="1">
+      <c r="A3" s="303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="304"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="307"/>
+      <c r="F3" s="308"/>
+      <c r="G3" s="308"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="304" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="304"/>
+      <c r="K3" s="304"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="315" t="s">
+        <v>375</v>
+      </c>
+      <c r="N3" s="308"/>
+      <c r="O3" s="308"/>
+      <c r="P3" s="308"/>
+      <c r="Q3" s="308"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="308"/>
+      <c r="T3" s="308"/>
+      <c r="U3" s="308"/>
+      <c r="V3" s="316"/>
+      <c r="W3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="319"/>
+      <c r="AA3" s="319"/>
+      <c r="AB3" s="319"/>
+      <c r="AC3" s="320"/>
+      <c r="AD3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="321"/>
+      <c r="AH3" s="322"/>
+      <c r="AI3" s="322"/>
+      <c r="AJ3" s="323"/>
+    </row>
+    <row r="4" spans="1:36" ht="15" customHeight="1">
+      <c r="A4" s="305"/>
+      <c r="B4" s="306"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="311"/>
+      <c r="H4" s="312"/>
+      <c r="I4" s="306"/>
+      <c r="J4" s="306"/>
+      <c r="K4" s="306"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="317"/>
+      <c r="N4" s="311"/>
+      <c r="O4" s="311"/>
+      <c r="P4" s="311"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="311"/>
+      <c r="T4" s="311"/>
+      <c r="U4" s="311"/>
+      <c r="V4" s="318"/>
+      <c r="W4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="281"/>
+      <c r="AA4" s="281"/>
+      <c r="AB4" s="281"/>
+      <c r="AC4" s="282"/>
+      <c r="AD4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="283"/>
+      <c r="AH4" s="284"/>
+      <c r="AI4" s="284"/>
+      <c r="AJ4" s="285"/>
+    </row>
+    <row r="5" spans="1:36" ht="15.75">
+      <c r="A5" s="216" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+    </row>
+    <row r="6" spans="1:36" ht="15.75">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="41"/>
+    </row>
+    <row r="7" spans="1:36" ht="15.75">
+      <c r="A7" s="41"/>
+      <c r="B7" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+    </row>
+    <row r="8" spans="1:36" ht="15.75">
+      <c r="A8" s="41"/>
+      <c r="B8" s="220"/>
+      <c r="C8" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="41"/>
+    </row>
+    <row r="9" spans="1:36" ht="15.75">
+      <c r="A9" s="41"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+    </row>
+    <row r="10" spans="1:36" ht="15.75">
+      <c r="A10" s="41"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="379"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+    </row>
+    <row r="11" spans="1:36" ht="15.75">
+      <c r="A11" s="41"/>
+      <c r="B11" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" s="219"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+    </row>
+    <row r="12" spans="1:36" ht="15.75">
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="380" t="s">
+        <v>368</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="41"/>
+    </row>
+    <row r="13" spans="1:36" ht="15.75">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+    </row>
+    <row r="14" spans="1:36" ht="15.75">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="219"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="41"/>
+    </row>
+    <row r="15" spans="1:36" ht="15.75">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="41"/>
+    </row>
+    <row r="16" spans="1:36" ht="15.75">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+    </row>
+    <row r="17" spans="1:47" ht="15.75">
+      <c r="A17" s="72"/>
+      <c r="B17" s="220"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="41"/>
+    </row>
+    <row r="18" spans="1:47" ht="15.75">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="42"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+    </row>
+    <row r="19" spans="1:47" ht="15.75">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="41"/>
+    </row>
+    <row r="20" spans="1:47" ht="15.75">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="217"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+    </row>
+    <row r="21" spans="1:47" ht="15.75">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="217"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+    </row>
+    <row r="22" spans="1:47" ht="15.75">
+      <c r="A22" s="42"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="60"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="60"/>
+      <c r="AG22" s="60"/>
+      <c r="AH22" s="60"/>
+      <c r="AI22" s="41"/>
+      <c r="AJ22" s="41"/>
+    </row>
+    <row r="23" spans="1:47" ht="15.75">
+      <c r="A23" s="42"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="60"/>
+      <c r="AB23" s="60"/>
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="60"/>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="60"/>
+      <c r="AG23" s="60"/>
+      <c r="AH23" s="60"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+    </row>
+    <row r="24" spans="1:47" ht="15.75">
+      <c r="A24" s="42"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="60"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="60"/>
+      <c r="AI24" s="41"/>
+      <c r="AJ24" s="41"/>
+    </row>
+    <row r="25" spans="1:47" ht="15.75">
+      <c r="A25" s="42"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="60"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="60"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="60"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="41"/>
+    </row>
+    <row r="26" spans="1:47" ht="15.75">
+      <c r="A26" s="42"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="60"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="60"/>
+      <c r="AG26" s="60"/>
+      <c r="AH26" s="60"/>
+      <c r="AI26" s="41"/>
+      <c r="AJ26" s="41"/>
+    </row>
+    <row r="27" spans="1:47" ht="15.75">
+      <c r="A27" s="42"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="60"/>
+      <c r="AB27" s="60"/>
+      <c r="AC27" s="60"/>
+      <c r="AD27" s="60"/>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="60"/>
+      <c r="AG27" s="60"/>
+      <c r="AH27" s="60"/>
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="41"/>
+    </row>
+    <row r="28" spans="1:47" ht="15.75">
+      <c r="A28" s="42"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="60"/>
+      <c r="Y28" s="60"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="60"/>
+      <c r="AB28" s="60"/>
+      <c r="AC28" s="60"/>
+      <c r="AD28" s="60"/>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="60"/>
+      <c r="AG28" s="60"/>
+      <c r="AH28" s="60"/>
+      <c r="AI28" s="41"/>
+      <c r="AJ28" s="41"/>
+    </row>
+    <row r="29" spans="1:47" ht="15.75">
+      <c r="A29" s="42"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="41"/>
+      <c r="AC29" s="41"/>
+      <c r="AD29" s="41"/>
+      <c r="AE29" s="41"/>
+      <c r="AF29" s="41"/>
+      <c r="AG29" s="41"/>
+      <c r="AH29" s="41"/>
+      <c r="AI29" s="41"/>
+      <c r="AJ29" s="41"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="12">
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:V2"/>
+    <mergeCell ref="W1:AJ1"/>
+    <mergeCell ref="W2:AJ2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="M3:V4"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AG3:AJ3"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.3" top="0.4" bottom="0.3" header="0.15" footer="0.15"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>